--- a/data-raw/cmam/otpEpisode_calculations.xlsx
+++ b/data-raw/cmam/otpEpisode_calculations.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11108"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ernest/GitHub/squeacr/data-raw/cmam/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC698152-698D-5C49-9E6A-16A6477E5899}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23998FDC-B32A-664E-B227-E97E01C1295E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11700" yWindow="460" windowWidth="31900" windowHeight="28340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="18040" yWindow="460" windowWidth="31900" windowHeight="28340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1171" uniqueCount="56">
   <si>
     <t>index</t>
   </si>
@@ -149,6 +149,60 @@
   <si>
     <t>Alhara alula</t>
   </si>
+  <si>
+    <t>North Darfur</t>
+  </si>
+  <si>
+    <t>El Fasher</t>
+  </si>
+  <si>
+    <t>Alnhdua</t>
+  </si>
+  <si>
+    <t>Sid El shohada</t>
+  </si>
+  <si>
+    <t>Abu Shock camp</t>
+  </si>
+  <si>
+    <t>Abu digeise</t>
+  </si>
+  <si>
+    <t>Golo</t>
+  </si>
+  <si>
+    <t>Tawila</t>
+  </si>
+  <si>
+    <t>Rownda A</t>
+  </si>
+  <si>
+    <t>Tungor</t>
+  </si>
+  <si>
+    <t>Tardonat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dalliy </t>
+  </si>
+  <si>
+    <t>Tawila Hospital</t>
+  </si>
+  <si>
+    <t>Kutum</t>
+  </si>
+  <si>
+    <t>Kutum Health Centre</t>
+  </si>
+  <si>
+    <t>Kassab Camp</t>
+  </si>
+  <si>
+    <t>Amo</t>
+  </si>
+  <si>
+    <t>Damrat</t>
+  </si>
 </sst>
 </file>
 
@@ -204,7 +258,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -218,7 +272,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
@@ -537,8 +590,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O1554"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A116" workbookViewId="0">
-      <selection activeCell="A143" sqref="A143"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="P140" sqref="P140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -684,49 +737,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="J1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="K1" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="L1" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="M1" s="11" t="s">
+      <c r="M1" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="N1" s="11" t="s">
+      <c r="N1" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="11" t="s">
+      <c r="O1" s="10" t="s">
         <v>12</v>
       </c>
     </row>
@@ -7692,815 +7745,6085 @@
       <c r="A144">
         <v>156</v>
       </c>
-      <c r="M144" s="9"/>
-      <c r="N144" s="10"/>
+      <c r="B144">
+        <v>16</v>
+      </c>
+      <c r="C144">
+        <v>11.2</v>
+      </c>
+      <c r="D144">
+        <v>6.7</v>
+      </c>
+      <c r="E144">
+        <v>68</v>
+      </c>
+      <c r="F144" s="1">
+        <v>43936</v>
+      </c>
+      <c r="G144" s="1">
+        <v>43971</v>
+      </c>
+      <c r="H144">
+        <v>7</v>
+      </c>
+      <c r="I144">
+        <v>6</v>
+      </c>
+      <c r="J144" t="s">
+        <v>10</v>
+      </c>
+      <c r="K144" t="s">
+        <v>38</v>
+      </c>
+      <c r="L144" t="s">
+        <v>39</v>
+      </c>
+      <c r="M144" t="s">
+        <v>40</v>
+      </c>
+      <c r="N144" s="9"/>
       <c r="O144" s="7"/>
     </row>
     <row r="145" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>157</v>
       </c>
-      <c r="M145" s="9"/>
-      <c r="N145" s="10"/>
+      <c r="B145">
+        <v>7</v>
+      </c>
+      <c r="C145">
+        <v>11.2</v>
+      </c>
+      <c r="D145">
+        <v>6</v>
+      </c>
+      <c r="E145">
+        <v>59</v>
+      </c>
+      <c r="F145" s="1">
+        <v>43866</v>
+      </c>
+      <c r="G145" s="1">
+        <v>43971</v>
+      </c>
+      <c r="H145">
+        <v>6.8</v>
+      </c>
+      <c r="I145">
+        <v>14</v>
+      </c>
+      <c r="J145" t="s">
+        <v>10</v>
+      </c>
+      <c r="K145" t="s">
+        <v>38</v>
+      </c>
+      <c r="L145" t="s">
+        <v>39</v>
+      </c>
+      <c r="M145" t="s">
+        <v>40</v>
+      </c>
+      <c r="N145" s="9"/>
       <c r="O145" s="7"/>
     </row>
     <row r="146" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>158</v>
       </c>
-      <c r="M146" s="9"/>
-      <c r="N146" s="10"/>
-      <c r="O146" s="10"/>
+      <c r="B146">
+        <v>13</v>
+      </c>
+      <c r="C146">
+        <v>11.1</v>
+      </c>
+      <c r="D146">
+        <v>5.8</v>
+      </c>
+      <c r="E146">
+        <v>66.400000000000006</v>
+      </c>
+      <c r="F146" s="1">
+        <v>43922</v>
+      </c>
+      <c r="G146" s="1">
+        <v>43964</v>
+      </c>
+      <c r="H146">
+        <v>6.3</v>
+      </c>
+      <c r="I146">
+        <v>7</v>
+      </c>
+      <c r="J146" t="s">
+        <v>10</v>
+      </c>
+      <c r="K146" t="s">
+        <v>38</v>
+      </c>
+      <c r="L146" t="s">
+        <v>39</v>
+      </c>
+      <c r="M146" t="s">
+        <v>40</v>
+      </c>
+      <c r="N146" s="9"/>
+      <c r="O146" s="9"/>
     </row>
     <row r="147" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>159</v>
       </c>
-      <c r="M147" s="9"/>
-      <c r="N147" s="10"/>
-      <c r="O147" s="10"/>
+      <c r="B147">
+        <v>7</v>
+      </c>
+      <c r="C147">
+        <v>11.2</v>
+      </c>
+      <c r="D147">
+        <v>5.5</v>
+      </c>
+      <c r="E147">
+        <v>63.6</v>
+      </c>
+      <c r="F147" s="1">
+        <v>43943</v>
+      </c>
+      <c r="G147" s="1">
+        <v>43971</v>
+      </c>
+      <c r="H147">
+        <v>5.9</v>
+      </c>
+      <c r="I147">
+        <v>5</v>
+      </c>
+      <c r="J147" t="s">
+        <v>10</v>
+      </c>
+      <c r="K147" t="s">
+        <v>38</v>
+      </c>
+      <c r="L147" t="s">
+        <v>39</v>
+      </c>
+      <c r="M147" t="s">
+        <v>40</v>
+      </c>
+      <c r="N147" s="9"/>
+      <c r="O147" s="9"/>
     </row>
     <row r="148" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>160</v>
       </c>
+      <c r="B148">
+        <v>7</v>
+      </c>
+      <c r="C148">
+        <v>11.2</v>
+      </c>
+      <c r="D148">
+        <v>6.2</v>
+      </c>
+      <c r="E148">
+        <v>61.7</v>
+      </c>
+      <c r="F148" s="1">
+        <v>43943</v>
+      </c>
+      <c r="G148" s="1">
+        <v>43971</v>
+      </c>
+      <c r="H148">
+        <v>6.4</v>
+      </c>
+      <c r="I148">
+        <v>5</v>
+      </c>
+      <c r="J148" t="s">
+        <v>10</v>
+      </c>
+      <c r="K148" t="s">
+        <v>38</v>
+      </c>
+      <c r="L148" t="s">
+        <v>39</v>
+      </c>
+      <c r="M148" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="149" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>161</v>
       </c>
+      <c r="B149">
+        <v>9</v>
+      </c>
+      <c r="C149">
+        <v>11</v>
+      </c>
+      <c r="D149">
+        <v>5.5</v>
+      </c>
+      <c r="E149">
+        <v>65.5</v>
+      </c>
+      <c r="F149" s="1">
+        <v>43992</v>
+      </c>
+      <c r="G149" s="1">
+        <v>44027</v>
+      </c>
+      <c r="H149">
+        <v>5.5</v>
+      </c>
+      <c r="I149">
+        <v>5</v>
+      </c>
+      <c r="J149" t="s">
+        <v>10</v>
+      </c>
+      <c r="K149" t="s">
+        <v>38</v>
+      </c>
+      <c r="L149" t="s">
+        <v>39</v>
+      </c>
+      <c r="M149" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="150" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>162</v>
       </c>
+      <c r="B150">
+        <v>7</v>
+      </c>
+      <c r="C150">
+        <v>11.1</v>
+      </c>
+      <c r="D150">
+        <v>5.4</v>
+      </c>
+      <c r="E150">
+        <v>62.2</v>
+      </c>
+      <c r="F150" s="1">
+        <v>44006</v>
+      </c>
+      <c r="G150" s="1">
+        <v>44041</v>
+      </c>
+      <c r="H150">
+        <v>6</v>
+      </c>
+      <c r="I150">
+        <v>5</v>
+      </c>
+      <c r="J150" t="s">
+        <v>10</v>
+      </c>
+      <c r="K150" t="s">
+        <v>38</v>
+      </c>
+      <c r="L150" t="s">
+        <v>39</v>
+      </c>
+      <c r="M150" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="151" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>163</v>
       </c>
+      <c r="B151">
+        <v>7</v>
+      </c>
+      <c r="C151">
+        <v>11.2</v>
+      </c>
+      <c r="D151">
+        <v>5.5</v>
+      </c>
+      <c r="E151">
+        <v>62.1</v>
+      </c>
+      <c r="F151" s="1">
+        <v>43999</v>
+      </c>
+      <c r="G151" s="1">
+        <v>44069</v>
+      </c>
+      <c r="H151">
+        <v>5.3</v>
+      </c>
+      <c r="I151">
+        <v>9</v>
+      </c>
+      <c r="J151" t="s">
+        <v>10</v>
+      </c>
+      <c r="K151" t="s">
+        <v>38</v>
+      </c>
+      <c r="L151" t="s">
+        <v>39</v>
+      </c>
+      <c r="M151" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="152" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>164</v>
       </c>
+      <c r="B152">
+        <v>15</v>
+      </c>
+      <c r="C152">
+        <v>11.2</v>
+      </c>
+      <c r="D152">
+        <v>7.2</v>
+      </c>
+      <c r="E152">
+        <v>72.599999999999994</v>
+      </c>
+      <c r="F152" s="1">
+        <v>44006</v>
+      </c>
+      <c r="G152" s="1">
+        <v>44041</v>
+      </c>
+      <c r="H152">
+        <v>7.8</v>
+      </c>
+      <c r="I152">
+        <v>5</v>
+      </c>
+      <c r="J152" t="s">
+        <v>10</v>
+      </c>
+      <c r="K152" t="s">
+        <v>38</v>
+      </c>
+      <c r="L152" t="s">
+        <v>39</v>
+      </c>
+      <c r="M152" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="153" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>165</v>
       </c>
+      <c r="B153">
+        <v>10</v>
+      </c>
+      <c r="C153">
+        <v>11.1</v>
+      </c>
+      <c r="D153">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="E153">
+        <v>62</v>
+      </c>
+      <c r="F153" s="1">
+        <v>43950</v>
+      </c>
+      <c r="G153" s="1">
+        <v>44032</v>
+      </c>
+      <c r="H153">
+        <v>6.1</v>
+      </c>
+      <c r="I153">
+        <v>8</v>
+      </c>
+      <c r="J153" t="s">
+        <v>10</v>
+      </c>
+      <c r="K153" t="s">
+        <v>38</v>
+      </c>
+      <c r="L153" t="s">
+        <v>39</v>
+      </c>
+      <c r="M153" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="154" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>166</v>
       </c>
+      <c r="B154">
+        <v>8</v>
+      </c>
+      <c r="C154">
+        <v>11.3</v>
+      </c>
+      <c r="D154">
+        <v>5.7</v>
+      </c>
+      <c r="E154">
+        <v>66.3</v>
+      </c>
+      <c r="F154" s="1">
+        <v>44083</v>
+      </c>
+      <c r="G154" s="1">
+        <v>44097</v>
+      </c>
+      <c r="H154">
+        <v>6.4</v>
+      </c>
+      <c r="I154">
+        <v>3</v>
+      </c>
+      <c r="J154" t="s">
+        <v>10</v>
+      </c>
+      <c r="K154" t="s">
+        <v>38</v>
+      </c>
+      <c r="L154" t="s">
+        <v>39</v>
+      </c>
+      <c r="M154" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="155" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>167</v>
       </c>
+      <c r="B155">
+        <v>16</v>
+      </c>
+      <c r="C155">
+        <v>11.3</v>
+      </c>
+      <c r="D155">
+        <v>6.9</v>
+      </c>
+      <c r="E155">
+        <v>73.3</v>
+      </c>
+      <c r="F155" s="1">
+        <v>44083</v>
+      </c>
+      <c r="G155" s="1">
+        <v>44100</v>
+      </c>
+      <c r="H155">
+        <v>7.7</v>
+      </c>
+      <c r="I155">
+        <v>3</v>
+      </c>
+      <c r="J155" t="s">
+        <v>10</v>
+      </c>
+      <c r="K155" t="s">
+        <v>38</v>
+      </c>
+      <c r="L155" t="s">
+        <v>39</v>
+      </c>
+      <c r="M155" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="156" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>168</v>
       </c>
+      <c r="B156">
+        <v>10</v>
+      </c>
+      <c r="C156">
+        <v>11</v>
+      </c>
+      <c r="D156">
+        <v>6.6</v>
+      </c>
+      <c r="E156">
+        <v>63</v>
+      </c>
+      <c r="F156" s="1">
+        <v>44013</v>
+      </c>
+      <c r="G156" s="1">
+        <v>44041</v>
+      </c>
+      <c r="H156">
+        <v>6.9</v>
+      </c>
+      <c r="I156">
+        <v>3</v>
+      </c>
+      <c r="J156" t="s">
+        <v>10</v>
+      </c>
+      <c r="K156" t="s">
+        <v>38</v>
+      </c>
+      <c r="L156" t="s">
+        <v>39</v>
+      </c>
+      <c r="M156" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="157" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>169</v>
       </c>
+      <c r="B157">
+        <v>6</v>
+      </c>
+      <c r="C157">
+        <v>11</v>
+      </c>
+      <c r="D157">
+        <v>5.4</v>
+      </c>
+      <c r="E157">
+        <v>63.2</v>
+      </c>
+      <c r="F157" s="1">
+        <v>43873</v>
+      </c>
+      <c r="G157" s="1">
+        <v>44041</v>
+      </c>
+      <c r="H157">
+        <v>6.6</v>
+      </c>
+      <c r="I157">
+        <v>13</v>
+      </c>
+      <c r="J157" t="s">
+        <v>10</v>
+      </c>
+      <c r="K157" t="s">
+        <v>38</v>
+      </c>
+      <c r="L157" t="s">
+        <v>39</v>
+      </c>
+      <c r="M157" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="158" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>170</v>
       </c>
+      <c r="B158">
+        <v>7</v>
+      </c>
+      <c r="C158">
+        <v>10.6</v>
+      </c>
+      <c r="D158">
+        <v>5.3</v>
+      </c>
+      <c r="E158">
+        <v>65.7</v>
+      </c>
+      <c r="F158" s="1">
+        <v>43894</v>
+      </c>
+      <c r="G158" s="1">
+        <v>44041</v>
+      </c>
+      <c r="H158">
+        <v>5.5</v>
+      </c>
+      <c r="I158">
+        <v>12</v>
+      </c>
+      <c r="J158" t="s">
+        <v>10</v>
+      </c>
+      <c r="K158" t="s">
+        <v>38</v>
+      </c>
+      <c r="L158" t="s">
+        <v>39</v>
+      </c>
+      <c r="M158" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="159" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>171</v>
       </c>
+      <c r="B159">
+        <v>7</v>
+      </c>
+      <c r="C159">
+        <v>10.8</v>
+      </c>
+      <c r="D159">
+        <v>5.5</v>
+      </c>
+      <c r="E159">
+        <v>65.2</v>
+      </c>
+      <c r="F159" s="1">
+        <v>43873</v>
+      </c>
+      <c r="G159" s="1">
+        <v>43985</v>
+      </c>
+      <c r="H159">
+        <v>6.8</v>
+      </c>
+      <c r="I159">
+        <v>10</v>
+      </c>
+      <c r="J159" t="s">
+        <v>10</v>
+      </c>
+      <c r="K159" t="s">
+        <v>38</v>
+      </c>
+      <c r="L159" t="s">
+        <v>39</v>
+      </c>
+      <c r="M159" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="160" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>172</v>
       </c>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B160">
+        <v>9</v>
+      </c>
+      <c r="C160">
+        <v>11.1</v>
+      </c>
+      <c r="D160">
+        <v>6.1</v>
+      </c>
+      <c r="E160">
+        <v>65.599999999999994</v>
+      </c>
+      <c r="F160" s="1">
+        <v>43922</v>
+      </c>
+      <c r="G160" s="1">
+        <v>43964</v>
+      </c>
+      <c r="H160">
+        <v>6.5</v>
+      </c>
+      <c r="I160">
+        <v>5</v>
+      </c>
+      <c r="J160" t="s">
+        <v>10</v>
+      </c>
+      <c r="K160" t="s">
+        <v>38</v>
+      </c>
+      <c r="L160" t="s">
+        <v>39</v>
+      </c>
+      <c r="M160" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="161" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>173</v>
       </c>
-    </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B161">
+        <v>9</v>
+      </c>
+      <c r="C161">
+        <v>11.1</v>
+      </c>
+      <c r="D161">
+        <v>6.6</v>
+      </c>
+      <c r="E161">
+        <v>68.5</v>
+      </c>
+      <c r="F161" s="1">
+        <v>44097</v>
+      </c>
+      <c r="G161" s="1">
+        <v>44132</v>
+      </c>
+      <c r="H161">
+        <v>6.8</v>
+      </c>
+      <c r="I161">
+        <v>4</v>
+      </c>
+      <c r="J161" t="s">
+        <v>10</v>
+      </c>
+      <c r="K161" t="s">
+        <v>38</v>
+      </c>
+      <c r="L161" t="s">
+        <v>39</v>
+      </c>
+      <c r="M161" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="162" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>174</v>
       </c>
-    </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B162">
+        <v>18</v>
+      </c>
+      <c r="C162">
+        <v>10.9</v>
+      </c>
+      <c r="D162">
+        <v>6.8</v>
+      </c>
+      <c r="E162">
+        <v>73.2</v>
+      </c>
+      <c r="F162" s="1">
+        <v>44069</v>
+      </c>
+      <c r="G162" s="1">
+        <v>44090</v>
+      </c>
+      <c r="H162">
+        <v>7.4</v>
+      </c>
+      <c r="I162">
+        <v>4</v>
+      </c>
+      <c r="J162" t="s">
+        <v>10</v>
+      </c>
+      <c r="K162" t="s">
+        <v>38</v>
+      </c>
+      <c r="L162" t="s">
+        <v>39</v>
+      </c>
+      <c r="M162" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="163" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>175</v>
       </c>
-    </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B163">
+        <v>24</v>
+      </c>
+      <c r="C163">
+        <v>11.3</v>
+      </c>
+      <c r="D163">
+        <v>7.3</v>
+      </c>
+      <c r="E163">
+        <v>76</v>
+      </c>
+      <c r="F163" s="1">
+        <v>43922</v>
+      </c>
+      <c r="G163" s="1">
+        <v>44019</v>
+      </c>
+      <c r="H163">
+        <v>7.9</v>
+      </c>
+      <c r="I163">
+        <v>7</v>
+      </c>
+      <c r="J163" t="s">
+        <v>10</v>
+      </c>
+      <c r="K163" t="s">
+        <v>38</v>
+      </c>
+      <c r="L163" t="s">
+        <v>39</v>
+      </c>
+      <c r="M163" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="164" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>176</v>
       </c>
-    </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B164">
+        <v>10</v>
+      </c>
+      <c r="C164">
+        <v>11.1</v>
+      </c>
+      <c r="D164">
+        <v>6.1</v>
+      </c>
+      <c r="E164">
+        <v>66</v>
+      </c>
+      <c r="F164" s="1">
+        <v>43999</v>
+      </c>
+      <c r="G164" s="1">
+        <v>44034</v>
+      </c>
+      <c r="H164">
+        <v>6.7</v>
+      </c>
+      <c r="I164">
+        <v>4</v>
+      </c>
+      <c r="J164" t="s">
+        <v>10</v>
+      </c>
+      <c r="K164" t="s">
+        <v>38</v>
+      </c>
+      <c r="L164" t="s">
+        <v>39</v>
+      </c>
+      <c r="M164" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="165" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>177</v>
       </c>
-    </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B165">
+        <v>18</v>
+      </c>
+      <c r="C165">
+        <v>10.6</v>
+      </c>
+      <c r="D165">
+        <v>6.2</v>
+      </c>
+      <c r="E165">
+        <v>72</v>
+      </c>
+      <c r="F165" s="1">
+        <v>43919</v>
+      </c>
+      <c r="G165" s="1">
+        <v>43985</v>
+      </c>
+      <c r="H165">
+        <v>6.7</v>
+      </c>
+      <c r="I165">
+        <v>6</v>
+      </c>
+      <c r="J165" t="s">
+        <v>10</v>
+      </c>
+      <c r="K165" t="s">
+        <v>38</v>
+      </c>
+      <c r="L165" t="s">
+        <v>39</v>
+      </c>
+      <c r="M165" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="166" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>178</v>
       </c>
-    </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B166">
+        <v>7</v>
+      </c>
+      <c r="C166">
+        <v>10.9</v>
+      </c>
+      <c r="D166">
+        <v>7.5</v>
+      </c>
+      <c r="E166">
+        <v>64</v>
+      </c>
+      <c r="F166" s="1">
+        <v>44069</v>
+      </c>
+      <c r="G166" s="1">
+        <v>44104</v>
+      </c>
+      <c r="H166">
+        <v>6.2</v>
+      </c>
+      <c r="I166">
+        <v>6</v>
+      </c>
+      <c r="J166" t="s">
+        <v>10</v>
+      </c>
+      <c r="K166" t="s">
+        <v>38</v>
+      </c>
+      <c r="L166" t="s">
+        <v>39</v>
+      </c>
+      <c r="M166" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="167" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>179</v>
       </c>
-    </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B167">
+        <v>7</v>
+      </c>
+      <c r="C167">
+        <v>11.3</v>
+      </c>
+      <c r="D167">
+        <v>5.4</v>
+      </c>
+      <c r="E167">
+        <v>65</v>
+      </c>
+      <c r="F167" s="1">
+        <v>44087</v>
+      </c>
+      <c r="G167" s="1">
+        <v>44115</v>
+      </c>
+      <c r="H167">
+        <v>5.7</v>
+      </c>
+      <c r="I167">
+        <v>5</v>
+      </c>
+      <c r="J167" t="s">
+        <v>10</v>
+      </c>
+      <c r="K167" t="s">
+        <v>38</v>
+      </c>
+      <c r="L167" t="s">
+        <v>39</v>
+      </c>
+      <c r="M167" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="168" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>180</v>
       </c>
-    </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B168">
+        <v>21</v>
+      </c>
+      <c r="C168">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="D168">
+        <v>5.8</v>
+      </c>
+      <c r="E168">
+        <v>68.400000000000006</v>
+      </c>
+      <c r="F168" s="1">
+        <v>43838</v>
+      </c>
+      <c r="G168" s="1">
+        <v>43964</v>
+      </c>
+      <c r="H168">
+        <v>7.1</v>
+      </c>
+      <c r="I168">
+        <v>14</v>
+      </c>
+      <c r="J168" t="s">
+        <v>10</v>
+      </c>
+      <c r="K168" t="s">
+        <v>38</v>
+      </c>
+      <c r="L168" t="s">
+        <v>39</v>
+      </c>
+      <c r="M168" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="169" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>181</v>
       </c>
-    </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B169">
+        <v>18</v>
+      </c>
+      <c r="C169">
+        <v>13.5</v>
+      </c>
+      <c r="D169">
+        <v>7.2</v>
+      </c>
+      <c r="E169">
+        <v>69.400000000000006</v>
+      </c>
+      <c r="F169" s="1">
+        <v>43905</v>
+      </c>
+      <c r="G169" s="1">
+        <v>43989</v>
+      </c>
+      <c r="H169">
+        <v>7.7</v>
+      </c>
+      <c r="I169">
+        <v>8</v>
+      </c>
+      <c r="J169" t="s">
+        <v>10</v>
+      </c>
+      <c r="K169" t="s">
+        <v>38</v>
+      </c>
+      <c r="L169" t="s">
+        <v>39</v>
+      </c>
+      <c r="M169" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="170" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>182</v>
       </c>
-    </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B170">
+        <v>24</v>
+      </c>
+      <c r="C170">
+        <v>12.5</v>
+      </c>
+      <c r="D170">
+        <v>8.9</v>
+      </c>
+      <c r="E170">
+        <v>75.5</v>
+      </c>
+      <c r="F170" s="1">
+        <v>43968</v>
+      </c>
+      <c r="G170" s="1">
+        <v>44038</v>
+      </c>
+      <c r="H170">
+        <v>8.1</v>
+      </c>
+      <c r="I170">
+        <v>5</v>
+      </c>
+      <c r="J170" t="s">
+        <v>10</v>
+      </c>
+      <c r="K170" t="s">
+        <v>38</v>
+      </c>
+      <c r="L170" t="s">
+        <v>39</v>
+      </c>
+      <c r="M170" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="171" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>183</v>
       </c>
-    </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B171">
+        <v>12</v>
+      </c>
+      <c r="C171">
+        <v>14</v>
+      </c>
+      <c r="D171">
+        <v>8.5</v>
+      </c>
+      <c r="E171">
+        <v>71.2</v>
+      </c>
+      <c r="F171" s="1">
+        <v>43933</v>
+      </c>
+      <c r="G171" s="1">
+        <v>44073</v>
+      </c>
+      <c r="H171">
+        <v>7.6</v>
+      </c>
+      <c r="I171">
+        <v>12</v>
+      </c>
+      <c r="J171" t="s">
+        <v>10</v>
+      </c>
+      <c r="K171" t="s">
+        <v>38</v>
+      </c>
+      <c r="L171" t="s">
+        <v>39</v>
+      </c>
+      <c r="M171" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="172" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>184</v>
       </c>
-    </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B172">
+        <v>21</v>
+      </c>
+      <c r="C172">
+        <v>11</v>
+      </c>
+      <c r="D172">
+        <v>7.1</v>
+      </c>
+      <c r="E172">
+        <v>74</v>
+      </c>
+      <c r="F172" s="1">
+        <v>44038</v>
+      </c>
+      <c r="G172" s="1">
+        <v>44060</v>
+      </c>
+      <c r="H172">
+        <v>8.4</v>
+      </c>
+      <c r="I172">
+        <v>4</v>
+      </c>
+      <c r="J172" t="s">
+        <v>10</v>
+      </c>
+      <c r="K172" t="s">
+        <v>38</v>
+      </c>
+      <c r="L172" t="s">
+        <v>39</v>
+      </c>
+      <c r="M172" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="173" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>185</v>
       </c>
-    </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B173">
+        <v>11</v>
+      </c>
+      <c r="C173">
+        <v>11</v>
+      </c>
+      <c r="D173">
+        <v>6.5</v>
+      </c>
+      <c r="E173">
+        <v>71</v>
+      </c>
+      <c r="F173" s="1">
+        <v>43968</v>
+      </c>
+      <c r="G173" s="1">
+        <v>44031</v>
+      </c>
+      <c r="H173">
+        <v>6.9</v>
+      </c>
+      <c r="I173">
+        <v>5</v>
+      </c>
+      <c r="J173" t="s">
+        <v>10</v>
+      </c>
+      <c r="K173" t="s">
+        <v>38</v>
+      </c>
+      <c r="L173" t="s">
+        <v>39</v>
+      </c>
+      <c r="M173" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="174" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>186</v>
       </c>
-    </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B174">
+        <v>12</v>
+      </c>
+      <c r="C174">
+        <v>11.2</v>
+      </c>
+      <c r="D174">
+        <v>6</v>
+      </c>
+      <c r="E174">
+        <v>70</v>
+      </c>
+      <c r="F174" s="1">
+        <v>44018</v>
+      </c>
+      <c r="G174" s="1">
+        <v>44060</v>
+      </c>
+      <c r="H174">
+        <v>6.8</v>
+      </c>
+      <c r="I174">
+        <v>5</v>
+      </c>
+      <c r="J174" t="s">
+        <v>10</v>
+      </c>
+      <c r="K174" t="s">
+        <v>38</v>
+      </c>
+      <c r="L174" t="s">
+        <v>39</v>
+      </c>
+      <c r="M174" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="175" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>187</v>
       </c>
-    </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B175">
+        <v>10</v>
+      </c>
+      <c r="C175">
+        <v>11.4</v>
+      </c>
+      <c r="D175">
+        <v>6</v>
+      </c>
+      <c r="E175">
+        <v>71</v>
+      </c>
+      <c r="F175" s="1">
+        <v>44008</v>
+      </c>
+      <c r="G175" s="1">
+        <v>44078</v>
+      </c>
+      <c r="H175">
+        <v>6.5</v>
+      </c>
+      <c r="I175">
+        <v>6</v>
+      </c>
+      <c r="J175" t="s">
+        <v>10</v>
+      </c>
+      <c r="K175" t="s">
+        <v>38</v>
+      </c>
+      <c r="L175" t="s">
+        <v>39</v>
+      </c>
+      <c r="M175" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="176" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>188</v>
       </c>
-    </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B176">
+        <v>15</v>
+      </c>
+      <c r="C176">
+        <v>11.4</v>
+      </c>
+      <c r="D176">
+        <v>7.7</v>
+      </c>
+      <c r="E176">
+        <v>76</v>
+      </c>
+      <c r="F176" s="1">
+        <v>44019</v>
+      </c>
+      <c r="G176" s="1">
+        <v>44113</v>
+      </c>
+      <c r="H176">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="I176">
+        <v>8</v>
+      </c>
+      <c r="J176" t="s">
+        <v>10</v>
+      </c>
+      <c r="K176" t="s">
+        <v>38</v>
+      </c>
+      <c r="L176" t="s">
+        <v>39</v>
+      </c>
+      <c r="M176" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="177" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>189</v>
       </c>
-    </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B177">
+        <v>7</v>
+      </c>
+      <c r="C177">
+        <v>11.3</v>
+      </c>
+      <c r="D177">
+        <v>6.1</v>
+      </c>
+      <c r="E177">
+        <v>66.7</v>
+      </c>
+      <c r="F177" s="1">
+        <v>44029</v>
+      </c>
+      <c r="G177" s="1">
+        <v>44092</v>
+      </c>
+      <c r="H177">
+        <v>6.8</v>
+      </c>
+      <c r="I177">
+        <v>7</v>
+      </c>
+      <c r="J177" t="s">
+        <v>10</v>
+      </c>
+      <c r="K177" t="s">
+        <v>38</v>
+      </c>
+      <c r="L177" t="s">
+        <v>39</v>
+      </c>
+      <c r="M177" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="178" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>190</v>
       </c>
-    </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B178">
+        <v>24</v>
+      </c>
+      <c r="C178">
+        <v>11.3</v>
+      </c>
+      <c r="D178">
+        <v>6.7</v>
+      </c>
+      <c r="E178">
+        <v>92</v>
+      </c>
+      <c r="F178" s="1">
+        <v>44050</v>
+      </c>
+      <c r="G178" s="1">
+        <v>44113</v>
+      </c>
+      <c r="H178">
+        <v>8.4</v>
+      </c>
+      <c r="I178">
+        <v>7</v>
+      </c>
+      <c r="J178" t="s">
+        <v>10</v>
+      </c>
+      <c r="K178" t="s">
+        <v>38</v>
+      </c>
+      <c r="L178" t="s">
+        <v>39</v>
+      </c>
+      <c r="M178" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="179" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>191</v>
       </c>
-    </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B179">
+        <v>12</v>
+      </c>
+      <c r="C179">
+        <v>11.4</v>
+      </c>
+      <c r="D179">
+        <v>7.4</v>
+      </c>
+      <c r="E179">
+        <v>86.2</v>
+      </c>
+      <c r="F179" s="1">
+        <v>43861</v>
+      </c>
+      <c r="G179" s="1">
+        <v>43959</v>
+      </c>
+      <c r="H179">
+        <v>7.9</v>
+      </c>
+      <c r="I179">
+        <v>9</v>
+      </c>
+      <c r="J179" t="s">
+        <v>10</v>
+      </c>
+      <c r="K179" t="s">
+        <v>38</v>
+      </c>
+      <c r="L179" t="s">
+        <v>39</v>
+      </c>
+      <c r="M179" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="180" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>192</v>
       </c>
-    </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B180">
+        <v>15</v>
+      </c>
+      <c r="C180">
+        <v>11.4</v>
+      </c>
+      <c r="D180">
+        <v>7.2</v>
+      </c>
+      <c r="E180">
+        <v>94</v>
+      </c>
+      <c r="F180" s="1">
+        <v>43924</v>
+      </c>
+      <c r="G180" s="1">
+        <v>43994</v>
+      </c>
+      <c r="H180">
+        <v>8</v>
+      </c>
+      <c r="I180">
+        <v>8</v>
+      </c>
+      <c r="J180" t="s">
+        <v>10</v>
+      </c>
+      <c r="K180" t="s">
+        <v>38</v>
+      </c>
+      <c r="L180" t="s">
+        <v>39</v>
+      </c>
+      <c r="M180" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="181" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>193</v>
       </c>
-    </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B181">
+        <v>15</v>
+      </c>
+      <c r="C181">
+        <v>10.7</v>
+      </c>
+      <c r="D181">
+        <v>6</v>
+      </c>
+      <c r="E181">
+        <v>89</v>
+      </c>
+      <c r="F181" s="1">
+        <v>43931</v>
+      </c>
+      <c r="G181" s="1">
+        <v>44008</v>
+      </c>
+      <c r="H181">
+        <v>7</v>
+      </c>
+      <c r="I181">
+        <v>7</v>
+      </c>
+      <c r="J181" t="s">
+        <v>10</v>
+      </c>
+      <c r="K181" t="s">
+        <v>38</v>
+      </c>
+      <c r="L181" t="s">
+        <v>39</v>
+      </c>
+      <c r="M181" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="182" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>194</v>
       </c>
-    </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B182">
+        <v>24</v>
+      </c>
+      <c r="C182">
+        <v>11.4</v>
+      </c>
+      <c r="D182">
+        <v>7.3</v>
+      </c>
+      <c r="E182">
+        <v>92</v>
+      </c>
+      <c r="F182" s="1">
+        <v>43945</v>
+      </c>
+      <c r="G182" s="1">
+        <v>44022</v>
+      </c>
+      <c r="H182">
+        <v>8.5</v>
+      </c>
+      <c r="I182">
+        <v>7</v>
+      </c>
+      <c r="J182" t="s">
+        <v>10</v>
+      </c>
+      <c r="K182" t="s">
+        <v>38</v>
+      </c>
+      <c r="L182" t="s">
+        <v>39</v>
+      </c>
+      <c r="M182" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="183" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>195</v>
       </c>
-    </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B183">
+        <v>15</v>
+      </c>
+      <c r="C183">
+        <v>10.5</v>
+      </c>
+      <c r="D183">
+        <v>5.6</v>
+      </c>
+      <c r="E183">
+        <v>87.7</v>
+      </c>
+      <c r="F183" s="1">
+        <v>43959</v>
+      </c>
+      <c r="G183" s="1">
+        <v>44019</v>
+      </c>
+      <c r="H183">
+        <v>5.6</v>
+      </c>
+      <c r="I183">
+        <v>7</v>
+      </c>
+      <c r="J183" t="s">
+        <v>10</v>
+      </c>
+      <c r="K183" t="s">
+        <v>38</v>
+      </c>
+      <c r="L183" t="s">
+        <v>39</v>
+      </c>
+      <c r="M183" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="184" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>196</v>
       </c>
-    </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B184">
+        <v>19</v>
+      </c>
+      <c r="C184">
+        <v>11.3</v>
+      </c>
+      <c r="D184">
+        <v>5.6</v>
+      </c>
+      <c r="E184">
+        <v>86</v>
+      </c>
+      <c r="F184" s="1">
+        <v>44064</v>
+      </c>
+      <c r="G184" s="1">
+        <v>44127</v>
+      </c>
+      <c r="H184">
+        <v>6.5</v>
+      </c>
+      <c r="I184">
+        <v>7</v>
+      </c>
+      <c r="J184" t="s">
+        <v>10</v>
+      </c>
+      <c r="K184" t="s">
+        <v>38</v>
+      </c>
+      <c r="L184" t="s">
+        <v>39</v>
+      </c>
+      <c r="M184" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="185" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>197</v>
       </c>
-    </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B185">
+        <v>9</v>
+      </c>
+      <c r="C185">
+        <v>11</v>
+      </c>
+      <c r="D185">
+        <v>6.2</v>
+      </c>
+      <c r="E185">
+        <v>66.900000000000006</v>
+      </c>
+      <c r="F185" s="1">
+        <v>43987</v>
+      </c>
+      <c r="G185" s="1">
+        <v>44050</v>
+      </c>
+      <c r="H185">
+        <v>6.7</v>
+      </c>
+      <c r="I185">
+        <v>9</v>
+      </c>
+      <c r="J185" t="s">
+        <v>10</v>
+      </c>
+      <c r="K185" t="s">
+        <v>38</v>
+      </c>
+      <c r="L185" t="s">
+        <v>39</v>
+      </c>
+      <c r="M185" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="186" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>198</v>
       </c>
-    </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B186">
+        <v>24</v>
+      </c>
+      <c r="C186">
+        <v>11</v>
+      </c>
+      <c r="D186">
+        <v>6</v>
+      </c>
+      <c r="E186">
+        <v>71</v>
+      </c>
+      <c r="F186" s="1">
+        <v>44029</v>
+      </c>
+      <c r="G186" s="1">
+        <v>44113</v>
+      </c>
+      <c r="H186">
+        <v>7.3</v>
+      </c>
+      <c r="I186">
+        <v>12</v>
+      </c>
+      <c r="J186" t="s">
+        <v>10</v>
+      </c>
+      <c r="K186" t="s">
+        <v>38</v>
+      </c>
+      <c r="L186" t="s">
+        <v>39</v>
+      </c>
+      <c r="M186" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="187" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>199</v>
       </c>
-    </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B187">
+        <v>19</v>
+      </c>
+      <c r="C187">
+        <v>11.2</v>
+      </c>
+      <c r="D187">
+        <v>7.2</v>
+      </c>
+      <c r="E187">
+        <v>70.3</v>
+      </c>
+      <c r="F187" s="1">
+        <v>44064</v>
+      </c>
+      <c r="G187" s="1">
+        <v>44120</v>
+      </c>
+      <c r="H187">
+        <v>7.8</v>
+      </c>
+      <c r="I187">
+        <v>9</v>
+      </c>
+      <c r="J187" t="s">
+        <v>10</v>
+      </c>
+      <c r="K187" t="s">
+        <v>38</v>
+      </c>
+      <c r="L187" t="s">
+        <v>39</v>
+      </c>
+      <c r="M187" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="188" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>200</v>
       </c>
-    </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B188">
+        <v>10</v>
+      </c>
+      <c r="C188">
+        <v>11.2</v>
+      </c>
+      <c r="D188">
+        <v>6.5</v>
+      </c>
+      <c r="E188">
+        <v>68.7</v>
+      </c>
+      <c r="F188" s="1">
+        <v>44071</v>
+      </c>
+      <c r="G188" s="1">
+        <v>44120</v>
+      </c>
+      <c r="H188">
+        <v>7.2</v>
+      </c>
+      <c r="I188">
+        <v>8</v>
+      </c>
+      <c r="J188" t="s">
+        <v>10</v>
+      </c>
+      <c r="K188" t="s">
+        <v>38</v>
+      </c>
+      <c r="L188" t="s">
+        <v>39</v>
+      </c>
+      <c r="M188" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="189" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>201</v>
       </c>
-    </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B189">
+        <v>7</v>
+      </c>
+      <c r="C189">
+        <v>11.1</v>
+      </c>
+      <c r="D189">
+        <v>5.3</v>
+      </c>
+      <c r="E189">
+        <v>65.099999999999994</v>
+      </c>
+      <c r="F189" s="1">
+        <v>44022</v>
+      </c>
+      <c r="G189" s="1">
+        <v>44113</v>
+      </c>
+      <c r="H189">
+        <v>6.7</v>
+      </c>
+      <c r="I189">
+        <v>13</v>
+      </c>
+      <c r="J189" t="s">
+        <v>10</v>
+      </c>
+      <c r="K189" t="s">
+        <v>38</v>
+      </c>
+      <c r="L189" t="s">
+        <v>39</v>
+      </c>
+      <c r="M189" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="190" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>202</v>
       </c>
-    </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B190">
+        <v>19</v>
+      </c>
+      <c r="C190">
+        <v>11.2</v>
+      </c>
+      <c r="D190">
+        <v>7.1</v>
+      </c>
+      <c r="E190">
+        <v>72.3</v>
+      </c>
+      <c r="F190" s="1">
+        <v>43987</v>
+      </c>
+      <c r="G190" s="1">
+        <v>44022</v>
+      </c>
+      <c r="H190">
+        <v>7.4</v>
+      </c>
+      <c r="I190">
+        <v>6</v>
+      </c>
+      <c r="J190" t="s">
+        <v>10</v>
+      </c>
+      <c r="K190" t="s">
+        <v>38</v>
+      </c>
+      <c r="L190" t="s">
+        <v>39</v>
+      </c>
+      <c r="M190" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="191" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>203</v>
       </c>
-    </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B191">
+        <v>19</v>
+      </c>
+      <c r="C191">
+        <v>11.2</v>
+      </c>
+      <c r="D191">
+        <v>7.2</v>
+      </c>
+      <c r="E191">
+        <v>73.099999999999994</v>
+      </c>
+      <c r="F191" s="1">
+        <v>43980</v>
+      </c>
+      <c r="G191" s="1">
+        <v>44022</v>
+      </c>
+      <c r="H191">
+        <v>7.5</v>
+      </c>
+      <c r="I191">
+        <v>7</v>
+      </c>
+      <c r="J191" t="s">
+        <v>10</v>
+      </c>
+      <c r="K191" t="s">
+        <v>38</v>
+      </c>
+      <c r="L191" t="s">
+        <v>39</v>
+      </c>
+      <c r="M191" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="192" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>204</v>
       </c>
-    </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B192">
+        <v>16</v>
+      </c>
+      <c r="C192">
+        <v>11.3</v>
+      </c>
+      <c r="D192">
+        <v>7</v>
+      </c>
+      <c r="E192">
+        <v>72.099999999999994</v>
+      </c>
+      <c r="F192" s="1">
+        <v>43980</v>
+      </c>
+      <c r="G192" s="1">
+        <v>44022</v>
+      </c>
+      <c r="H192">
+        <v>7.4</v>
+      </c>
+      <c r="I192">
+        <v>7</v>
+      </c>
+      <c r="J192" t="s">
+        <v>10</v>
+      </c>
+      <c r="K192" t="s">
+        <v>38</v>
+      </c>
+      <c r="L192" t="s">
+        <v>39</v>
+      </c>
+      <c r="M192" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="193" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>205</v>
       </c>
-    </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B193">
+        <v>7</v>
+      </c>
+      <c r="C193">
+        <v>10.8</v>
+      </c>
+      <c r="D193">
+        <v>5.5</v>
+      </c>
+      <c r="E193">
+        <v>65.099999999999994</v>
+      </c>
+      <c r="F193" s="1">
+        <v>44071</v>
+      </c>
+      <c r="G193" s="1">
+        <v>44120</v>
+      </c>
+      <c r="H193">
+        <v>6.4</v>
+      </c>
+      <c r="I193">
+        <v>8</v>
+      </c>
+      <c r="J193" t="s">
+        <v>10</v>
+      </c>
+      <c r="K193" t="s">
+        <v>38</v>
+      </c>
+      <c r="L193" t="s">
+        <v>39</v>
+      </c>
+      <c r="M193" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="194" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>206</v>
       </c>
-    </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B194">
+        <v>7</v>
+      </c>
+      <c r="C194">
+        <v>10.6</v>
+      </c>
+      <c r="D194">
+        <v>5.5</v>
+      </c>
+      <c r="E194">
+        <v>65</v>
+      </c>
+      <c r="F194" s="1">
+        <v>43980</v>
+      </c>
+      <c r="G194" s="1">
+        <v>44050</v>
+      </c>
+      <c r="H194">
+        <v>6.4</v>
+      </c>
+      <c r="I194">
+        <v>10</v>
+      </c>
+      <c r="J194" t="s">
+        <v>10</v>
+      </c>
+      <c r="K194" t="s">
+        <v>38</v>
+      </c>
+      <c r="L194" t="s">
+        <v>39</v>
+      </c>
+      <c r="M194" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="195" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>207</v>
       </c>
-    </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B195">
+        <v>9</v>
+      </c>
+      <c r="C195">
+        <v>10.3</v>
+      </c>
+      <c r="D195">
+        <v>5</v>
+      </c>
+      <c r="E195">
+        <v>50</v>
+      </c>
+      <c r="F195" s="1">
+        <v>43899</v>
+      </c>
+      <c r="G195" s="1">
+        <v>43956</v>
+      </c>
+      <c r="H195">
+        <v>6.3</v>
+      </c>
+      <c r="I195">
+        <v>8</v>
+      </c>
+      <c r="J195" t="s">
+        <v>10</v>
+      </c>
+      <c r="K195" t="s">
+        <v>38</v>
+      </c>
+      <c r="L195" t="s">
+        <v>45</v>
+      </c>
+      <c r="M195" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="196" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>208</v>
       </c>
-    </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B196">
+        <v>6</v>
+      </c>
+      <c r="C196">
+        <v>11.1</v>
+      </c>
+      <c r="D196">
+        <v>5.2</v>
+      </c>
+      <c r="E196">
+        <v>65</v>
+      </c>
+      <c r="F196" s="1">
+        <v>43927</v>
+      </c>
+      <c r="G196" s="1">
+        <v>43956</v>
+      </c>
+      <c r="H196">
+        <v>5.6</v>
+      </c>
+      <c r="I196">
+        <v>5</v>
+      </c>
+      <c r="J196" t="s">
+        <v>10</v>
+      </c>
+      <c r="K196" t="s">
+        <v>38</v>
+      </c>
+      <c r="L196" t="s">
+        <v>45</v>
+      </c>
+      <c r="M196" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="197" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>209</v>
       </c>
-    </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B197">
+        <v>22</v>
+      </c>
+      <c r="C197">
+        <v>11.1</v>
+      </c>
+      <c r="D197">
+        <v>7.7</v>
+      </c>
+      <c r="E197">
+        <v>67.3</v>
+      </c>
+      <c r="F197" s="1">
+        <v>43962</v>
+      </c>
+      <c r="G197" s="1">
+        <v>44026</v>
+      </c>
+      <c r="H197">
+        <v>8.5</v>
+      </c>
+      <c r="I197">
+        <v>8</v>
+      </c>
+      <c r="J197" t="s">
+        <v>10</v>
+      </c>
+      <c r="K197" t="s">
+        <v>38</v>
+      </c>
+      <c r="L197" t="s">
+        <v>45</v>
+      </c>
+      <c r="M197" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="198" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>210</v>
       </c>
-    </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B198">
+        <v>16</v>
+      </c>
+      <c r="C198">
+        <v>10.6</v>
+      </c>
+      <c r="D198">
+        <v>6.2</v>
+      </c>
+      <c r="E198">
+        <v>71.5</v>
+      </c>
+      <c r="F198" s="1">
+        <v>43985</v>
+      </c>
+      <c r="G198" s="1">
+        <v>44026</v>
+      </c>
+      <c r="H198">
+        <v>7.2</v>
+      </c>
+      <c r="I198">
+        <v>6</v>
+      </c>
+      <c r="J198" t="s">
+        <v>10</v>
+      </c>
+      <c r="K198" t="s">
+        <v>38</v>
+      </c>
+      <c r="L198" t="s">
+        <v>45</v>
+      </c>
+      <c r="M198" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="199" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>211</v>
       </c>
-    </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B199">
+        <v>9</v>
+      </c>
+      <c r="C199">
+        <v>11.4</v>
+      </c>
+      <c r="D199">
+        <v>5.9</v>
+      </c>
+      <c r="E199">
+        <v>69.2</v>
+      </c>
+      <c r="F199" s="1">
+        <v>44033</v>
+      </c>
+      <c r="G199" s="1">
+        <v>44054</v>
+      </c>
+      <c r="H199">
+        <v>6.7</v>
+      </c>
+      <c r="I199">
+        <v>4</v>
+      </c>
+      <c r="J199" t="s">
+        <v>10</v>
+      </c>
+      <c r="K199" t="s">
+        <v>38</v>
+      </c>
+      <c r="L199" t="s">
+        <v>45</v>
+      </c>
+      <c r="M199" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="200" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>212</v>
       </c>
-    </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B200">
+        <v>20</v>
+      </c>
+      <c r="C200">
+        <v>10.5</v>
+      </c>
+      <c r="D200">
+        <v>6</v>
+      </c>
+      <c r="E200">
+        <v>73.7</v>
+      </c>
+      <c r="F200" s="1">
+        <v>44010</v>
+      </c>
+      <c r="G200" s="1">
+        <v>44103</v>
+      </c>
+      <c r="H200">
+        <v>7.1</v>
+      </c>
+      <c r="I200">
+        <v>13</v>
+      </c>
+      <c r="J200" t="s">
+        <v>10</v>
+      </c>
+      <c r="K200" t="s">
+        <v>38</v>
+      </c>
+      <c r="L200" t="s">
+        <v>45</v>
+      </c>
+      <c r="M200" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="201" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>213</v>
       </c>
-    </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B201">
+        <v>11</v>
+      </c>
+      <c r="C201">
+        <v>11.2</v>
+      </c>
+      <c r="D201">
+        <v>6</v>
+      </c>
+      <c r="E201">
+        <v>67.400000000000006</v>
+      </c>
+      <c r="F201" s="1">
+        <v>44108</v>
+      </c>
+      <c r="G201" s="1">
+        <v>44131</v>
+      </c>
+      <c r="H201">
+        <v>6.7</v>
+      </c>
+      <c r="I201">
+        <v>5</v>
+      </c>
+      <c r="J201" t="s">
+        <v>10</v>
+      </c>
+      <c r="K201" t="s">
+        <v>38</v>
+      </c>
+      <c r="L201" t="s">
+        <v>45</v>
+      </c>
+      <c r="M201" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="202" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>214</v>
       </c>
-    </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B202">
+        <v>7</v>
+      </c>
+      <c r="C202">
+        <v>11.2</v>
+      </c>
+      <c r="D202">
+        <v>5.7</v>
+      </c>
+      <c r="E202">
+        <v>64.900000000000006</v>
+      </c>
+      <c r="F202" s="1">
+        <v>43927</v>
+      </c>
+      <c r="G202" s="1">
+        <v>43958</v>
+      </c>
+      <c r="H202">
+        <v>5.8</v>
+      </c>
+      <c r="I202">
+        <v>5</v>
+      </c>
+      <c r="J202" t="s">
+        <v>10</v>
+      </c>
+      <c r="K202" t="s">
+        <v>38</v>
+      </c>
+      <c r="L202" t="s">
+        <v>45</v>
+      </c>
+      <c r="M202" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="203" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>215</v>
       </c>
-    </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B203">
+        <v>7</v>
+      </c>
+      <c r="C203">
+        <v>10.6</v>
+      </c>
+      <c r="D203">
+        <v>4.8</v>
+      </c>
+      <c r="E203">
+        <v>66.099999999999994</v>
+      </c>
+      <c r="F203" s="1">
+        <v>44103</v>
+      </c>
+      <c r="G203" s="1">
+        <v>44131</v>
+      </c>
+      <c r="H203">
+        <v>5.7</v>
+      </c>
+      <c r="I203">
+        <v>5</v>
+      </c>
+      <c r="J203" t="s">
+        <v>10</v>
+      </c>
+      <c r="K203" t="s">
+        <v>38</v>
+      </c>
+      <c r="L203" t="s">
+        <v>45</v>
+      </c>
+      <c r="M203" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="204" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>216</v>
       </c>
-    </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B204">
+        <v>9</v>
+      </c>
+      <c r="C204">
+        <v>11.4</v>
+      </c>
+      <c r="D204">
+        <v>5.9</v>
+      </c>
+      <c r="E204">
+        <v>69.2</v>
+      </c>
+      <c r="F204" s="1">
+        <v>44024</v>
+      </c>
+      <c r="G204" s="1">
+        <v>44054</v>
+      </c>
+      <c r="H204">
+        <v>6.7</v>
+      </c>
+      <c r="I204">
+        <v>4</v>
+      </c>
+      <c r="J204" t="s">
+        <v>10</v>
+      </c>
+      <c r="K204" t="s">
+        <v>38</v>
+      </c>
+      <c r="L204" t="s">
+        <v>45</v>
+      </c>
+      <c r="M204" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="205" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>217</v>
       </c>
-    </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B205">
+        <v>7</v>
+      </c>
+      <c r="C205">
+        <v>11.2</v>
+      </c>
+      <c r="D205">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="E205">
+        <v>64</v>
+      </c>
+      <c r="F205" s="1">
+        <v>44109</v>
+      </c>
+      <c r="G205" s="1">
+        <v>44123</v>
+      </c>
+      <c r="H205">
+        <v>5.7</v>
+      </c>
+      <c r="I205">
+        <v>3</v>
+      </c>
+      <c r="J205" t="s">
+        <v>10</v>
+      </c>
+      <c r="K205" t="s">
+        <v>38</v>
+      </c>
+      <c r="L205" t="s">
+        <v>45</v>
+      </c>
+      <c r="M205" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="206" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>218</v>
       </c>
-    </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B206">
+        <v>12</v>
+      </c>
+      <c r="C206">
+        <v>11.2</v>
+      </c>
+      <c r="D206">
+        <v>6</v>
+      </c>
+      <c r="E206">
+        <v>67</v>
+      </c>
+      <c r="F206" s="1">
+        <v>44109</v>
+      </c>
+      <c r="G206" s="1">
+        <v>44130</v>
+      </c>
+      <c r="H206">
+        <v>6.5</v>
+      </c>
+      <c r="I206">
+        <v>4</v>
+      </c>
+      <c r="J206" t="s">
+        <v>10</v>
+      </c>
+      <c r="K206" t="s">
+        <v>38</v>
+      </c>
+      <c r="L206" t="s">
+        <v>45</v>
+      </c>
+      <c r="M206" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="207" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>219</v>
       </c>
-    </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B207">
+        <v>19</v>
+      </c>
+      <c r="C207">
+        <v>11.4</v>
+      </c>
+      <c r="D207">
+        <v>8.1</v>
+      </c>
+      <c r="E207">
+        <v>72.3</v>
+      </c>
+      <c r="F207" s="1">
+        <v>43914</v>
+      </c>
+      <c r="G207" s="1">
+        <v>43969</v>
+      </c>
+      <c r="H207">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="I207">
+        <v>7</v>
+      </c>
+      <c r="J207" t="s">
+        <v>10</v>
+      </c>
+      <c r="K207" t="s">
+        <v>38</v>
+      </c>
+      <c r="L207" t="s">
+        <v>45</v>
+      </c>
+      <c r="M207" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="208" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>220</v>
       </c>
-    </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B208">
+        <v>36</v>
+      </c>
+      <c r="C208">
+        <v>16</v>
+      </c>
+      <c r="D208">
+        <v>13.5</v>
+      </c>
+      <c r="E208">
+        <v>78</v>
+      </c>
+      <c r="F208" s="1">
+        <v>43962</v>
+      </c>
+      <c r="G208" s="1">
+        <v>44027</v>
+      </c>
+      <c r="H208">
+        <v>14.3</v>
+      </c>
+      <c r="I208">
+        <v>6</v>
+      </c>
+      <c r="J208" t="s">
+        <v>10</v>
+      </c>
+      <c r="K208" t="s">
+        <v>38</v>
+      </c>
+      <c r="L208" t="s">
+        <v>45</v>
+      </c>
+      <c r="M208" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="209" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>221</v>
       </c>
-    </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B209">
+        <v>8</v>
+      </c>
+      <c r="C209">
+        <v>11.2</v>
+      </c>
+      <c r="D209">
+        <v>5.2</v>
+      </c>
+      <c r="E209">
+        <v>62.2</v>
+      </c>
+      <c r="F209" s="1">
+        <v>44039</v>
+      </c>
+      <c r="G209" s="1">
+        <v>44067</v>
+      </c>
+      <c r="H209">
+        <v>5.7</v>
+      </c>
+      <c r="I209">
+        <v>4</v>
+      </c>
+      <c r="J209" t="s">
+        <v>10</v>
+      </c>
+      <c r="K209" t="s">
+        <v>38</v>
+      </c>
+      <c r="L209" t="s">
+        <v>45</v>
+      </c>
+      <c r="M209" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="210" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>222</v>
       </c>
-    </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B210">
+        <v>16</v>
+      </c>
+      <c r="C210">
+        <v>11</v>
+      </c>
+      <c r="D210">
+        <v>5.2</v>
+      </c>
+      <c r="E210">
+        <v>62.4</v>
+      </c>
+      <c r="F210" s="1">
+        <v>43983</v>
+      </c>
+      <c r="G210" s="1">
+        <v>44004</v>
+      </c>
+      <c r="H210">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="I210">
+        <v>5</v>
+      </c>
+      <c r="J210" t="s">
+        <v>10</v>
+      </c>
+      <c r="K210" t="s">
+        <v>38</v>
+      </c>
+      <c r="L210" t="s">
+        <v>45</v>
+      </c>
+      <c r="M210" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="211" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>223</v>
       </c>
-    </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B211">
+        <v>24</v>
+      </c>
+      <c r="C211">
+        <v>11.3</v>
+      </c>
+      <c r="D211">
+        <v>8</v>
+      </c>
+      <c r="E211">
+        <v>75</v>
+      </c>
+      <c r="F211" s="1">
+        <v>43962</v>
+      </c>
+      <c r="G211" s="1">
+        <v>43983</v>
+      </c>
+      <c r="H211">
+        <v>8.4</v>
+      </c>
+      <c r="I211">
+        <v>4</v>
+      </c>
+      <c r="J211" t="s">
+        <v>10</v>
+      </c>
+      <c r="K211" t="s">
+        <v>38</v>
+      </c>
+      <c r="L211" t="s">
+        <v>45</v>
+      </c>
+      <c r="M211" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="212" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>224</v>
       </c>
-    </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B212">
+        <v>20</v>
+      </c>
+      <c r="C212">
+        <v>11.7</v>
+      </c>
+      <c r="D212">
+        <v>7.8</v>
+      </c>
+      <c r="E212">
+        <v>67</v>
+      </c>
+      <c r="F212" s="1">
+        <v>43913</v>
+      </c>
+      <c r="G212" s="1">
+        <v>44001</v>
+      </c>
+      <c r="H212">
+        <v>8.1</v>
+      </c>
+      <c r="I212">
+        <v>7</v>
+      </c>
+      <c r="J212" t="s">
+        <v>10</v>
+      </c>
+      <c r="K212" t="s">
+        <v>38</v>
+      </c>
+      <c r="L212" t="s">
+        <v>45</v>
+      </c>
+      <c r="M212" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="213" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>225</v>
       </c>
-    </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B213">
+        <v>16</v>
+      </c>
+      <c r="C213">
+        <v>11.4</v>
+      </c>
+      <c r="D213">
+        <v>7.1</v>
+      </c>
+      <c r="E213">
+        <v>69.2</v>
+      </c>
+      <c r="F213" s="1">
+        <v>44004</v>
+      </c>
+      <c r="G213" s="1">
+        <v>44018</v>
+      </c>
+      <c r="H213">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="I213">
+        <v>3</v>
+      </c>
+      <c r="J213" t="s">
+        <v>10</v>
+      </c>
+      <c r="K213" t="s">
+        <v>38</v>
+      </c>
+      <c r="L213" t="s">
+        <v>45</v>
+      </c>
+      <c r="M213" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="214" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>226</v>
       </c>
-    </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B214">
+        <v>26</v>
+      </c>
+      <c r="C214">
+        <v>11.3</v>
+      </c>
+      <c r="D214">
+        <v>7.6</v>
+      </c>
+      <c r="E214">
+        <v>81.2</v>
+      </c>
+      <c r="F214" s="1">
+        <v>44052</v>
+      </c>
+      <c r="G214" s="1">
+        <v>44074</v>
+      </c>
+      <c r="H214">
+        <v>7.8</v>
+      </c>
+      <c r="I214">
+        <v>3</v>
+      </c>
+      <c r="J214" t="s">
+        <v>10</v>
+      </c>
+      <c r="K214" t="s">
+        <v>38</v>
+      </c>
+      <c r="L214" t="s">
+        <v>45</v>
+      </c>
+      <c r="M214" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="215" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>227</v>
       </c>
-    </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B215">
+        <v>25</v>
+      </c>
+      <c r="C215">
+        <v>11</v>
+      </c>
+      <c r="D215">
+        <v>7</v>
+      </c>
+      <c r="E215">
+        <v>74</v>
+      </c>
+      <c r="F215" s="1">
+        <v>44053</v>
+      </c>
+      <c r="G215" s="1">
+        <v>44074</v>
+      </c>
+      <c r="H215">
+        <v>7.5</v>
+      </c>
+      <c r="I215">
+        <v>3</v>
+      </c>
+      <c r="J215" t="s">
+        <v>10</v>
+      </c>
+      <c r="K215" t="s">
+        <v>38</v>
+      </c>
+      <c r="L215" t="s">
+        <v>45</v>
+      </c>
+      <c r="M215" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="216" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>228</v>
       </c>
-    </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B216">
+        <v>8</v>
+      </c>
+      <c r="C216">
+        <v>11.4</v>
+      </c>
+      <c r="D216">
+        <v>5.4</v>
+      </c>
+      <c r="E216">
+        <v>64</v>
+      </c>
+      <c r="F216" s="1">
+        <v>44032</v>
+      </c>
+      <c r="G216" s="1">
+        <v>44053</v>
+      </c>
+      <c r="H216">
+        <v>6</v>
+      </c>
+      <c r="I216">
+        <v>4</v>
+      </c>
+      <c r="J216" t="s">
+        <v>10</v>
+      </c>
+      <c r="K216" t="s">
+        <v>38</v>
+      </c>
+      <c r="L216" t="s">
+        <v>45</v>
+      </c>
+      <c r="M216" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="217" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>229</v>
       </c>
-    </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B217">
+        <v>18</v>
+      </c>
+      <c r="C217">
+        <v>11.4</v>
+      </c>
+      <c r="D217">
+        <v>6</v>
+      </c>
+      <c r="E217">
+        <v>66</v>
+      </c>
+      <c r="F217" s="1">
+        <v>44046</v>
+      </c>
+      <c r="G217" s="1">
+        <v>44067</v>
+      </c>
+      <c r="H217">
+        <v>7</v>
+      </c>
+      <c r="I217">
+        <v>3</v>
+      </c>
+      <c r="J217" t="s">
+        <v>10</v>
+      </c>
+      <c r="K217" t="s">
+        <v>38</v>
+      </c>
+      <c r="L217" t="s">
+        <v>45</v>
+      </c>
+      <c r="M217" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="218" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>230</v>
       </c>
-    </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B218">
+        <v>8</v>
+      </c>
+      <c r="C218">
+        <v>11</v>
+      </c>
+      <c r="D218">
+        <v>5</v>
+      </c>
+      <c r="E218">
+        <v>65.5</v>
+      </c>
+      <c r="F218" s="1">
+        <v>44039</v>
+      </c>
+      <c r="G218" s="1">
+        <v>44074</v>
+      </c>
+      <c r="H218">
+        <v>6.2</v>
+      </c>
+      <c r="I218">
+        <v>5</v>
+      </c>
+      <c r="J218" t="s">
+        <v>10</v>
+      </c>
+      <c r="K218" t="s">
+        <v>38</v>
+      </c>
+      <c r="L218" t="s">
+        <v>45</v>
+      </c>
+      <c r="M218" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="219" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>231</v>
       </c>
-    </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B219">
+        <v>14</v>
+      </c>
+      <c r="C219">
+        <v>13.5</v>
+      </c>
+      <c r="D219">
+        <v>5.8</v>
+      </c>
+      <c r="E219">
+        <v>73.2</v>
+      </c>
+      <c r="F219" s="1">
+        <v>44011</v>
+      </c>
+      <c r="G219" s="1">
+        <v>44074</v>
+      </c>
+      <c r="H219">
+        <v>9</v>
+      </c>
+      <c r="I219">
+        <v>9</v>
+      </c>
+      <c r="J219" t="s">
+        <v>10</v>
+      </c>
+      <c r="K219" t="s">
+        <v>38</v>
+      </c>
+      <c r="L219" t="s">
+        <v>45</v>
+      </c>
+      <c r="M219" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="220" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>232</v>
       </c>
-    </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B220">
+        <v>9</v>
+      </c>
+      <c r="C220">
+        <v>11.7</v>
+      </c>
+      <c r="D220">
+        <v>7.8</v>
+      </c>
+      <c r="E220">
+        <v>77</v>
+      </c>
+      <c r="F220" s="1">
+        <v>44032</v>
+      </c>
+      <c r="G220" s="1">
+        <v>44074</v>
+      </c>
+      <c r="H220">
+        <v>8</v>
+      </c>
+      <c r="I220">
+        <v>6</v>
+      </c>
+      <c r="J220" t="s">
+        <v>10</v>
+      </c>
+      <c r="K220" t="s">
+        <v>38</v>
+      </c>
+      <c r="L220" t="s">
+        <v>45</v>
+      </c>
+      <c r="M220" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="221" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>233</v>
       </c>
-    </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B221">
+        <v>12</v>
+      </c>
+      <c r="C221">
+        <v>12</v>
+      </c>
+      <c r="D221">
+        <v>7.2</v>
+      </c>
+      <c r="E221">
+        <v>77</v>
+      </c>
+      <c r="F221" s="1">
+        <v>44046</v>
+      </c>
+      <c r="G221" s="1">
+        <v>44074</v>
+      </c>
+      <c r="H221">
+        <v>8.4</v>
+      </c>
+      <c r="I221">
+        <v>4</v>
+      </c>
+      <c r="J221" t="s">
+        <v>10</v>
+      </c>
+      <c r="K221" t="s">
+        <v>38</v>
+      </c>
+      <c r="L221" t="s">
+        <v>45</v>
+      </c>
+      <c r="M221" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="222" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>234</v>
       </c>
-    </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B222">
+        <v>17</v>
+      </c>
+      <c r="C222">
+        <v>11.3</v>
+      </c>
+      <c r="D222">
+        <v>7.1</v>
+      </c>
+      <c r="E222">
+        <v>69.3</v>
+      </c>
+      <c r="F222" s="1">
+        <v>43962</v>
+      </c>
+      <c r="G222" s="1">
+        <v>44046</v>
+      </c>
+      <c r="H222">
+        <v>7.5</v>
+      </c>
+      <c r="I222">
+        <v>6</v>
+      </c>
+      <c r="J222" t="s">
+        <v>10</v>
+      </c>
+      <c r="K222" t="s">
+        <v>38</v>
+      </c>
+      <c r="L222" t="s">
+        <v>45</v>
+      </c>
+      <c r="M222" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="223" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>235</v>
       </c>
-    </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B223">
+        <v>15</v>
+      </c>
+      <c r="C223">
+        <v>11.4</v>
+      </c>
+      <c r="D223">
+        <v>6.2</v>
+      </c>
+      <c r="E223">
+        <v>67.2</v>
+      </c>
+      <c r="F223" s="1">
+        <v>44004</v>
+      </c>
+      <c r="G223" s="1">
+        <v>44052</v>
+      </c>
+      <c r="H223">
+        <v>7.5</v>
+      </c>
+      <c r="I223">
+        <v>6</v>
+      </c>
+      <c r="J223" t="s">
+        <v>10</v>
+      </c>
+      <c r="K223" t="s">
+        <v>38</v>
+      </c>
+      <c r="L223" t="s">
+        <v>45</v>
+      </c>
+      <c r="M223" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="224" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>236</v>
       </c>
-    </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B224">
+        <v>19</v>
+      </c>
+      <c r="C224">
+        <v>11.4</v>
+      </c>
+      <c r="D224">
+        <v>6.9</v>
+      </c>
+      <c r="F224" s="1">
+        <v>44026</v>
+      </c>
+      <c r="G224" s="1">
+        <v>44040</v>
+      </c>
+      <c r="H224">
+        <v>7.9</v>
+      </c>
+      <c r="I224">
+        <v>3</v>
+      </c>
+      <c r="J224" t="s">
+        <v>10</v>
+      </c>
+      <c r="K224" t="s">
+        <v>38</v>
+      </c>
+      <c r="L224" t="s">
+        <v>45</v>
+      </c>
+      <c r="M224" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="225" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>237</v>
       </c>
-    </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B225">
+        <v>23</v>
+      </c>
+      <c r="C225">
+        <v>10.6</v>
+      </c>
+      <c r="D225">
+        <v>7.2</v>
+      </c>
+      <c r="F225" s="1">
+        <v>44054</v>
+      </c>
+      <c r="G225" s="1">
+        <v>44072</v>
+      </c>
+      <c r="H225">
+        <v>7.2</v>
+      </c>
+      <c r="I225">
+        <v>4</v>
+      </c>
+      <c r="J225" t="s">
+        <v>10</v>
+      </c>
+      <c r="K225" t="s">
+        <v>38</v>
+      </c>
+      <c r="L225" t="s">
+        <v>45</v>
+      </c>
+      <c r="M225" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="226" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A226">
         <v>238</v>
       </c>
-    </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B226">
+        <v>12</v>
+      </c>
+      <c r="C226">
+        <v>11.3</v>
+      </c>
+      <c r="D226">
+        <v>6.2</v>
+      </c>
+      <c r="F226" s="1">
+        <v>43998</v>
+      </c>
+      <c r="G226" s="1">
+        <v>44012</v>
+      </c>
+      <c r="H226">
+        <v>6.8</v>
+      </c>
+      <c r="I226">
+        <v>3</v>
+      </c>
+      <c r="J226" t="s">
+        <v>10</v>
+      </c>
+      <c r="K226" t="s">
+        <v>38</v>
+      </c>
+      <c r="L226" t="s">
+        <v>45</v>
+      </c>
+      <c r="M226" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="227" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>239</v>
       </c>
-    </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B227">
+        <v>28</v>
+      </c>
+      <c r="C227">
+        <v>13.5</v>
+      </c>
+      <c r="D227">
+        <v>9.5</v>
+      </c>
+      <c r="F227" s="1">
+        <v>43942</v>
+      </c>
+      <c r="G227" s="1">
+        <v>43956</v>
+      </c>
+      <c r="H227">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="I227">
+        <v>3</v>
+      </c>
+      <c r="J227" t="s">
+        <v>10</v>
+      </c>
+      <c r="K227" t="s">
+        <v>38</v>
+      </c>
+      <c r="L227" t="s">
+        <v>45</v>
+      </c>
+      <c r="M227" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="228" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A228">
         <v>240</v>
       </c>
-    </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B228">
+        <v>7</v>
+      </c>
+      <c r="C228">
+        <v>11.3</v>
+      </c>
+      <c r="D228">
+        <v>6.5</v>
+      </c>
+      <c r="F228" s="1">
+        <v>43926</v>
+      </c>
+      <c r="G228" s="1">
+        <v>43956</v>
+      </c>
+      <c r="H228">
+        <v>7.2</v>
+      </c>
+      <c r="I228">
+        <v>6</v>
+      </c>
+      <c r="J228" t="s">
+        <v>10</v>
+      </c>
+      <c r="K228" t="s">
+        <v>38</v>
+      </c>
+      <c r="L228" t="s">
+        <v>45</v>
+      </c>
+      <c r="M228" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="229" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>241</v>
       </c>
-    </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B229">
+        <v>7</v>
+      </c>
+      <c r="C229">
+        <v>11.2</v>
+      </c>
+      <c r="D229">
+        <v>5.4</v>
+      </c>
+      <c r="F229" s="1">
+        <v>44019</v>
+      </c>
+      <c r="G229" s="1">
+        <v>44054</v>
+      </c>
+      <c r="H229">
+        <v>5.8</v>
+      </c>
+      <c r="I229">
+        <v>5</v>
+      </c>
+      <c r="J229" t="s">
+        <v>10</v>
+      </c>
+      <c r="K229" t="s">
+        <v>38</v>
+      </c>
+      <c r="L229" t="s">
+        <v>45</v>
+      </c>
+      <c r="M229" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="230" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A230">
         <v>242</v>
       </c>
-    </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B230">
+        <v>7</v>
+      </c>
+      <c r="C230">
+        <v>11.6</v>
+      </c>
+      <c r="D230">
+        <v>4.7</v>
+      </c>
+      <c r="E230">
+        <v>59</v>
+      </c>
+      <c r="F230" s="1">
+        <v>44040</v>
+      </c>
+      <c r="G230" s="1">
+        <v>44121</v>
+      </c>
+      <c r="H230">
+        <v>5.7</v>
+      </c>
+      <c r="I230">
+        <v>12</v>
+      </c>
+      <c r="J230" t="s">
+        <v>10</v>
+      </c>
+      <c r="K230" t="s">
+        <v>38</v>
+      </c>
+      <c r="L230" t="s">
+        <v>45</v>
+      </c>
+      <c r="M230" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="231" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A231">
         <v>243</v>
       </c>
-    </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B231">
+        <v>8</v>
+      </c>
+      <c r="C231">
+        <v>10.5</v>
+      </c>
+      <c r="D231">
+        <v>4.8</v>
+      </c>
+      <c r="E231">
+        <v>65.5</v>
+      </c>
+      <c r="F231" s="1">
+        <v>44055</v>
+      </c>
+      <c r="G231" s="1">
+        <v>44131</v>
+      </c>
+      <c r="H231">
+        <v>5.6</v>
+      </c>
+      <c r="I231">
+        <v>10</v>
+      </c>
+      <c r="J231" t="s">
+        <v>10</v>
+      </c>
+      <c r="K231" t="s">
+        <v>38</v>
+      </c>
+      <c r="L231" t="s">
+        <v>45</v>
+      </c>
+      <c r="M231" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="232" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A232">
         <v>244</v>
       </c>
-    </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B232">
+        <v>20</v>
+      </c>
+      <c r="C232">
+        <v>11</v>
+      </c>
+      <c r="D232">
+        <v>7.3</v>
+      </c>
+      <c r="E232">
+        <v>75</v>
+      </c>
+      <c r="F232" s="1">
+        <v>44079</v>
+      </c>
+      <c r="G232" s="1">
+        <v>44121</v>
+      </c>
+      <c r="H232">
+        <v>8.1</v>
+      </c>
+      <c r="I232">
+        <v>10</v>
+      </c>
+      <c r="J232" t="s">
+        <v>10</v>
+      </c>
+      <c r="K232" t="s">
+        <v>38</v>
+      </c>
+      <c r="L232" t="s">
+        <v>45</v>
+      </c>
+      <c r="M232" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="233" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A233">
         <v>245</v>
       </c>
-    </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B233">
+        <v>9</v>
+      </c>
+      <c r="C233">
+        <v>11.2</v>
+      </c>
+      <c r="D233">
+        <v>5.5</v>
+      </c>
+      <c r="E233">
+        <v>65</v>
+      </c>
+      <c r="F233" s="1">
+        <v>44103</v>
+      </c>
+      <c r="G233" s="1">
+        <v>44131</v>
+      </c>
+      <c r="H233">
+        <v>6.9</v>
+      </c>
+      <c r="I233">
+        <v>4</v>
+      </c>
+      <c r="J233" t="s">
+        <v>10</v>
+      </c>
+      <c r="K233" t="s">
+        <v>38</v>
+      </c>
+      <c r="L233" t="s">
+        <v>45</v>
+      </c>
+      <c r="M233" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="234" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A234">
         <v>246</v>
       </c>
-    </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B234">
+        <v>19</v>
+      </c>
+      <c r="C234">
+        <v>11</v>
+      </c>
+      <c r="D234">
+        <v>7</v>
+      </c>
+      <c r="E234">
+        <v>69</v>
+      </c>
+      <c r="F234" s="1">
+        <v>44103</v>
+      </c>
+      <c r="G234" s="1">
+        <v>44131</v>
+      </c>
+      <c r="H234">
+        <v>8</v>
+      </c>
+      <c r="I234">
+        <v>5</v>
+      </c>
+      <c r="J234" t="s">
+        <v>10</v>
+      </c>
+      <c r="K234" t="s">
+        <v>38</v>
+      </c>
+      <c r="L234" t="s">
+        <v>45</v>
+      </c>
+      <c r="M234" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="235" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A235">
         <v>247</v>
       </c>
-    </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B235">
+        <v>25</v>
+      </c>
+      <c r="C235">
+        <v>11.4</v>
+      </c>
+      <c r="D235">
+        <v>7.3</v>
+      </c>
+      <c r="E235">
+        <v>73</v>
+      </c>
+      <c r="F235" s="1">
+        <v>44103</v>
+      </c>
+      <c r="G235" s="1">
+        <v>44131</v>
+      </c>
+      <c r="H235">
+        <v>8</v>
+      </c>
+      <c r="I235">
+        <v>6</v>
+      </c>
+      <c r="J235" t="s">
+        <v>10</v>
+      </c>
+      <c r="K235" t="s">
+        <v>38</v>
+      </c>
+      <c r="L235" t="s">
+        <v>45</v>
+      </c>
+      <c r="M235" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="236" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A236">
         <v>248</v>
       </c>
-    </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B236">
+        <v>12</v>
+      </c>
+      <c r="C236">
+        <v>11</v>
+      </c>
+      <c r="D236">
+        <v>5.7</v>
+      </c>
+      <c r="E236">
+        <v>68</v>
+      </c>
+      <c r="F236" s="1">
+        <v>44061</v>
+      </c>
+      <c r="G236" s="1">
+        <v>44117</v>
+      </c>
+      <c r="H236">
+        <v>6.8</v>
+      </c>
+      <c r="I236">
+        <v>8</v>
+      </c>
+      <c r="J236" t="s">
+        <v>10</v>
+      </c>
+      <c r="K236" t="s">
+        <v>38</v>
+      </c>
+      <c r="L236" t="s">
+        <v>45</v>
+      </c>
+      <c r="M236" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="237" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A237">
         <v>249</v>
       </c>
-    </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B237">
+        <v>7</v>
+      </c>
+      <c r="C237">
+        <v>11</v>
+      </c>
+      <c r="D237">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="E237">
+        <v>67</v>
+      </c>
+      <c r="F237" s="1">
+        <v>44103</v>
+      </c>
+      <c r="G237" s="1">
+        <v>44131</v>
+      </c>
+      <c r="H237">
+        <v>5.2</v>
+      </c>
+      <c r="I237">
+        <v>5</v>
+      </c>
+      <c r="J237" t="s">
+        <v>10</v>
+      </c>
+      <c r="K237" t="s">
+        <v>38</v>
+      </c>
+      <c r="L237" t="s">
+        <v>45</v>
+      </c>
+      <c r="M237" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="238" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A238">
         <v>250</v>
       </c>
-    </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B238">
+        <v>9</v>
+      </c>
+      <c r="C238">
+        <v>12</v>
+      </c>
+      <c r="D238">
+        <v>8</v>
+      </c>
+      <c r="E238">
+        <v>69.8</v>
+      </c>
+      <c r="F238" s="1">
+        <v>44075</v>
+      </c>
+      <c r="G238" s="1">
+        <v>44131</v>
+      </c>
+      <c r="H238">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="I238">
+        <v>5</v>
+      </c>
+      <c r="J238" t="s">
+        <v>10</v>
+      </c>
+      <c r="K238" t="s">
+        <v>38</v>
+      </c>
+      <c r="L238" t="s">
+        <v>45</v>
+      </c>
+      <c r="M238" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="239" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A239">
         <v>251</v>
       </c>
-    </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B239">
+        <v>12</v>
+      </c>
+      <c r="C239">
+        <v>11.4</v>
+      </c>
+      <c r="D239">
+        <v>5.8</v>
+      </c>
+      <c r="E239">
+        <v>70.099999999999994</v>
+      </c>
+      <c r="F239" s="1">
+        <v>43972</v>
+      </c>
+      <c r="G239" s="1">
+        <v>44014</v>
+      </c>
+      <c r="H239">
+        <v>7.7</v>
+      </c>
+      <c r="I239">
+        <v>6</v>
+      </c>
+      <c r="J239" t="s">
+        <v>10</v>
+      </c>
+      <c r="K239" t="s">
+        <v>38</v>
+      </c>
+      <c r="L239" t="s">
+        <v>51</v>
+      </c>
+      <c r="M239" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="240" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A240">
         <v>252</v>
       </c>
-    </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B240">
+        <v>9</v>
+      </c>
+      <c r="C240">
+        <v>11.2</v>
+      </c>
+      <c r="D240">
+        <v>5.6</v>
+      </c>
+      <c r="E240">
+        <v>68</v>
+      </c>
+      <c r="F240" s="1">
+        <v>43930</v>
+      </c>
+      <c r="G240" s="1">
+        <v>44028</v>
+      </c>
+      <c r="H240">
+        <v>6.9</v>
+      </c>
+      <c r="I240">
+        <v>7</v>
+      </c>
+      <c r="J240" t="s">
+        <v>10</v>
+      </c>
+      <c r="K240" t="s">
+        <v>38</v>
+      </c>
+      <c r="L240" t="s">
+        <v>51</v>
+      </c>
+      <c r="M240" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="241" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A241">
         <v>253</v>
       </c>
-    </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B241">
+        <v>7</v>
+      </c>
+      <c r="C241">
+        <v>10.9</v>
+      </c>
+      <c r="D241">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="E241">
+        <v>62</v>
+      </c>
+      <c r="F241" s="1">
+        <v>44051</v>
+      </c>
+      <c r="G241" s="1">
+        <v>44109</v>
+      </c>
+      <c r="H241">
+        <v>8</v>
+      </c>
+      <c r="I241">
+        <v>8</v>
+      </c>
+      <c r="J241" t="s">
+        <v>10</v>
+      </c>
+      <c r="K241" t="s">
+        <v>38</v>
+      </c>
+      <c r="L241" t="s">
+        <v>51</v>
+      </c>
+      <c r="M241" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="242" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A242">
         <v>254</v>
       </c>
-    </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B242">
+        <v>36</v>
+      </c>
+      <c r="C242">
+        <v>11.3</v>
+      </c>
+      <c r="D242">
+        <v>8.1</v>
+      </c>
+      <c r="E242">
+        <v>87.5</v>
+      </c>
+      <c r="F242" s="1">
+        <v>44048</v>
+      </c>
+      <c r="G242" s="1">
+        <v>44083</v>
+      </c>
+      <c r="H242">
+        <v>9</v>
+      </c>
+      <c r="I242">
+        <v>4</v>
+      </c>
+      <c r="J242" t="s">
+        <v>10</v>
+      </c>
+      <c r="K242" t="s">
+        <v>38</v>
+      </c>
+      <c r="L242" t="s">
+        <v>51</v>
+      </c>
+      <c r="M242" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="243" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A243">
         <v>255</v>
       </c>
-    </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B243">
+        <v>23</v>
+      </c>
+      <c r="C243">
+        <v>11.3</v>
+      </c>
+      <c r="D243">
+        <v>7.2</v>
+      </c>
+      <c r="E243">
+        <v>79.5</v>
+      </c>
+      <c r="F243" s="1">
+        <v>44048</v>
+      </c>
+      <c r="G243" s="1">
+        <v>44076</v>
+      </c>
+      <c r="H243">
+        <v>8</v>
+      </c>
+      <c r="I243">
+        <v>5</v>
+      </c>
+      <c r="J243" t="s">
+        <v>10</v>
+      </c>
+      <c r="K243" t="s">
+        <v>38</v>
+      </c>
+      <c r="L243" t="s">
+        <v>51</v>
+      </c>
+      <c r="M243" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="244" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A244">
         <v>256</v>
       </c>
-    </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B244">
+        <v>33</v>
+      </c>
+      <c r="C244">
+        <v>11.2</v>
+      </c>
+      <c r="D244">
+        <v>8.5</v>
+      </c>
+      <c r="E244">
+        <v>78.900000000000006</v>
+      </c>
+      <c r="F244" s="1">
+        <v>44058</v>
+      </c>
+      <c r="G244" s="1">
+        <v>44097</v>
+      </c>
+      <c r="H244">
+        <v>9.5</v>
+      </c>
+      <c r="I244">
+        <v>6</v>
+      </c>
+      <c r="J244" t="s">
+        <v>10</v>
+      </c>
+      <c r="K244" t="s">
+        <v>38</v>
+      </c>
+      <c r="L244" t="s">
+        <v>51</v>
+      </c>
+      <c r="M244" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="245" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A245">
         <v>257</v>
       </c>
-    </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B245">
+        <v>9</v>
+      </c>
+      <c r="C245">
+        <v>11.3</v>
+      </c>
+      <c r="D245">
+        <v>5.8</v>
+      </c>
+      <c r="E245">
+        <v>69.900000000000006</v>
+      </c>
+      <c r="F245" s="1">
+        <v>44040</v>
+      </c>
+      <c r="G245" s="1">
+        <v>44074</v>
+      </c>
+      <c r="H245">
+        <v>7.2</v>
+      </c>
+      <c r="I245">
+        <v>5</v>
+      </c>
+      <c r="J245" t="s">
+        <v>10</v>
+      </c>
+      <c r="K245" t="s">
+        <v>38</v>
+      </c>
+      <c r="L245" t="s">
+        <v>51</v>
+      </c>
+      <c r="M245" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="246" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A246">
         <v>258</v>
       </c>
-    </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B246">
+        <v>15</v>
+      </c>
+      <c r="C246">
+        <v>11.4</v>
+      </c>
+      <c r="D246">
+        <v>5.5</v>
+      </c>
+      <c r="E246">
+        <v>67.2</v>
+      </c>
+      <c r="F246" s="1">
+        <v>44041</v>
+      </c>
+      <c r="G246" s="1">
+        <v>44074</v>
+      </c>
+      <c r="H246">
+        <v>7.7</v>
+      </c>
+      <c r="I246">
+        <v>5</v>
+      </c>
+      <c r="J246" t="s">
+        <v>10</v>
+      </c>
+      <c r="K246" t="s">
+        <v>38</v>
+      </c>
+      <c r="L246" t="s">
+        <v>51</v>
+      </c>
+      <c r="M246" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="247" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A247">
         <v>259</v>
       </c>
-    </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B247">
+        <v>25</v>
+      </c>
+      <c r="C247">
+        <v>11.3</v>
+      </c>
+      <c r="D247">
+        <v>7.5</v>
+      </c>
+      <c r="E247">
+        <v>85.2</v>
+      </c>
+      <c r="F247" s="1">
+        <v>43999</v>
+      </c>
+      <c r="G247" s="1">
+        <v>44027</v>
+      </c>
+      <c r="H247">
+        <v>8.5</v>
+      </c>
+      <c r="I247">
+        <v>5</v>
+      </c>
+      <c r="J247" t="s">
+        <v>10</v>
+      </c>
+      <c r="K247" t="s">
+        <v>38</v>
+      </c>
+      <c r="L247" t="s">
+        <v>51</v>
+      </c>
+      <c r="M247" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="248" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A248">
         <v>260</v>
       </c>
-    </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B248">
+        <v>10</v>
+      </c>
+      <c r="C248">
+        <v>11.1</v>
+      </c>
+      <c r="D248">
+        <v>5.9</v>
+      </c>
+      <c r="E248">
+        <v>68.2</v>
+      </c>
+      <c r="F248" s="1">
+        <v>43978</v>
+      </c>
+      <c r="G248" s="1">
+        <v>44027</v>
+      </c>
+      <c r="H248">
+        <v>6.6</v>
+      </c>
+      <c r="I248">
+        <v>8</v>
+      </c>
+      <c r="J248" t="s">
+        <v>10</v>
+      </c>
+      <c r="K248" t="s">
+        <v>38</v>
+      </c>
+      <c r="L248" t="s">
+        <v>51</v>
+      </c>
+      <c r="M248" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="249" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A249">
         <v>261</v>
       </c>
-    </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B249">
+        <v>29</v>
+      </c>
+      <c r="C249">
+        <v>11.3</v>
+      </c>
+      <c r="D249">
+        <v>8.4</v>
+      </c>
+      <c r="E249">
+        <v>87.4</v>
+      </c>
+      <c r="F249" s="1">
+        <v>43999</v>
+      </c>
+      <c r="G249" s="1">
+        <v>44027</v>
+      </c>
+      <c r="H249">
+        <v>10.1</v>
+      </c>
+      <c r="I249">
+        <v>5</v>
+      </c>
+      <c r="J249" t="s">
+        <v>10</v>
+      </c>
+      <c r="K249" t="s">
+        <v>38</v>
+      </c>
+      <c r="L249" t="s">
+        <v>51</v>
+      </c>
+      <c r="M249" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="250" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A250">
         <v>262</v>
       </c>
-    </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B250">
+        <v>8</v>
+      </c>
+      <c r="C250">
+        <v>11.4</v>
+      </c>
+      <c r="D250">
+        <v>5.4</v>
+      </c>
+      <c r="E250">
+        <v>68.2</v>
+      </c>
+      <c r="F250" s="1">
+        <v>43933</v>
+      </c>
+      <c r="G250" s="1">
+        <v>43997</v>
+      </c>
+      <c r="H250">
+        <v>6.9</v>
+      </c>
+      <c r="I250">
+        <v>5</v>
+      </c>
+      <c r="J250" t="s">
+        <v>10</v>
+      </c>
+      <c r="K250" t="s">
+        <v>38</v>
+      </c>
+      <c r="L250" t="s">
+        <v>51</v>
+      </c>
+      <c r="M250" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="251" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A251">
         <v>263</v>
       </c>
-    </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B251">
+        <v>24</v>
+      </c>
+      <c r="C251">
+        <v>11.4</v>
+      </c>
+      <c r="D251">
+        <v>7.9</v>
+      </c>
+      <c r="E251">
+        <v>83.6</v>
+      </c>
+      <c r="F251" s="1">
+        <v>44060</v>
+      </c>
+      <c r="G251" s="1">
+        <v>44088</v>
+      </c>
+      <c r="H251">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="I251">
+        <v>5</v>
+      </c>
+      <c r="J251" t="s">
+        <v>10</v>
+      </c>
+      <c r="K251" t="s">
+        <v>38</v>
+      </c>
+      <c r="L251" t="s">
+        <v>51</v>
+      </c>
+      <c r="M251" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="252" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A252">
         <v>264</v>
       </c>
-    </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B252">
+        <v>12</v>
+      </c>
+      <c r="C252">
+        <v>11.1</v>
+      </c>
+      <c r="D252">
+        <v>6.3</v>
+      </c>
+      <c r="E252">
+        <v>71.5</v>
+      </c>
+      <c r="F252" s="1">
+        <v>44058</v>
+      </c>
+      <c r="G252" s="1">
+        <v>44087</v>
+      </c>
+      <c r="H252">
+        <v>7.9</v>
+      </c>
+      <c r="I252">
+        <v>5</v>
+      </c>
+      <c r="J252" t="s">
+        <v>10</v>
+      </c>
+      <c r="K252" t="s">
+        <v>38</v>
+      </c>
+      <c r="L252" t="s">
+        <v>51</v>
+      </c>
+      <c r="M252" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="253" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A253">
         <v>265</v>
       </c>
-    </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B253">
+        <v>9</v>
+      </c>
+      <c r="C253">
+        <v>11.4</v>
+      </c>
+      <c r="D253">
+        <v>5.5</v>
+      </c>
+      <c r="E253">
+        <v>69.3</v>
+      </c>
+      <c r="F253" s="1">
+        <v>44015</v>
+      </c>
+      <c r="G253" s="1">
+        <v>44048</v>
+      </c>
+      <c r="H253">
+        <v>6.6</v>
+      </c>
+      <c r="I253">
+        <v>4</v>
+      </c>
+      <c r="J253" t="s">
+        <v>10</v>
+      </c>
+      <c r="K253" t="s">
+        <v>38</v>
+      </c>
+      <c r="L253" t="s">
+        <v>51</v>
+      </c>
+      <c r="M253" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="254" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A254">
         <v>266</v>
       </c>
-    </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B254">
+        <v>18</v>
+      </c>
+      <c r="C254">
+        <v>11.2</v>
+      </c>
+      <c r="D254">
+        <v>7.1</v>
+      </c>
+      <c r="E254">
+        <v>74.400000000000006</v>
+      </c>
+      <c r="F254" s="1">
+        <v>43873</v>
+      </c>
+      <c r="G254" s="1">
+        <v>43953</v>
+      </c>
+      <c r="H254">
+        <v>7.8</v>
+      </c>
+      <c r="I254">
+        <v>11</v>
+      </c>
+      <c r="J254" t="s">
+        <v>10</v>
+      </c>
+      <c r="K254" t="s">
+        <v>38</v>
+      </c>
+      <c r="L254" t="s">
+        <v>51</v>
+      </c>
+      <c r="M254" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="255" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A255">
         <v>267</v>
       </c>
-    </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B255">
+        <v>9</v>
+      </c>
+      <c r="C255">
+        <v>11.4</v>
+      </c>
+      <c r="D255">
+        <v>5.8</v>
+      </c>
+      <c r="E255">
+        <v>64.7</v>
+      </c>
+      <c r="F255" s="1">
+        <v>43894</v>
+      </c>
+      <c r="G255" s="1">
+        <v>43971</v>
+      </c>
+      <c r="H255">
+        <v>6.7</v>
+      </c>
+      <c r="I255">
+        <v>9</v>
+      </c>
+      <c r="J255" t="s">
+        <v>10</v>
+      </c>
+      <c r="K255" t="s">
+        <v>38</v>
+      </c>
+      <c r="L255" t="s">
+        <v>51</v>
+      </c>
+      <c r="M255" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="256" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A256">
         <v>268</v>
       </c>
-    </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B256">
+        <v>21</v>
+      </c>
+      <c r="C256">
+        <v>11.5</v>
+      </c>
+      <c r="D256">
+        <v>6.4</v>
+      </c>
+      <c r="E256">
+        <v>71.3</v>
+      </c>
+      <c r="F256" s="1">
+        <v>43929</v>
+      </c>
+      <c r="G256" s="1">
+        <v>43989</v>
+      </c>
+      <c r="H256">
+        <v>6.4</v>
+      </c>
+      <c r="I256">
+        <v>8</v>
+      </c>
+      <c r="J256" t="s">
+        <v>10</v>
+      </c>
+      <c r="K256" t="s">
+        <v>38</v>
+      </c>
+      <c r="L256" t="s">
+        <v>51</v>
+      </c>
+      <c r="M256" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="257" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A257">
         <v>269</v>
       </c>
-    </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B257">
+        <v>7</v>
+      </c>
+      <c r="C257">
+        <v>11.3</v>
+      </c>
+      <c r="D257">
+        <v>5.3</v>
+      </c>
+      <c r="E257">
+        <v>67.3</v>
+      </c>
+      <c r="F257" s="1">
+        <v>44034</v>
+      </c>
+      <c r="G257" s="1">
+        <v>44076</v>
+      </c>
+      <c r="H257">
+        <v>5.9</v>
+      </c>
+      <c r="I257">
+        <v>7</v>
+      </c>
+      <c r="J257" t="s">
+        <v>10</v>
+      </c>
+      <c r="K257" t="s">
+        <v>38</v>
+      </c>
+      <c r="L257" t="s">
+        <v>51</v>
+      </c>
+      <c r="M257" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="258" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A258">
         <v>270</v>
       </c>
-    </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B258">
+        <v>17</v>
+      </c>
+      <c r="C258">
+        <v>11.2</v>
+      </c>
+      <c r="D258">
+        <v>6.1</v>
+      </c>
+      <c r="E258">
+        <v>71.099999999999994</v>
+      </c>
+      <c r="F258" s="1">
+        <v>44034</v>
+      </c>
+      <c r="G258" s="1">
+        <v>44083</v>
+      </c>
+      <c r="H258">
+        <v>6.9</v>
+      </c>
+      <c r="I258">
+        <v>8</v>
+      </c>
+      <c r="J258" t="s">
+        <v>10</v>
+      </c>
+      <c r="K258" t="s">
+        <v>38</v>
+      </c>
+      <c r="L258" t="s">
+        <v>51</v>
+      </c>
+      <c r="M258" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="259" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A259">
         <v>271</v>
       </c>
-    </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B259">
+        <v>12</v>
+      </c>
+      <c r="C259">
+        <v>11.3</v>
+      </c>
+      <c r="D259">
+        <v>5.9</v>
+      </c>
+      <c r="E259">
+        <v>72.3</v>
+      </c>
+      <c r="F259" s="1">
+        <v>44020</v>
+      </c>
+      <c r="G259" s="1">
+        <v>44076</v>
+      </c>
+      <c r="H259">
+        <v>7.7</v>
+      </c>
+      <c r="I259">
+        <v>8</v>
+      </c>
+      <c r="J259" t="s">
+        <v>10</v>
+      </c>
+      <c r="K259" t="s">
+        <v>38</v>
+      </c>
+      <c r="L259" t="s">
+        <v>51</v>
+      </c>
+      <c r="M259" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="260" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A260">
         <v>272</v>
       </c>
-    </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B260">
+        <v>14</v>
+      </c>
+      <c r="C260">
+        <v>11.3</v>
+      </c>
+      <c r="D260">
+        <v>6.6</v>
+      </c>
+      <c r="E260">
+        <v>69.7</v>
+      </c>
+      <c r="F260" s="1">
+        <v>44021</v>
+      </c>
+      <c r="G260" s="1">
+        <v>44076</v>
+      </c>
+      <c r="H260">
+        <v>7.4</v>
+      </c>
+      <c r="I260">
+        <v>8</v>
+      </c>
+      <c r="J260" t="s">
+        <v>10</v>
+      </c>
+      <c r="K260" t="s">
+        <v>38</v>
+      </c>
+      <c r="L260" t="s">
+        <v>51</v>
+      </c>
+      <c r="M260" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="261" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A261">
         <v>273</v>
       </c>
-    </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B261">
+        <v>16</v>
+      </c>
+      <c r="C261">
+        <v>11.3</v>
+      </c>
+      <c r="D261">
+        <v>7.3</v>
+      </c>
+      <c r="E261">
+        <v>71.7</v>
+      </c>
+      <c r="F261" s="1">
+        <v>44041</v>
+      </c>
+      <c r="G261" s="1">
+        <v>44083</v>
+      </c>
+      <c r="H261">
+        <v>7.6</v>
+      </c>
+      <c r="I261">
+        <v>7</v>
+      </c>
+      <c r="J261" t="s">
+        <v>10</v>
+      </c>
+      <c r="K261" t="s">
+        <v>38</v>
+      </c>
+      <c r="L261" t="s">
+        <v>51</v>
+      </c>
+      <c r="M261" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="262" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A262">
         <v>274</v>
       </c>
-    </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B262">
+        <v>10</v>
+      </c>
+      <c r="C262">
+        <v>11.4</v>
+      </c>
+      <c r="D262">
+        <v>5.5</v>
+      </c>
+      <c r="E262">
+        <v>67.400000000000006</v>
+      </c>
+      <c r="F262" s="1">
+        <v>43894</v>
+      </c>
+      <c r="G262" s="1">
+        <v>43985</v>
+      </c>
+      <c r="H262">
+        <v>8</v>
+      </c>
+      <c r="I262">
+        <v>8</v>
+      </c>
+      <c r="J262" t="s">
+        <v>10</v>
+      </c>
+      <c r="K262" t="s">
+        <v>38</v>
+      </c>
+      <c r="L262" t="s">
+        <v>51</v>
+      </c>
+      <c r="M262" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="263" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A263">
         <v>275</v>
       </c>
-    </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B263">
+        <v>9</v>
+      </c>
+      <c r="C263">
+        <v>11.5</v>
+      </c>
+      <c r="D263">
+        <v>5.6</v>
+      </c>
+      <c r="E263">
+        <v>64</v>
+      </c>
+      <c r="F263" s="1">
+        <v>43936</v>
+      </c>
+      <c r="G263" s="1">
+        <v>44034</v>
+      </c>
+      <c r="H263">
+        <v>7.9</v>
+      </c>
+      <c r="I263">
+        <v>8</v>
+      </c>
+      <c r="J263" t="s">
+        <v>10</v>
+      </c>
+      <c r="K263" t="s">
+        <v>38</v>
+      </c>
+      <c r="L263" t="s">
+        <v>51</v>
+      </c>
+      <c r="M263" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="264" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A264">
         <v>276</v>
       </c>
-    </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B264">
+        <v>12</v>
+      </c>
+      <c r="C264">
+        <v>11.3</v>
+      </c>
+      <c r="D264">
+        <v>5.7</v>
+      </c>
+      <c r="E264">
+        <v>69.8</v>
+      </c>
+      <c r="F264" s="1">
+        <v>44028</v>
+      </c>
+      <c r="G264" s="1">
+        <v>44083</v>
+      </c>
+      <c r="H264">
+        <v>6.5</v>
+      </c>
+      <c r="I264">
+        <v>8</v>
+      </c>
+      <c r="J264" t="s">
+        <v>10</v>
+      </c>
+      <c r="K264" t="s">
+        <v>38</v>
+      </c>
+      <c r="L264" t="s">
+        <v>51</v>
+      </c>
+      <c r="M264" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="265" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A265">
         <v>277</v>
       </c>
-    </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B265">
+        <v>16</v>
+      </c>
+      <c r="C265">
+        <v>11.2</v>
+      </c>
+      <c r="D265">
+        <v>6</v>
+      </c>
+      <c r="E265">
+        <v>68.599999999999994</v>
+      </c>
+      <c r="F265" s="1">
+        <v>43880</v>
+      </c>
+      <c r="G265" s="1">
+        <v>43972</v>
+      </c>
+      <c r="H265">
+        <v>7.8</v>
+      </c>
+      <c r="I265">
+        <v>9</v>
+      </c>
+      <c r="J265" t="s">
+        <v>10</v>
+      </c>
+      <c r="K265" t="s">
+        <v>38</v>
+      </c>
+      <c r="L265" t="s">
+        <v>51</v>
+      </c>
+      <c r="M265" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="266" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A266">
         <v>278</v>
       </c>
-    </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B266">
+        <v>9</v>
+      </c>
+      <c r="C266">
+        <v>11.3</v>
+      </c>
+      <c r="D266">
+        <v>6.1</v>
+      </c>
+      <c r="E266">
+        <v>67.099999999999994</v>
+      </c>
+      <c r="F266" s="1">
+        <v>43873</v>
+      </c>
+      <c r="G266" s="1">
+        <v>43971</v>
+      </c>
+      <c r="H266">
+        <v>7.2</v>
+      </c>
+      <c r="I266">
+        <v>9</v>
+      </c>
+      <c r="J266" t="s">
+        <v>10</v>
+      </c>
+      <c r="K266" t="s">
+        <v>38</v>
+      </c>
+      <c r="L266" t="s">
+        <v>51</v>
+      </c>
+      <c r="M266" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="267" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A267">
         <v>279</v>
       </c>
-    </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B267">
+        <v>9</v>
+      </c>
+      <c r="C267">
+        <v>11.3</v>
+      </c>
+      <c r="D267">
+        <v>6.6</v>
+      </c>
+      <c r="E267">
+        <v>68.400000000000006</v>
+      </c>
+      <c r="F267" s="1">
+        <v>43873</v>
+      </c>
+      <c r="G267" s="1">
+        <v>43985</v>
+      </c>
+      <c r="H267">
+        <v>7.7</v>
+      </c>
+      <c r="I267">
+        <v>9</v>
+      </c>
+      <c r="J267" t="s">
+        <v>10</v>
+      </c>
+      <c r="K267" t="s">
+        <v>38</v>
+      </c>
+      <c r="L267" t="s">
+        <v>51</v>
+      </c>
+      <c r="M267" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="268" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A268">
         <v>280</v>
       </c>
-    </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B268">
+        <v>8</v>
+      </c>
+      <c r="C268">
+        <v>11.2</v>
+      </c>
+      <c r="D268">
+        <v>6.5</v>
+      </c>
+      <c r="E268">
+        <v>69.7</v>
+      </c>
+      <c r="F268" s="1">
+        <v>43922</v>
+      </c>
+      <c r="G268" s="1">
+        <v>43985</v>
+      </c>
+      <c r="H268">
+        <v>7.6</v>
+      </c>
+      <c r="I268">
+        <v>7</v>
+      </c>
+      <c r="J268" t="s">
+        <v>10</v>
+      </c>
+      <c r="K268" t="s">
+        <v>38</v>
+      </c>
+      <c r="L268" t="s">
+        <v>51</v>
+      </c>
+      <c r="M268" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="269" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A269">
         <v>281</v>
       </c>
-    </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B269">
+        <v>7</v>
+      </c>
+      <c r="C269">
+        <v>11.4</v>
+      </c>
+      <c r="D269">
+        <v>6</v>
+      </c>
+      <c r="E269">
+        <v>65</v>
+      </c>
+      <c r="F269" s="1">
+        <v>43943</v>
+      </c>
+      <c r="G269" s="1">
+        <v>44006</v>
+      </c>
+      <c r="H269">
+        <v>6.9</v>
+      </c>
+      <c r="I269">
+        <v>8</v>
+      </c>
+      <c r="J269" t="s">
+        <v>10</v>
+      </c>
+      <c r="K269" t="s">
+        <v>38</v>
+      </c>
+      <c r="L269" t="s">
+        <v>51</v>
+      </c>
+      <c r="M269" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="270" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A270">
         <v>282</v>
       </c>
-    </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B270">
+        <v>24</v>
+      </c>
+      <c r="C270">
+        <v>13.5</v>
+      </c>
+      <c r="D270">
+        <v>8.5</v>
+      </c>
+      <c r="E270">
+        <v>81.099999999999994</v>
+      </c>
+      <c r="F270" s="1">
+        <v>44108</v>
+      </c>
+      <c r="G270" s="1">
+        <v>44129</v>
+      </c>
+      <c r="H270">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="I270">
+        <v>4</v>
+      </c>
+      <c r="J270" t="s">
+        <v>10</v>
+      </c>
+      <c r="K270" t="s">
+        <v>38</v>
+      </c>
+      <c r="L270" t="s">
+        <v>51</v>
+      </c>
+      <c r="M270" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="271" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A271">
         <v>283</v>
       </c>
-    </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B271">
+        <v>11</v>
+      </c>
+      <c r="C271">
+        <v>11.1</v>
+      </c>
+      <c r="D271">
+        <v>7.5</v>
+      </c>
+      <c r="E271">
+        <v>71</v>
+      </c>
+      <c r="F271" s="1">
+        <v>44066</v>
+      </c>
+      <c r="G271" s="1">
+        <v>44129</v>
+      </c>
+      <c r="H271">
+        <v>8.4</v>
+      </c>
+      <c r="I271">
+        <v>10</v>
+      </c>
+      <c r="J271" t="s">
+        <v>10</v>
+      </c>
+      <c r="K271" t="s">
+        <v>38</v>
+      </c>
+      <c r="L271" t="s">
+        <v>51</v>
+      </c>
+      <c r="M271" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="272" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A272">
         <v>284</v>
       </c>
-    </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B272">
+        <v>9</v>
+      </c>
+      <c r="C272">
+        <v>11.2</v>
+      </c>
+      <c r="D272">
+        <v>7</v>
+      </c>
+      <c r="E272">
+        <v>64.2</v>
+      </c>
+      <c r="F272" s="1">
+        <v>43996</v>
+      </c>
+      <c r="G272" s="1">
+        <v>44059</v>
+      </c>
+      <c r="H272">
+        <v>8.1</v>
+      </c>
+      <c r="I272">
+        <v>9</v>
+      </c>
+      <c r="J272" t="s">
+        <v>10</v>
+      </c>
+      <c r="K272" t="s">
+        <v>38</v>
+      </c>
+      <c r="L272" t="s">
+        <v>51</v>
+      </c>
+      <c r="M272" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="273" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A273">
         <v>285</v>
       </c>
-    </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B273">
+        <v>16</v>
+      </c>
+      <c r="C273">
+        <v>11.3</v>
+      </c>
+      <c r="D273">
+        <v>7.4</v>
+      </c>
+      <c r="E273">
+        <v>78</v>
+      </c>
+      <c r="F273" s="1">
+        <v>44015</v>
+      </c>
+      <c r="G273" s="1">
+        <v>44073</v>
+      </c>
+      <c r="H273">
+        <v>8.6</v>
+      </c>
+      <c r="I273">
+        <v>9</v>
+      </c>
+      <c r="J273" t="s">
+        <v>10</v>
+      </c>
+      <c r="K273" t="s">
+        <v>38</v>
+      </c>
+      <c r="L273" t="s">
+        <v>51</v>
+      </c>
+      <c r="M273" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="274" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A274">
         <v>286</v>
       </c>
-    </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B274">
+        <v>9</v>
+      </c>
+      <c r="C274">
+        <v>11.1</v>
+      </c>
+      <c r="D274">
+        <v>7.6</v>
+      </c>
+      <c r="E274">
+        <v>70</v>
+      </c>
+      <c r="F274" s="1">
+        <v>44038</v>
+      </c>
+      <c r="G274" s="1">
+        <v>44094</v>
+      </c>
+      <c r="H274">
+        <v>8.6</v>
+      </c>
+      <c r="I274">
+        <v>9</v>
+      </c>
+      <c r="J274" t="s">
+        <v>10</v>
+      </c>
+      <c r="K274" t="s">
+        <v>38</v>
+      </c>
+      <c r="L274" t="s">
+        <v>51</v>
+      </c>
+      <c r="M274" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="275" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A275">
         <v>287</v>
       </c>
-    </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B275">
+        <v>24</v>
+      </c>
+      <c r="C275">
+        <v>11.2</v>
+      </c>
+      <c r="D275">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="E275">
+        <v>79.3</v>
+      </c>
+      <c r="F275" s="1">
+        <v>44024</v>
+      </c>
+      <c r="G275" s="1">
+        <v>44087</v>
+      </c>
+      <c r="H275">
+        <v>9.6</v>
+      </c>
+      <c r="I275">
+        <v>9</v>
+      </c>
+      <c r="J275" t="s">
+        <v>10</v>
+      </c>
+      <c r="K275" t="s">
+        <v>38</v>
+      </c>
+      <c r="L275" t="s">
+        <v>51</v>
+      </c>
+      <c r="M275" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="276" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A276">
         <v>288</v>
       </c>
-    </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B276">
+        <v>14</v>
+      </c>
+      <c r="C276">
+        <v>11.3</v>
+      </c>
+      <c r="D276">
+        <v>8</v>
+      </c>
+      <c r="E276">
+        <v>73.3</v>
+      </c>
+      <c r="F276" s="1">
+        <v>43898</v>
+      </c>
+      <c r="G276" s="1">
+        <v>44024</v>
+      </c>
+      <c r="H276">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="I276">
+        <v>9</v>
+      </c>
+      <c r="J276" t="s">
+        <v>10</v>
+      </c>
+      <c r="K276" t="s">
+        <v>38</v>
+      </c>
+      <c r="L276" t="s">
+        <v>51</v>
+      </c>
+      <c r="M276" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="277" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A277">
         <v>289</v>
       </c>
-    </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B277">
+        <v>17</v>
+      </c>
+      <c r="C277">
+        <v>11.4</v>
+      </c>
+      <c r="D277">
+        <v>6.3</v>
+      </c>
+      <c r="E277">
+        <v>70</v>
+      </c>
+      <c r="F277" s="1">
+        <v>43933</v>
+      </c>
+      <c r="G277" s="1">
+        <v>44024</v>
+      </c>
+      <c r="H277">
+        <v>7.7</v>
+      </c>
+      <c r="I277">
+        <v>8</v>
+      </c>
+      <c r="J277" t="s">
+        <v>10</v>
+      </c>
+      <c r="K277" t="s">
+        <v>38</v>
+      </c>
+      <c r="L277" t="s">
+        <v>51</v>
+      </c>
+      <c r="M277" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="278" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A278">
         <v>290</v>
       </c>
-    </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B278">
+        <v>9</v>
+      </c>
+      <c r="C278">
+        <v>11.4</v>
+      </c>
+      <c r="D278">
+        <v>7.6</v>
+      </c>
+      <c r="E278">
+        <v>70</v>
+      </c>
+      <c r="F278" s="1">
+        <v>43884</v>
+      </c>
+      <c r="G278" s="1">
+        <v>44003</v>
+      </c>
+      <c r="H278">
+        <v>8.5</v>
+      </c>
+      <c r="I278">
+        <v>8</v>
+      </c>
+      <c r="J278" t="s">
+        <v>10</v>
+      </c>
+      <c r="K278" t="s">
+        <v>38</v>
+      </c>
+      <c r="L278" t="s">
+        <v>51</v>
+      </c>
+      <c r="M278" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="279" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A279">
         <v>291</v>
       </c>
-    </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B279">
+        <v>36</v>
+      </c>
+      <c r="C279">
+        <v>11.4</v>
+      </c>
+      <c r="D279">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="E279">
+        <v>94.8</v>
+      </c>
+      <c r="F279" s="1">
+        <v>44101</v>
+      </c>
+      <c r="G279" s="1">
+        <v>44129</v>
+      </c>
+      <c r="H279">
+        <v>10.4</v>
+      </c>
+      <c r="I279">
+        <v>5</v>
+      </c>
+      <c r="J279" t="s">
+        <v>10</v>
+      </c>
+      <c r="K279" t="s">
+        <v>38</v>
+      </c>
+      <c r="L279" t="s">
+        <v>51</v>
+      </c>
+      <c r="M279" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="280" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A280">
         <v>292</v>
       </c>
-    </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B280">
+        <v>18</v>
+      </c>
+      <c r="C280">
+        <v>11.1</v>
+      </c>
+      <c r="D280">
+        <v>6.6</v>
+      </c>
+      <c r="E280">
+        <v>76.3</v>
+      </c>
+      <c r="F280" s="1">
+        <v>44045</v>
+      </c>
+      <c r="G280" s="1">
+        <v>44117</v>
+      </c>
+      <c r="H280">
+        <v>8</v>
+      </c>
+      <c r="I280">
+        <v>7</v>
+      </c>
+      <c r="J280" t="s">
+        <v>10</v>
+      </c>
+      <c r="K280" t="s">
+        <v>38</v>
+      </c>
+      <c r="L280" t="s">
+        <v>51</v>
+      </c>
+      <c r="M280" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="281" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A281">
         <v>293</v>
       </c>
-    </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B281">
+        <v>15</v>
+      </c>
+      <c r="C281">
+        <v>11.3</v>
+      </c>
+      <c r="D281">
+        <v>6.4</v>
+      </c>
+      <c r="E281">
+        <v>71.2</v>
+      </c>
+      <c r="F281" s="1">
+        <v>43936</v>
+      </c>
+      <c r="G281" s="1">
+        <v>44047</v>
+      </c>
+      <c r="H281">
+        <v>8.6</v>
+      </c>
+      <c r="I281">
+        <v>8</v>
+      </c>
+      <c r="J281" t="s">
+        <v>10</v>
+      </c>
+      <c r="K281" t="s">
+        <v>38</v>
+      </c>
+      <c r="L281" t="s">
+        <v>51</v>
+      </c>
+      <c r="M281" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="282" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A282">
         <v>294</v>
       </c>
-    </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B282">
+        <v>14</v>
+      </c>
+      <c r="C282">
+        <v>11.2</v>
+      </c>
+      <c r="D282">
+        <v>5.5</v>
+      </c>
+      <c r="E282">
+        <v>64.599999999999994</v>
+      </c>
+      <c r="F282" s="1">
+        <v>44061</v>
+      </c>
+      <c r="G282" s="1">
+        <v>44103</v>
+      </c>
+      <c r="H282">
+        <v>6</v>
+      </c>
+      <c r="I282">
+        <v>3</v>
+      </c>
+      <c r="J282" t="s">
+        <v>10</v>
+      </c>
+      <c r="K282" t="s">
+        <v>38</v>
+      </c>
+      <c r="L282" t="s">
+        <v>51</v>
+      </c>
+      <c r="M282" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="283" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A283">
         <v>295</v>
       </c>
-    </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B283">
+        <v>22</v>
+      </c>
+      <c r="C283">
+        <v>11</v>
+      </c>
+      <c r="D283">
+        <v>8</v>
+      </c>
+      <c r="E283">
+        <v>79.5</v>
+      </c>
+      <c r="F283" s="1">
+        <v>44019</v>
+      </c>
+      <c r="G283" s="1">
+        <v>44082</v>
+      </c>
+      <c r="H283">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="I283">
+        <v>5</v>
+      </c>
+      <c r="J283" t="s">
+        <v>10</v>
+      </c>
+      <c r="K283" t="s">
+        <v>38</v>
+      </c>
+      <c r="L283" t="s">
+        <v>51</v>
+      </c>
+      <c r="M283" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="284" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A284">
         <v>296</v>
       </c>
-    </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B284">
+        <v>13</v>
+      </c>
+      <c r="C284">
+        <v>11.3</v>
+      </c>
+      <c r="D284">
+        <v>6.6</v>
+      </c>
+      <c r="E284">
+        <v>69.5</v>
+      </c>
+      <c r="F284" s="1">
+        <v>43907</v>
+      </c>
+      <c r="G284" s="1">
+        <v>43998</v>
+      </c>
+      <c r="H284">
+        <v>9.1</v>
+      </c>
+      <c r="I284">
+        <v>7</v>
+      </c>
+      <c r="J284" t="s">
+        <v>10</v>
+      </c>
+      <c r="K284" t="s">
+        <v>38</v>
+      </c>
+      <c r="L284" t="s">
+        <v>51</v>
+      </c>
+      <c r="M284" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="285" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A285">
         <v>297</v>
       </c>
-    </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B285">
+        <v>10</v>
+      </c>
+      <c r="C285">
+        <v>11.1</v>
+      </c>
+      <c r="D285">
+        <v>6.1</v>
+      </c>
+      <c r="E285">
+        <v>67.400000000000006</v>
+      </c>
+      <c r="F285" s="1">
+        <v>43900</v>
+      </c>
+      <c r="G285" s="1">
+        <v>43998</v>
+      </c>
+      <c r="H285">
+        <v>8.4</v>
+      </c>
+      <c r="I285">
+        <v>8</v>
+      </c>
+      <c r="J285" t="s">
+        <v>10</v>
+      </c>
+      <c r="K285" t="s">
+        <v>38</v>
+      </c>
+      <c r="L285" t="s">
+        <v>51</v>
+      </c>
+      <c r="M285" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="286" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A286">
         <v>298</v>
       </c>
-    </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B286">
+        <v>6</v>
+      </c>
+      <c r="C286">
+        <v>11.4</v>
+      </c>
+      <c r="D286">
+        <v>6.1</v>
+      </c>
+      <c r="E286">
+        <v>63.7</v>
+      </c>
+      <c r="F286" s="1">
+        <v>43956</v>
+      </c>
+      <c r="G286" s="1">
+        <v>44047</v>
+      </c>
+      <c r="H286">
+        <v>7.7</v>
+      </c>
+      <c r="I286">
+        <v>6</v>
+      </c>
+      <c r="J286" t="s">
+        <v>10</v>
+      </c>
+      <c r="K286" t="s">
+        <v>38</v>
+      </c>
+      <c r="L286" t="s">
+        <v>51</v>
+      </c>
+      <c r="M286" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="287" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A287">
         <v>299</v>
       </c>
-    </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B287">
+        <v>11</v>
+      </c>
+      <c r="C287">
+        <v>11.1</v>
+      </c>
+      <c r="D287">
+        <v>6</v>
+      </c>
+      <c r="E287">
+        <v>67</v>
+      </c>
+      <c r="F287" s="1">
+        <v>43914</v>
+      </c>
+      <c r="G287" s="1">
+        <v>43998</v>
+      </c>
+      <c r="H287">
+        <v>8</v>
+      </c>
+      <c r="I287">
+        <v>7</v>
+      </c>
+      <c r="J287" t="s">
+        <v>10</v>
+      </c>
+      <c r="K287" t="s">
+        <v>38</v>
+      </c>
+      <c r="L287" t="s">
+        <v>51</v>
+      </c>
+      <c r="M287" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="288" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A288">
         <v>300</v>
       </c>
-    </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B288">
+        <v>11</v>
+      </c>
+      <c r="C288">
+        <v>11.1</v>
+      </c>
+      <c r="D288">
+        <v>5.9</v>
+      </c>
+      <c r="E288">
+        <v>67</v>
+      </c>
+      <c r="F288" s="1">
+        <v>44067</v>
+      </c>
+      <c r="G288" s="1">
+        <v>44082</v>
+      </c>
+      <c r="H288">
+        <v>6.8</v>
+      </c>
+      <c r="I288">
+        <v>4</v>
+      </c>
+      <c r="J288" t="s">
+        <v>10</v>
+      </c>
+      <c r="K288" t="s">
+        <v>38</v>
+      </c>
+      <c r="L288" t="s">
+        <v>51</v>
+      </c>
+      <c r="M288" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="289" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A289">
         <v>301</v>
       </c>
-    </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B289">
+        <v>10</v>
+      </c>
+      <c r="C289">
+        <v>11.4</v>
+      </c>
+      <c r="D289">
+        <v>6</v>
+      </c>
+      <c r="E289">
+        <v>64</v>
+      </c>
+      <c r="F289" s="1">
+        <v>44075</v>
+      </c>
+      <c r="G289" s="1">
+        <v>44120</v>
+      </c>
+      <c r="H289">
+        <v>6.9</v>
+      </c>
+      <c r="I289">
+        <v>4</v>
+      </c>
+      <c r="J289" t="s">
+        <v>10</v>
+      </c>
+      <c r="K289" t="s">
+        <v>38</v>
+      </c>
+      <c r="L289" t="s">
+        <v>51</v>
+      </c>
+      <c r="M289" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="290" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A290">
         <v>302</v>
       </c>
-    </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B290">
+        <v>13</v>
+      </c>
+      <c r="C290">
+        <v>11.4</v>
+      </c>
+      <c r="D290">
+        <v>6.3</v>
+      </c>
+      <c r="E290">
+        <v>69</v>
+      </c>
+      <c r="F290" s="1">
+        <v>47369</v>
+      </c>
+      <c r="G290" s="1">
+        <v>44110</v>
+      </c>
+      <c r="H290">
+        <v>6.9</v>
+      </c>
+      <c r="I290">
+        <v>3</v>
+      </c>
+      <c r="J290" t="s">
+        <v>10</v>
+      </c>
+      <c r="K290" t="s">
+        <v>38</v>
+      </c>
+      <c r="L290" t="s">
+        <v>51</v>
+      </c>
+      <c r="M290" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="291" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A291">
         <v>303</v>
       </c>
     </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A292">
         <v>304</v>
       </c>
     </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A293">
         <v>305</v>
       </c>
     </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A294">
         <v>306</v>
       </c>
     </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A295">
         <v>307</v>
       </c>
     </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A296">
         <v>308</v>
       </c>
     </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A297">
         <v>309</v>
       </c>
     </row>
-    <row r="298" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A298">
         <v>310</v>
       </c>
     </row>
-    <row r="299" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A299">
         <v>311</v>
       </c>
     </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A300">
         <v>312</v>
       </c>
     </row>
-    <row r="301" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A301">
         <v>313</v>
       </c>
     </row>
-    <row r="302" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A302">
         <v>314</v>
       </c>
     </row>
-    <row r="303" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A303">
         <v>315</v>
       </c>
     </row>
-    <row r="304" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A304">
         <v>316</v>
       </c>

--- a/data-raw/cmam/otpEpisode_calculations.xlsx
+++ b/data-raw/cmam/otpEpisode_calculations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ernest/GitHub/squeacr/data-raw/cmam/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23998FDC-B32A-664E-B227-E97E01C1295E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74AF4767-1CFA-C446-9EAF-445308EC581C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18040" yWindow="460" windowWidth="31900" windowHeight="28340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="26660" yWindow="460" windowWidth="23280" windowHeight="28340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1171" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1331" uniqueCount="61">
   <si>
     <t>index</t>
   </si>
@@ -202,6 +202,21 @@
   </si>
   <si>
     <t>Damrat</t>
+  </si>
+  <si>
+    <t>Kalamendo</t>
+  </si>
+  <si>
+    <t>Abudlek</t>
+  </si>
+  <si>
+    <t>Arida</t>
+  </si>
+  <si>
+    <t>Wada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eid albida </t>
   </si>
 </sst>
 </file>
@@ -590,8 +605,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O1554"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="P140" sqref="P140"/>
+    <sheetView tabSelected="1" topLeftCell="A262" workbookViewId="0">
+      <selection activeCell="Q297" sqref="Q297"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13762,228 +13777,1668 @@
       <c r="A291">
         <v>303</v>
       </c>
+      <c r="B291">
+        <v>7</v>
+      </c>
+      <c r="C291">
+        <v>11.2</v>
+      </c>
+      <c r="D291">
+        <v>5.7</v>
+      </c>
+      <c r="E291">
+        <v>69</v>
+      </c>
+      <c r="F291" s="1">
+        <v>43941</v>
+      </c>
+      <c r="G291" s="1">
+        <v>43970</v>
+      </c>
+      <c r="H291">
+        <v>6.1</v>
+      </c>
+      <c r="I291">
+        <v>5</v>
+      </c>
+      <c r="J291" t="s">
+        <v>10</v>
+      </c>
+      <c r="K291" t="s">
+        <v>38</v>
+      </c>
+      <c r="L291" t="s">
+        <v>56</v>
+      </c>
+      <c r="M291" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="292" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A292">
         <v>304</v>
       </c>
+      <c r="B292">
+        <v>15</v>
+      </c>
+      <c r="C292">
+        <v>11.1</v>
+      </c>
+      <c r="D292">
+        <v>5.5</v>
+      </c>
+      <c r="E292">
+        <v>65</v>
+      </c>
+      <c r="F292" s="1">
+        <v>43962</v>
+      </c>
+      <c r="G292" s="1">
+        <v>44004</v>
+      </c>
+      <c r="H292">
+        <v>6</v>
+      </c>
+      <c r="I292">
+        <v>6</v>
+      </c>
+      <c r="J292" t="s">
+        <v>10</v>
+      </c>
+      <c r="K292" t="s">
+        <v>38</v>
+      </c>
+      <c r="L292" t="s">
+        <v>56</v>
+      </c>
+      <c r="M292" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="293" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A293">
         <v>305</v>
       </c>
+      <c r="B293">
+        <v>7</v>
+      </c>
+      <c r="C293">
+        <v>11</v>
+      </c>
+      <c r="D293">
+        <v>6</v>
+      </c>
+      <c r="E293">
+        <v>60.9</v>
+      </c>
+      <c r="F293" s="1">
+        <v>43955</v>
+      </c>
+      <c r="G293" s="1">
+        <v>44004</v>
+      </c>
+      <c r="H293">
+        <v>6.5</v>
+      </c>
+      <c r="I293">
+        <v>6</v>
+      </c>
+      <c r="J293" t="s">
+        <v>10</v>
+      </c>
+      <c r="K293" t="s">
+        <v>38</v>
+      </c>
+      <c r="L293" t="s">
+        <v>56</v>
+      </c>
+      <c r="M293" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="294" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A294">
         <v>306</v>
       </c>
+      <c r="B294">
+        <v>13</v>
+      </c>
+      <c r="C294">
+        <v>11.3</v>
+      </c>
+      <c r="D294">
+        <v>7</v>
+      </c>
+      <c r="E294">
+        <v>77</v>
+      </c>
+      <c r="F294" s="1">
+        <v>43997</v>
+      </c>
+      <c r="G294" s="1">
+        <v>44039</v>
+      </c>
+      <c r="H294">
+        <v>7.4</v>
+      </c>
+      <c r="I294">
+        <v>5</v>
+      </c>
+      <c r="J294" t="s">
+        <v>10</v>
+      </c>
+      <c r="K294" t="s">
+        <v>38</v>
+      </c>
+      <c r="L294" t="s">
+        <v>56</v>
+      </c>
+      <c r="M294" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="295" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A295">
         <v>307</v>
       </c>
+      <c r="B295">
+        <v>17</v>
+      </c>
+      <c r="C295">
+        <v>11.1</v>
+      </c>
+      <c r="D295">
+        <v>6.5</v>
+      </c>
+      <c r="E295">
+        <v>66</v>
+      </c>
+      <c r="F295" s="1">
+        <v>43969</v>
+      </c>
+      <c r="G295" s="1">
+        <v>44018</v>
+      </c>
+      <c r="H295">
+        <v>7</v>
+      </c>
+      <c r="I295">
+        <v>7</v>
+      </c>
+      <c r="J295" t="s">
+        <v>10</v>
+      </c>
+      <c r="K295" t="s">
+        <v>38</v>
+      </c>
+      <c r="L295" t="s">
+        <v>56</v>
+      </c>
+      <c r="M295" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="296" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A296">
         <v>308</v>
       </c>
+      <c r="B296">
+        <v>7</v>
+      </c>
+      <c r="C296">
+        <v>11</v>
+      </c>
+      <c r="D296">
+        <v>6</v>
+      </c>
+      <c r="E296">
+        <v>65.900000000000006</v>
+      </c>
+      <c r="F296" s="1">
+        <v>43969</v>
+      </c>
+      <c r="G296" s="1">
+        <v>44018</v>
+      </c>
+      <c r="H296">
+        <v>6.3</v>
+      </c>
+      <c r="I296">
+        <v>7</v>
+      </c>
+      <c r="J296" t="s">
+        <v>10</v>
+      </c>
+      <c r="K296" t="s">
+        <v>38</v>
+      </c>
+      <c r="L296" t="s">
+        <v>56</v>
+      </c>
+      <c r="M296" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="297" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A297">
         <v>309</v>
       </c>
+      <c r="B297">
+        <v>17</v>
+      </c>
+      <c r="C297">
+        <v>11.2</v>
+      </c>
+      <c r="D297">
+        <v>6</v>
+      </c>
+      <c r="E297">
+        <v>60</v>
+      </c>
+      <c r="F297" s="1">
+        <v>44109</v>
+      </c>
+      <c r="G297" s="1">
+        <v>44123</v>
+      </c>
+      <c r="H297">
+        <v>6.3</v>
+      </c>
+      <c r="I297">
+        <v>3</v>
+      </c>
+      <c r="J297" t="s">
+        <v>10</v>
+      </c>
+      <c r="K297" t="s">
+        <v>38</v>
+      </c>
+      <c r="L297" t="s">
+        <v>56</v>
+      </c>
+      <c r="M297" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="298" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A298">
         <v>310</v>
       </c>
+      <c r="B298">
+        <v>26</v>
+      </c>
+      <c r="C298">
+        <v>11.3</v>
+      </c>
+      <c r="D298">
+        <v>7.2</v>
+      </c>
+      <c r="E298">
+        <v>77.2</v>
+      </c>
+      <c r="F298" s="1">
+        <v>44102</v>
+      </c>
+      <c r="G298" s="1">
+        <v>44130</v>
+      </c>
+      <c r="H298">
+        <v>7.9</v>
+      </c>
+      <c r="I298">
+        <v>5</v>
+      </c>
+      <c r="J298" t="s">
+        <v>10</v>
+      </c>
+      <c r="K298" t="s">
+        <v>38</v>
+      </c>
+      <c r="L298" t="s">
+        <v>56</v>
+      </c>
+      <c r="M298" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="299" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A299">
         <v>311</v>
       </c>
+      <c r="B299">
+        <v>17</v>
+      </c>
+      <c r="C299">
+        <v>11.1</v>
+      </c>
+      <c r="D299">
+        <v>7</v>
+      </c>
+      <c r="E299">
+        <v>77.2</v>
+      </c>
+      <c r="F299" s="1">
+        <v>44086</v>
+      </c>
+      <c r="G299" s="1">
+        <v>44130</v>
+      </c>
+      <c r="H299">
+        <v>7.6</v>
+      </c>
+      <c r="I299">
+        <v>7</v>
+      </c>
+      <c r="J299" t="s">
+        <v>10</v>
+      </c>
+      <c r="K299" t="s">
+        <v>38</v>
+      </c>
+      <c r="L299" t="s">
+        <v>56</v>
+      </c>
+      <c r="M299" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="300" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A300">
         <v>312</v>
       </c>
+      <c r="B300">
+        <v>10</v>
+      </c>
+      <c r="C300">
+        <v>11.3</v>
+      </c>
+      <c r="D300">
+        <v>6.9</v>
+      </c>
+      <c r="E300">
+        <v>67</v>
+      </c>
+      <c r="F300" s="1">
+        <v>44039</v>
+      </c>
+      <c r="G300" s="1">
+        <v>44074</v>
+      </c>
+      <c r="H300">
+        <v>6.4</v>
+      </c>
+      <c r="I300">
+        <v>4</v>
+      </c>
+      <c r="J300" t="s">
+        <v>10</v>
+      </c>
+      <c r="K300" t="s">
+        <v>38</v>
+      </c>
+      <c r="L300" t="s">
+        <v>56</v>
+      </c>
+      <c r="M300" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="301" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A301">
         <v>313</v>
       </c>
+      <c r="B301">
+        <v>7</v>
+      </c>
+      <c r="C301">
+        <v>11.2</v>
+      </c>
+      <c r="D301">
+        <v>5.2</v>
+      </c>
+      <c r="E301">
+        <v>64</v>
+      </c>
+      <c r="F301" s="1">
+        <v>43997</v>
+      </c>
+      <c r="G301" s="1">
+        <v>44046</v>
+      </c>
+      <c r="H301">
+        <v>5.7</v>
+      </c>
+      <c r="I301">
+        <v>6</v>
+      </c>
+      <c r="J301" t="s">
+        <v>10</v>
+      </c>
+      <c r="K301" t="s">
+        <v>38</v>
+      </c>
+      <c r="L301" t="s">
+        <v>56</v>
+      </c>
+      <c r="M301" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="302" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A302">
         <v>314</v>
       </c>
+      <c r="B302">
+        <v>48</v>
+      </c>
+      <c r="C302">
+        <v>11.1</v>
+      </c>
+      <c r="D302">
+        <v>7.5</v>
+      </c>
+      <c r="E302">
+        <v>70.2</v>
+      </c>
+      <c r="F302" s="1">
+        <v>43989</v>
+      </c>
+      <c r="G302" s="1">
+        <v>44031</v>
+      </c>
+      <c r="H302">
+        <v>7.7</v>
+      </c>
+      <c r="I302">
+        <v>6</v>
+      </c>
+      <c r="J302" t="s">
+        <v>10</v>
+      </c>
+      <c r="K302" t="s">
+        <v>38</v>
+      </c>
+      <c r="L302" t="s">
+        <v>56</v>
+      </c>
+      <c r="M302" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="303" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A303">
         <v>315</v>
       </c>
+      <c r="B303">
+        <v>7</v>
+      </c>
+      <c r="C303">
+        <v>11</v>
+      </c>
+      <c r="D303">
+        <v>7.1</v>
+      </c>
+      <c r="E303">
+        <v>66</v>
+      </c>
+      <c r="F303" s="1">
+        <v>44024</v>
+      </c>
+      <c r="G303" s="1">
+        <v>44108</v>
+      </c>
+      <c r="H303">
+        <v>7.6</v>
+      </c>
+      <c r="I303">
+        <v>7</v>
+      </c>
+      <c r="J303" t="s">
+        <v>10</v>
+      </c>
+      <c r="K303" t="s">
+        <v>38</v>
+      </c>
+      <c r="L303" t="s">
+        <v>56</v>
+      </c>
+      <c r="M303" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="304" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A304">
         <v>316</v>
       </c>
-    </row>
-    <row r="305" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B304">
+        <v>20</v>
+      </c>
+      <c r="C304">
+        <v>11.2</v>
+      </c>
+      <c r="D304">
+        <v>8</v>
+      </c>
+      <c r="E304">
+        <v>69.400000000000006</v>
+      </c>
+      <c r="F304" s="1">
+        <v>44080</v>
+      </c>
+      <c r="G304" s="1">
+        <v>44110</v>
+      </c>
+      <c r="H304">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="I304">
+        <v>4</v>
+      </c>
+      <c r="J304" t="s">
+        <v>10</v>
+      </c>
+      <c r="K304" t="s">
+        <v>38</v>
+      </c>
+      <c r="L304" t="s">
+        <v>56</v>
+      </c>
+      <c r="M304" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="305" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A305">
         <v>317</v>
       </c>
-    </row>
-    <row r="306" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B305">
+        <v>14</v>
+      </c>
+      <c r="C305">
+        <v>11.3</v>
+      </c>
+      <c r="D305">
+        <v>7.2</v>
+      </c>
+      <c r="E305">
+        <v>71.2</v>
+      </c>
+      <c r="F305" s="1">
+        <v>44010</v>
+      </c>
+      <c r="G305" s="1">
+        <v>44024</v>
+      </c>
+      <c r="H305">
+        <v>7.4</v>
+      </c>
+      <c r="I305">
+        <v>3</v>
+      </c>
+      <c r="J305" t="s">
+        <v>10</v>
+      </c>
+      <c r="K305" t="s">
+        <v>38</v>
+      </c>
+      <c r="L305" t="s">
+        <v>56</v>
+      </c>
+      <c r="M305" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="306" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A306">
         <v>318</v>
       </c>
-    </row>
-    <row r="307" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B306">
+        <v>25</v>
+      </c>
+      <c r="C306">
+        <v>11.3</v>
+      </c>
+      <c r="D306">
+        <v>7.3</v>
+      </c>
+      <c r="E306">
+        <v>71.7</v>
+      </c>
+      <c r="F306" s="1">
+        <v>44010</v>
+      </c>
+      <c r="G306" s="1">
+        <v>44024</v>
+      </c>
+      <c r="H306">
+        <v>8</v>
+      </c>
+      <c r="I306">
+        <v>3</v>
+      </c>
+      <c r="J306" t="s">
+        <v>10</v>
+      </c>
+      <c r="K306" t="s">
+        <v>38</v>
+      </c>
+      <c r="L306" t="s">
+        <v>56</v>
+      </c>
+      <c r="M306" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="307" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A307">
         <v>319</v>
       </c>
-    </row>
-    <row r="308" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B307">
+        <v>19</v>
+      </c>
+      <c r="C307">
+        <v>11.4</v>
+      </c>
+      <c r="D307">
+        <v>7.8</v>
+      </c>
+      <c r="E307">
+        <v>70.5</v>
+      </c>
+      <c r="F307" s="1">
+        <v>44115</v>
+      </c>
+      <c r="G307" s="1">
+        <v>44124</v>
+      </c>
+      <c r="H307">
+        <v>7.4</v>
+      </c>
+      <c r="I307">
+        <v>3</v>
+      </c>
+      <c r="J307" t="s">
+        <v>10</v>
+      </c>
+      <c r="K307" t="s">
+        <v>38</v>
+      </c>
+      <c r="L307" t="s">
+        <v>56</v>
+      </c>
+      <c r="M307" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="308" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A308">
         <v>320</v>
       </c>
-    </row>
-    <row r="309" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B308">
+        <v>24</v>
+      </c>
+      <c r="C308">
+        <v>11</v>
+      </c>
+      <c r="D308">
+        <v>7.7</v>
+      </c>
+      <c r="E308">
+        <v>71.5</v>
+      </c>
+      <c r="F308" s="1">
+        <v>43921</v>
+      </c>
+      <c r="G308" s="1">
+        <v>44033</v>
+      </c>
+      <c r="H308">
+        <v>7.6</v>
+      </c>
+      <c r="I308">
+        <v>6</v>
+      </c>
+      <c r="J308" t="s">
+        <v>10</v>
+      </c>
+      <c r="K308" t="s">
+        <v>38</v>
+      </c>
+      <c r="L308" t="s">
+        <v>56</v>
+      </c>
+      <c r="M308" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="309" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A309">
         <v>321</v>
       </c>
-    </row>
-    <row r="310" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B309">
+        <v>16</v>
+      </c>
+      <c r="C309">
+        <v>11.2</v>
+      </c>
+      <c r="D309">
+        <v>6.3</v>
+      </c>
+      <c r="E309">
+        <v>66</v>
+      </c>
+      <c r="F309" s="1">
+        <v>44024</v>
+      </c>
+      <c r="G309" s="1">
+        <v>44080</v>
+      </c>
+      <c r="H309">
+        <v>7.1</v>
+      </c>
+      <c r="I309">
+        <v>4</v>
+      </c>
+      <c r="J309" t="s">
+        <v>10</v>
+      </c>
+      <c r="K309" t="s">
+        <v>38</v>
+      </c>
+      <c r="L309" t="s">
+        <v>56</v>
+      </c>
+      <c r="M309" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="310" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A310">
         <v>322</v>
       </c>
-    </row>
-    <row r="311" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B310">
+        <v>10</v>
+      </c>
+      <c r="C310">
+        <v>11</v>
+      </c>
+      <c r="D310">
+        <v>6.3</v>
+      </c>
+      <c r="E310">
+        <v>64</v>
+      </c>
+      <c r="F310" s="1">
+        <v>43921</v>
+      </c>
+      <c r="G310" s="1">
+        <v>44033</v>
+      </c>
+      <c r="H310">
+        <v>9</v>
+      </c>
+      <c r="I310">
+        <v>7</v>
+      </c>
+      <c r="J310" t="s">
+        <v>10</v>
+      </c>
+      <c r="K310" t="s">
+        <v>38</v>
+      </c>
+      <c r="L310" t="s">
+        <v>56</v>
+      </c>
+      <c r="M310" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="311" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A311">
         <v>323</v>
       </c>
-    </row>
-    <row r="312" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B311">
+        <v>11</v>
+      </c>
+      <c r="C311">
+        <v>10</v>
+      </c>
+      <c r="D311">
+        <v>5.2</v>
+      </c>
+      <c r="E311">
+        <v>66.5</v>
+      </c>
+      <c r="F311" s="1">
+        <v>44083</v>
+      </c>
+      <c r="G311" s="1">
+        <v>44129</v>
+      </c>
+      <c r="H311">
+        <v>6.5</v>
+      </c>
+      <c r="I311">
+        <v>11</v>
+      </c>
+      <c r="J311" t="s">
+        <v>10</v>
+      </c>
+      <c r="K311" t="s">
+        <v>38</v>
+      </c>
+      <c r="L311" t="s">
+        <v>56</v>
+      </c>
+      <c r="M311" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="312" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A312">
         <v>324</v>
       </c>
-    </row>
-    <row r="313" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B312">
+        <v>10</v>
+      </c>
+      <c r="C312">
+        <v>11.2</v>
+      </c>
+      <c r="D312">
+        <v>7</v>
+      </c>
+      <c r="E312">
+        <v>65</v>
+      </c>
+      <c r="F312" s="1">
+        <v>44080</v>
+      </c>
+      <c r="G312" s="1">
+        <v>44108</v>
+      </c>
+      <c r="H312">
+        <v>6.6</v>
+      </c>
+      <c r="I312">
+        <v>4</v>
+      </c>
+      <c r="J312" t="s">
+        <v>10</v>
+      </c>
+      <c r="K312" t="s">
+        <v>38</v>
+      </c>
+      <c r="L312" t="s">
+        <v>56</v>
+      </c>
+      <c r="M312" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="313" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A313">
         <v>325</v>
       </c>
-    </row>
-    <row r="314" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B313">
+        <v>12</v>
+      </c>
+      <c r="C313">
+        <v>9.9</v>
+      </c>
+      <c r="D313">
+        <v>5</v>
+      </c>
+      <c r="E313">
+        <v>64</v>
+      </c>
+      <c r="F313" s="1">
+        <v>44052</v>
+      </c>
+      <c r="G313" s="1">
+        <v>44108</v>
+      </c>
+      <c r="H313">
+        <v>5.2</v>
+      </c>
+      <c r="I313">
+        <v>8</v>
+      </c>
+      <c r="J313" t="s">
+        <v>10</v>
+      </c>
+      <c r="K313" t="s">
+        <v>38</v>
+      </c>
+      <c r="L313" t="s">
+        <v>56</v>
+      </c>
+      <c r="M313" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="314" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A314">
         <v>326</v>
       </c>
-    </row>
-    <row r="315" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B314">
+        <v>27</v>
+      </c>
+      <c r="C314">
+        <v>11</v>
+      </c>
+      <c r="D314">
+        <v>7.1</v>
+      </c>
+      <c r="E314">
+        <v>66.2</v>
+      </c>
+      <c r="F314" s="1">
+        <v>44038</v>
+      </c>
+      <c r="G314" s="1">
+        <v>44052</v>
+      </c>
+      <c r="H314">
+        <v>7.9</v>
+      </c>
+      <c r="I314">
+        <v>7</v>
+      </c>
+      <c r="J314" t="s">
+        <v>10</v>
+      </c>
+      <c r="K314" t="s">
+        <v>38</v>
+      </c>
+      <c r="L314" t="s">
+        <v>56</v>
+      </c>
+      <c r="M314" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="315" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A315">
         <v>327</v>
       </c>
-    </row>
-    <row r="316" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B315">
+        <v>9</v>
+      </c>
+      <c r="C315">
+        <v>10.8</v>
+      </c>
+      <c r="D315">
+        <v>5.6</v>
+      </c>
+      <c r="E315">
+        <v>68</v>
+      </c>
+      <c r="F315" s="1">
+        <v>43996</v>
+      </c>
+      <c r="G315" s="1">
+        <v>44066</v>
+      </c>
+      <c r="H315">
+        <v>6.7</v>
+      </c>
+      <c r="I315">
+        <v>10</v>
+      </c>
+      <c r="J315" t="s">
+        <v>10</v>
+      </c>
+      <c r="K315" t="s">
+        <v>38</v>
+      </c>
+      <c r="L315" t="s">
+        <v>56</v>
+      </c>
+      <c r="M315" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="316" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A316">
         <v>328</v>
       </c>
-    </row>
-    <row r="317" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B316">
+        <v>7</v>
+      </c>
+      <c r="C316">
+        <v>11</v>
+      </c>
+      <c r="D316">
+        <v>5.3</v>
+      </c>
+      <c r="E316">
+        <v>65</v>
+      </c>
+      <c r="F316" s="1">
+        <v>44003</v>
+      </c>
+      <c r="G316" s="1">
+        <v>44073</v>
+      </c>
+      <c r="H316">
+        <v>6.5</v>
+      </c>
+      <c r="I316">
+        <v>9</v>
+      </c>
+      <c r="J316" t="s">
+        <v>10</v>
+      </c>
+      <c r="K316" t="s">
+        <v>38</v>
+      </c>
+      <c r="L316" t="s">
+        <v>56</v>
+      </c>
+      <c r="M316" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="317" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A317">
         <v>329</v>
       </c>
-    </row>
-    <row r="318" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B317">
+        <v>12</v>
+      </c>
+      <c r="C317">
+        <v>11.2</v>
+      </c>
+      <c r="D317">
+        <v>7.3</v>
+      </c>
+      <c r="E317">
+        <v>72</v>
+      </c>
+      <c r="F317" s="1">
+        <v>44094</v>
+      </c>
+      <c r="G317" s="1">
+        <v>44129</v>
+      </c>
+      <c r="H317">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="I317">
+        <v>6</v>
+      </c>
+      <c r="J317" t="s">
+        <v>10</v>
+      </c>
+      <c r="K317" t="s">
+        <v>38</v>
+      </c>
+      <c r="L317" t="s">
+        <v>56</v>
+      </c>
+      <c r="M317" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="318" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A318">
         <v>330</v>
       </c>
-    </row>
-    <row r="319" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B318">
+        <v>24</v>
+      </c>
+      <c r="C318">
+        <v>11</v>
+      </c>
+      <c r="D318">
+        <v>7</v>
+      </c>
+      <c r="E318">
+        <v>74</v>
+      </c>
+      <c r="F318" s="1">
+        <v>44094</v>
+      </c>
+      <c r="G318" s="1">
+        <v>44122</v>
+      </c>
+      <c r="H318">
+        <v>8</v>
+      </c>
+      <c r="I318">
+        <v>5</v>
+      </c>
+      <c r="J318" t="s">
+        <v>10</v>
+      </c>
+      <c r="K318" t="s">
+        <v>38</v>
+      </c>
+      <c r="L318" t="s">
+        <v>56</v>
+      </c>
+      <c r="M318" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="319" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A319">
         <v>331</v>
       </c>
-    </row>
-    <row r="320" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B319">
+        <v>12</v>
+      </c>
+      <c r="C319">
+        <v>11.2</v>
+      </c>
+      <c r="D319">
+        <v>6.5</v>
+      </c>
+      <c r="E319">
+        <v>69.3</v>
+      </c>
+      <c r="F319" s="1">
+        <v>44094</v>
+      </c>
+      <c r="G319" s="1">
+        <v>44122</v>
+      </c>
+      <c r="H319">
+        <v>7.4</v>
+      </c>
+      <c r="I319">
+        <v>5</v>
+      </c>
+      <c r="J319" t="s">
+        <v>10</v>
+      </c>
+      <c r="K319" t="s">
+        <v>38</v>
+      </c>
+      <c r="L319" t="s">
+        <v>56</v>
+      </c>
+      <c r="M319" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="320" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A320">
         <v>332</v>
       </c>
-    </row>
-    <row r="321" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B320">
+        <v>12</v>
+      </c>
+      <c r="C320">
+        <v>11.2</v>
+      </c>
+      <c r="D320">
+        <v>7.3</v>
+      </c>
+      <c r="E320">
+        <v>68</v>
+      </c>
+      <c r="F320" s="1">
+        <v>43996</v>
+      </c>
+      <c r="G320" s="1">
+        <v>44024</v>
+      </c>
+      <c r="H320">
+        <v>7.7</v>
+      </c>
+      <c r="I320">
+        <v>5</v>
+      </c>
+      <c r="J320" t="s">
+        <v>10</v>
+      </c>
+      <c r="K320" t="s">
+        <v>38</v>
+      </c>
+      <c r="L320" t="s">
+        <v>56</v>
+      </c>
+      <c r="M320" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="321" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A321">
         <v>333</v>
       </c>
-    </row>
-    <row r="322" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B321">
+        <v>13</v>
+      </c>
+      <c r="C321">
+        <v>11.4</v>
+      </c>
+      <c r="D321">
+        <v>5.8</v>
+      </c>
+      <c r="E321">
+        <v>89</v>
+      </c>
+      <c r="F321" s="1">
+        <v>43965</v>
+      </c>
+      <c r="G321" s="1">
+        <v>44013</v>
+      </c>
+      <c r="H321">
+        <v>7.4</v>
+      </c>
+      <c r="I321">
+        <v>7</v>
+      </c>
+      <c r="J321" t="s">
+        <v>10</v>
+      </c>
+      <c r="K321" t="s">
+        <v>38</v>
+      </c>
+      <c r="L321" t="s">
+        <v>56</v>
+      </c>
+      <c r="M321" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="322" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A322">
         <v>334</v>
       </c>
-    </row>
-    <row r="323" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B322">
+        <v>7</v>
+      </c>
+      <c r="C322">
+        <v>11.4</v>
+      </c>
+      <c r="D322">
+        <v>7.1</v>
+      </c>
+      <c r="E322">
+        <v>74</v>
+      </c>
+      <c r="F322" s="1">
+        <v>44000</v>
+      </c>
+      <c r="G322" s="1">
+        <v>44123</v>
+      </c>
+      <c r="H322">
+        <v>6.9</v>
+      </c>
+      <c r="I322">
+        <v>12</v>
+      </c>
+      <c r="J322" t="s">
+        <v>10</v>
+      </c>
+      <c r="K322" t="s">
+        <v>38</v>
+      </c>
+      <c r="L322" t="s">
+        <v>56</v>
+      </c>
+      <c r="M322" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="323" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A323">
         <v>335</v>
       </c>
-    </row>
-    <row r="324" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B323">
+        <v>7</v>
+      </c>
+      <c r="C323">
+        <v>11.2</v>
+      </c>
+      <c r="D323">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="E323">
+        <v>75</v>
+      </c>
+      <c r="F323" s="1">
+        <v>44084</v>
+      </c>
+      <c r="G323" s="1">
+        <v>44119</v>
+      </c>
+      <c r="H323">
+        <v>5.9</v>
+      </c>
+      <c r="I323">
+        <v>5</v>
+      </c>
+      <c r="J323" t="s">
+        <v>10</v>
+      </c>
+      <c r="K323" t="s">
+        <v>38</v>
+      </c>
+      <c r="L323" t="s">
+        <v>56</v>
+      </c>
+      <c r="M323" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="324" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A324">
         <v>336</v>
       </c>
-    </row>
-    <row r="325" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B324">
+        <v>7</v>
+      </c>
+      <c r="C324">
+        <v>11.3</v>
+      </c>
+      <c r="D324">
+        <v>6.5</v>
+      </c>
+      <c r="E324">
+        <v>65.5</v>
+      </c>
+      <c r="F324" s="1">
+        <v>44077</v>
+      </c>
+      <c r="G324" s="1">
+        <v>44091</v>
+      </c>
+      <c r="H324">
+        <v>6.9</v>
+      </c>
+      <c r="I324">
+        <v>3</v>
+      </c>
+      <c r="J324" t="s">
+        <v>10</v>
+      </c>
+      <c r="K324" t="s">
+        <v>38</v>
+      </c>
+      <c r="L324" t="s">
+        <v>56</v>
+      </c>
+      <c r="M324" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="325" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A325">
         <v>337</v>
       </c>
-    </row>
-    <row r="326" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B325">
+        <v>8</v>
+      </c>
+      <c r="C325">
+        <v>11.4</v>
+      </c>
+      <c r="D325">
+        <v>6.4</v>
+      </c>
+      <c r="E325">
+        <v>66.400000000000006</v>
+      </c>
+      <c r="F325" s="1">
+        <v>43951</v>
+      </c>
+      <c r="G325" s="1">
+        <v>43965</v>
+      </c>
+      <c r="H325">
+        <v>7.6</v>
+      </c>
+      <c r="I325">
+        <v>3</v>
+      </c>
+      <c r="J325" t="s">
+        <v>10</v>
+      </c>
+      <c r="K325" t="s">
+        <v>38</v>
+      </c>
+      <c r="L325" t="s">
+        <v>56</v>
+      </c>
+      <c r="M325" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="326" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A326">
         <v>338</v>
       </c>
-    </row>
-    <row r="327" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B326">
+        <v>24</v>
+      </c>
+      <c r="C326">
+        <v>11.4</v>
+      </c>
+      <c r="D326">
+        <v>7.8</v>
+      </c>
+      <c r="E326">
+        <v>75</v>
+      </c>
+      <c r="F326" s="1">
+        <v>44100</v>
+      </c>
+      <c r="G326" s="1">
+        <v>44119</v>
+      </c>
+      <c r="H326">
+        <v>8</v>
+      </c>
+      <c r="I326">
+        <v>3</v>
+      </c>
+      <c r="J326" t="s">
+        <v>10</v>
+      </c>
+      <c r="K326" t="s">
+        <v>38</v>
+      </c>
+      <c r="L326" t="s">
+        <v>56</v>
+      </c>
+      <c r="M326" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="327" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A327">
         <v>339</v>
       </c>
-    </row>
-    <row r="328" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B327">
+        <v>36</v>
+      </c>
+      <c r="C327">
+        <v>11</v>
+      </c>
+      <c r="D327">
+        <v>7.4</v>
+      </c>
+      <c r="E327">
+        <v>89</v>
+      </c>
+      <c r="F327" s="1">
+        <v>43993</v>
+      </c>
+      <c r="G327" s="1">
+        <v>44007</v>
+      </c>
+      <c r="H327">
+        <v>7.7</v>
+      </c>
+      <c r="I327">
+        <v>3</v>
+      </c>
+      <c r="J327" t="s">
+        <v>10</v>
+      </c>
+      <c r="K327" t="s">
+        <v>38</v>
+      </c>
+      <c r="L327" t="s">
+        <v>56</v>
+      </c>
+      <c r="M327" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="328" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A328">
         <v>340</v>
       </c>
-    </row>
-    <row r="329" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B328">
+        <v>15</v>
+      </c>
+      <c r="C328">
+        <v>11</v>
+      </c>
+      <c r="D328">
+        <v>6.7</v>
+      </c>
+      <c r="E328">
+        <v>65</v>
+      </c>
+      <c r="F328" s="1">
+        <v>43951</v>
+      </c>
+      <c r="G328" s="1">
+        <v>44007</v>
+      </c>
+      <c r="H328">
+        <v>7.9</v>
+      </c>
+      <c r="I328">
+        <v>7</v>
+      </c>
+      <c r="J328" t="s">
+        <v>10</v>
+      </c>
+      <c r="K328" t="s">
+        <v>38</v>
+      </c>
+      <c r="L328" t="s">
+        <v>56</v>
+      </c>
+      <c r="M328" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="329" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A329">
         <v>341</v>
       </c>
-    </row>
-    <row r="330" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B329">
+        <v>15</v>
+      </c>
+      <c r="C329">
+        <v>11.4</v>
+      </c>
+      <c r="D329">
+        <v>6.9</v>
+      </c>
+      <c r="E329">
+        <v>75.3</v>
+      </c>
+      <c r="F329" s="1">
+        <v>43958</v>
+      </c>
+      <c r="G329" s="1">
+        <v>43990</v>
+      </c>
+      <c r="H329">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="I329">
+        <v>4</v>
+      </c>
+      <c r="J329" t="s">
+        <v>10</v>
+      </c>
+      <c r="K329" t="s">
+        <v>38</v>
+      </c>
+      <c r="L329" t="s">
+        <v>56</v>
+      </c>
+      <c r="M329" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="330" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A330">
         <v>342</v>
       </c>
-    </row>
-    <row r="331" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B330">
+        <v>7</v>
+      </c>
+      <c r="C330">
+        <v>11.2</v>
+      </c>
+      <c r="D330">
+        <v>5.6</v>
+      </c>
+      <c r="E330">
+        <v>75</v>
+      </c>
+      <c r="F330" s="1">
+        <v>44084</v>
+      </c>
+      <c r="G330" s="1">
+        <v>44119</v>
+      </c>
+      <c r="H330">
+        <v>5.9</v>
+      </c>
+      <c r="I330">
+        <v>5</v>
+      </c>
+      <c r="J330" t="s">
+        <v>10</v>
+      </c>
+      <c r="K330" t="s">
+        <v>38</v>
+      </c>
+      <c r="L330" t="s">
+        <v>56</v>
+      </c>
+      <c r="M330" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="331" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A331">
         <v>343</v>
       </c>
     </row>
-    <row r="332" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A332">
         <v>344</v>
       </c>
     </row>
-    <row r="333" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A333">
         <v>345</v>
       </c>
     </row>
-    <row r="334" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A334">
         <v>346</v>
       </c>
     </row>
-    <row r="335" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A335">
         <v>347</v>
       </c>
     </row>
-    <row r="336" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A336">
         <v>348</v>
       </c>

--- a/data-raw/cmam/otpEpisode_calculations.xlsx
+++ b/data-raw/cmam/otpEpisode_calculations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ernest/GitHub/squeacr/data-raw/cmam/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98A54C99-41D8-2842-A5FF-A1B18FBD1D6B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33D6DE30-1A20-3041-9F08-6E3150067F8B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1591" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1555" uniqueCount="76">
   <si>
     <t>index</t>
   </si>
@@ -234,85 +234,13 @@
     <t>Wad Alhadad</t>
   </si>
   <si>
-    <t>20.7.2020</t>
-  </si>
-  <si>
-    <t>8.9.2020</t>
-  </si>
-  <si>
     <t>Almadina Arab</t>
-  </si>
-  <si>
-    <t>11.8.2020</t>
-  </si>
-  <si>
-    <t>15.9.2020</t>
-  </si>
-  <si>
-    <t>23.8.2020</t>
-  </si>
-  <si>
-    <t>6.9.2020</t>
-  </si>
-  <si>
-    <t>25.8.2020</t>
-  </si>
-  <si>
-    <t>25.09.2020</t>
-  </si>
-  <si>
-    <t>22.09.2020</t>
-  </si>
-  <si>
-    <t>15.09.2020</t>
-  </si>
-  <si>
-    <t>1.09.2020</t>
-  </si>
-  <si>
-    <t>20.9.2020</t>
-  </si>
-  <si>
-    <t>30.8.2020</t>
-  </si>
-  <si>
-    <t>13.9.2020</t>
   </si>
   <si>
     <t>6,2</t>
   </si>
   <si>
-    <t>27.9.2020</t>
-  </si>
-  <si>
-    <t>22.9.2020</t>
-  </si>
-  <si>
-    <t>29.9.2020</t>
-  </si>
-  <si>
-    <t>20.09.2020</t>
-  </si>
-  <si>
-    <t>24.9.2020</t>
-  </si>
-  <si>
-    <t>13.10.2020</t>
-  </si>
-  <si>
     <t>Alkareba</t>
-  </si>
-  <si>
-    <t>25.10.2020</t>
-  </si>
-  <si>
-    <t>21.10.2020</t>
-  </si>
-  <si>
-    <t>14.10.2020</t>
-  </si>
-  <si>
-    <t>27.10.2020</t>
   </si>
   <si>
     <t>Sharg Algazira</t>
@@ -393,7 +321,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -445,6 +373,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -762,8 +693,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M386"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A353" workbookViewId="0">
-      <selection activeCell="A452" sqref="A452:A1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A184" workbookViewId="0">
+      <selection activeCell="G370" sqref="G370"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -15284,11 +15215,11 @@
       <c r="E352" s="7">
         <v>69</v>
       </c>
-      <c r="F352" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="G352" s="15" t="s">
-        <v>67</v>
+      <c r="F352" s="15">
+        <v>44032</v>
+      </c>
+      <c r="G352" s="15">
+        <v>44082</v>
       </c>
       <c r="H352" s="9">
         <v>8.5</v>
@@ -15306,7 +15237,7 @@
         <v>64</v>
       </c>
       <c r="M352" s="18" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="353" spans="1:13" x14ac:dyDescent="0.2">
@@ -15325,11 +15256,11 @@
       <c r="E353" s="7">
         <v>74</v>
       </c>
-      <c r="F353" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="G353" s="15" t="s">
-        <v>70</v>
+      <c r="F353" s="15">
+        <v>44054</v>
+      </c>
+      <c r="G353" s="15">
+        <v>44089</v>
       </c>
       <c r="H353" s="9">
         <v>8.5</v>
@@ -15347,7 +15278,7 @@
         <v>64</v>
       </c>
       <c r="M353" s="18" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="354" spans="1:13" x14ac:dyDescent="0.2">
@@ -15366,11 +15297,11 @@
       <c r="E354" s="7">
         <v>71</v>
       </c>
-      <c r="F354" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="G354" s="15" t="s">
-        <v>72</v>
+      <c r="F354" s="15">
+        <v>44066</v>
+      </c>
+      <c r="G354" s="15">
+        <v>44080</v>
       </c>
       <c r="H354" s="9">
         <v>8</v>
@@ -15388,7 +15319,7 @@
         <v>64</v>
       </c>
       <c r="M354" s="18" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="355" spans="1:13" x14ac:dyDescent="0.2">
@@ -15407,11 +15338,11 @@
       <c r="E355" s="7">
         <v>65</v>
       </c>
-      <c r="F355" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="G355" s="15" t="s">
-        <v>74</v>
+      <c r="F355" s="15">
+        <v>44068</v>
+      </c>
+      <c r="G355" s="15">
+        <v>44099</v>
       </c>
       <c r="H355" s="9">
         <v>7</v>
@@ -15429,7 +15360,7 @@
         <v>64</v>
       </c>
       <c r="M355" s="18" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="356" spans="1:13" x14ac:dyDescent="0.2">
@@ -15448,11 +15379,11 @@
       <c r="E356" s="7">
         <v>59</v>
       </c>
-      <c r="F356" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="G356" s="15" t="s">
-        <v>75</v>
+      <c r="F356" s="15">
+        <v>44068</v>
+      </c>
+      <c r="G356" s="15">
+        <v>44096</v>
       </c>
       <c r="H356" s="9">
         <v>6</v>
@@ -15470,7 +15401,7 @@
         <v>64</v>
       </c>
       <c r="M356" s="18" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="357" spans="1:13" x14ac:dyDescent="0.2">
@@ -15489,11 +15420,11 @@
       <c r="E357" s="7">
         <v>66</v>
       </c>
-      <c r="F357" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="G357" s="15" t="s">
-        <v>76</v>
+      <c r="F357" s="15">
+        <v>44068</v>
+      </c>
+      <c r="G357" s="15">
+        <v>44089</v>
       </c>
       <c r="H357" s="9">
         <v>7.4</v>
@@ -15511,7 +15442,7 @@
         <v>64</v>
       </c>
       <c r="M357" s="18" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="358" spans="1:13" x14ac:dyDescent="0.2">
@@ -15530,11 +15461,11 @@
       <c r="E358" s="7">
         <v>66</v>
       </c>
-      <c r="F358" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="G358" s="15" t="s">
-        <v>77</v>
+      <c r="F358" s="15">
+        <v>44068</v>
+      </c>
+      <c r="G358" s="15">
+        <v>44075</v>
       </c>
       <c r="H358" s="9">
         <v>7.2</v>
@@ -15552,7 +15483,7 @@
         <v>64</v>
       </c>
       <c r="M358" s="18" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="359" spans="1:13" x14ac:dyDescent="0.2">
@@ -15571,11 +15502,11 @@
       <c r="E359" s="7">
         <v>66</v>
       </c>
-      <c r="F359" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="G359" s="15" t="s">
-        <v>78</v>
+      <c r="F359" s="15">
+        <v>44068</v>
+      </c>
+      <c r="G359" s="15">
+        <v>44094</v>
       </c>
       <c r="H359" s="9">
         <v>8.3000000000000007</v>
@@ -15593,7 +15524,7 @@
         <v>64</v>
       </c>
       <c r="M359" s="18" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="360" spans="1:13" x14ac:dyDescent="0.2">
@@ -15612,11 +15543,11 @@
       <c r="E360" s="7">
         <v>67</v>
       </c>
-      <c r="F360" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="G360" s="15" t="s">
-        <v>80</v>
+      <c r="F360" s="15">
+        <v>44073</v>
+      </c>
+      <c r="G360" s="15">
+        <v>44087</v>
       </c>
       <c r="H360" s="9">
         <v>8</v>
@@ -15634,7 +15565,7 @@
         <v>64</v>
       </c>
       <c r="M360" s="18" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="361" spans="1:13" x14ac:dyDescent="0.2">
@@ -15648,16 +15579,16 @@
         <v>11</v>
       </c>
       <c r="D361" s="7" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="E361" s="7">
         <v>68</v>
       </c>
-      <c r="F361" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="G361" s="15" t="s">
-        <v>80</v>
+      <c r="F361" s="15">
+        <v>44073</v>
+      </c>
+      <c r="G361" s="15">
+        <v>44087</v>
       </c>
       <c r="H361" s="9">
         <v>7.5</v>
@@ -15675,7 +15606,7 @@
         <v>64</v>
       </c>
       <c r="M361" s="18" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="362" spans="1:13" x14ac:dyDescent="0.2">
@@ -15694,11 +15625,11 @@
       <c r="E362" s="7">
         <v>63</v>
       </c>
-      <c r="F362" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="G362" s="15" t="s">
-        <v>82</v>
+      <c r="F362" s="15">
+        <v>44073</v>
+      </c>
+      <c r="G362" s="15">
+        <v>44101</v>
       </c>
       <c r="H362" s="9">
         <v>6.4</v>
@@ -15716,7 +15647,7 @@
         <v>64</v>
       </c>
       <c r="M362" s="18" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="363" spans="1:13" x14ac:dyDescent="0.2">
@@ -15735,11 +15666,11 @@
       <c r="E363" s="7">
         <v>77</v>
       </c>
-      <c r="F363" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="G363" s="15" t="s">
-        <v>84</v>
+      <c r="F363" s="15">
+        <v>44096</v>
+      </c>
+      <c r="G363" s="15">
+        <v>44103</v>
       </c>
       <c r="H363" s="9">
         <v>9</v>
@@ -15757,7 +15688,7 @@
         <v>64</v>
       </c>
       <c r="M363" s="18" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="364" spans="1:13" x14ac:dyDescent="0.2">
@@ -15776,11 +15707,11 @@
       <c r="E364" s="7">
         <v>84</v>
       </c>
-      <c r="F364" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="G364" s="15" t="s">
-        <v>82</v>
+      <c r="F364" s="15">
+        <v>44094</v>
+      </c>
+      <c r="G364" s="15">
+        <v>44101</v>
       </c>
       <c r="H364" s="9">
         <v>10.3</v>
@@ -15798,7 +15729,7 @@
         <v>64</v>
       </c>
       <c r="M364" s="18" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="365" spans="1:13" x14ac:dyDescent="0.2">
@@ -15813,11 +15744,11 @@
       </c>
       <c r="D365" s="10"/>
       <c r="E365" s="10"/>
-      <c r="F365" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="G365" s="10" t="s">
-        <v>87</v>
+      <c r="F365" s="22">
+        <v>44098</v>
+      </c>
+      <c r="G365" s="22">
+        <v>44117</v>
       </c>
       <c r="H365" s="12">
         <v>13.5</v>
@@ -15833,7 +15764,7 @@
         <v>60</v>
       </c>
       <c r="M365" s="20" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
     </row>
     <row r="366" spans="1:13" x14ac:dyDescent="0.2">
@@ -15848,11 +15779,11 @@
       </c>
       <c r="D366" s="10"/>
       <c r="E366" s="10"/>
-      <c r="F366" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="G366" s="10" t="s">
-        <v>89</v>
+      <c r="F366" s="22">
+        <v>44098</v>
+      </c>
+      <c r="G366" s="22">
+        <v>44129</v>
       </c>
       <c r="H366" s="12">
         <v>12.5</v>
@@ -15868,7 +15799,7 @@
         <v>60</v>
       </c>
       <c r="M366" s="20" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
     </row>
     <row r="367" spans="1:13" x14ac:dyDescent="0.2">
@@ -15883,11 +15814,11 @@
       </c>
       <c r="D367" s="10"/>
       <c r="E367" s="10"/>
-      <c r="F367" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="G367" s="10" t="s">
-        <v>90</v>
+      <c r="F367" s="22">
+        <v>44098</v>
+      </c>
+      <c r="G367" s="22">
+        <v>44125</v>
       </c>
       <c r="H367" s="12">
         <v>12.5</v>
@@ -15903,7 +15834,7 @@
         <v>60</v>
       </c>
       <c r="M367" s="20" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
     </row>
     <row r="368" spans="1:13" x14ac:dyDescent="0.2">
@@ -15918,11 +15849,11 @@
       </c>
       <c r="D368" s="10"/>
       <c r="E368" s="10"/>
-      <c r="F368" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="G368" s="10" t="s">
-        <v>91</v>
+      <c r="F368" s="22">
+        <v>44098</v>
+      </c>
+      <c r="G368" s="22">
+        <v>44118</v>
       </c>
       <c r="H368" s="12">
         <v>12.5</v>
@@ -15938,7 +15869,7 @@
         <v>60</v>
       </c>
       <c r="M368" s="20" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
     </row>
     <row r="369" spans="1:13" x14ac:dyDescent="0.2">
@@ -15953,11 +15884,11 @@
       </c>
       <c r="D369" s="10"/>
       <c r="E369" s="10"/>
-      <c r="F369" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="G369" s="10" t="s">
-        <v>92</v>
+      <c r="F369" s="22">
+        <v>44098</v>
+      </c>
+      <c r="G369" s="22">
+        <v>44131</v>
       </c>
       <c r="H369" s="12">
         <v>12.5</v>
@@ -15973,7 +15904,7 @@
         <v>60</v>
       </c>
       <c r="M369" s="20" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
     </row>
     <row r="370" spans="1:13" x14ac:dyDescent="0.2">
@@ -16009,10 +15940,10 @@
         <v>59</v>
       </c>
       <c r="L370" s="21" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="M370" s="21" t="s">
-        <v>94</v>
+        <v>70</v>
       </c>
     </row>
     <row r="371" spans="1:13" x14ac:dyDescent="0.2">
@@ -16050,10 +15981,10 @@
         <v>59</v>
       </c>
       <c r="L371" s="21" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="M371" s="21" t="s">
-        <v>94</v>
+        <v>70</v>
       </c>
     </row>
     <row r="372" spans="1:13" x14ac:dyDescent="0.2">
@@ -16091,10 +16022,10 @@
         <v>59</v>
       </c>
       <c r="L372" s="21" t="s">
-        <v>95</v>
+        <v>71</v>
       </c>
       <c r="M372" s="21" t="s">
-        <v>96</v>
+        <v>72</v>
       </c>
     </row>
     <row r="373" spans="1:13" x14ac:dyDescent="0.2">
@@ -16132,10 +16063,10 @@
         <v>59</v>
       </c>
       <c r="L373" s="21" t="s">
-        <v>95</v>
+        <v>71</v>
       </c>
       <c r="M373" s="21" t="s">
-        <v>96</v>
+        <v>72</v>
       </c>
     </row>
     <row r="374" spans="1:13" x14ac:dyDescent="0.2">
@@ -16173,10 +16104,10 @@
         <v>59</v>
       </c>
       <c r="L374" s="21" t="s">
-        <v>95</v>
+        <v>71</v>
       </c>
       <c r="M374" s="21" t="s">
-        <v>96</v>
+        <v>72</v>
       </c>
     </row>
     <row r="375" spans="1:13" x14ac:dyDescent="0.2">
@@ -16214,10 +16145,10 @@
         <v>59</v>
       </c>
       <c r="L375" s="21" t="s">
-        <v>95</v>
+        <v>71</v>
       </c>
       <c r="M375" s="21" t="s">
-        <v>96</v>
+        <v>72</v>
       </c>
     </row>
     <row r="376" spans="1:13" x14ac:dyDescent="0.2">
@@ -16255,10 +16186,10 @@
         <v>59</v>
       </c>
       <c r="L376" s="21" t="s">
-        <v>97</v>
+        <v>73</v>
       </c>
       <c r="M376" s="21" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
     </row>
     <row r="377" spans="1:13" x14ac:dyDescent="0.2">
@@ -16296,10 +16227,10 @@
         <v>59</v>
       </c>
       <c r="L377" s="21" t="s">
-        <v>97</v>
+        <v>73</v>
       </c>
       <c r="M377" s="21" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
     </row>
     <row r="378" spans="1:13" x14ac:dyDescent="0.2">
@@ -16337,10 +16268,10 @@
         <v>59</v>
       </c>
       <c r="L378" s="21" t="s">
-        <v>97</v>
+        <v>73</v>
       </c>
       <c r="M378" s="21" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
     </row>
     <row r="379" spans="1:13" x14ac:dyDescent="0.2">
@@ -16378,10 +16309,10 @@
         <v>59</v>
       </c>
       <c r="L379" s="21" t="s">
-        <v>97</v>
+        <v>73</v>
       </c>
       <c r="M379" s="21" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
     </row>
     <row r="380" spans="1:13" x14ac:dyDescent="0.2">
@@ -16419,10 +16350,10 @@
         <v>59</v>
       </c>
       <c r="L380" s="21" t="s">
-        <v>97</v>
+        <v>73</v>
       </c>
       <c r="M380" s="21" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
     </row>
     <row r="381" spans="1:13" x14ac:dyDescent="0.2">
@@ -16460,10 +16391,10 @@
         <v>59</v>
       </c>
       <c r="L381" s="21" t="s">
-        <v>97</v>
+        <v>73</v>
       </c>
       <c r="M381" s="21" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
     </row>
     <row r="382" spans="1:13" x14ac:dyDescent="0.2">
@@ -16501,10 +16432,10 @@
         <v>59</v>
       </c>
       <c r="L382" s="21" t="s">
-        <v>97</v>
+        <v>73</v>
       </c>
       <c r="M382" s="21" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
     </row>
     <row r="383" spans="1:13" x14ac:dyDescent="0.2">
@@ -16542,10 +16473,10 @@
         <v>59</v>
       </c>
       <c r="L383" s="21" t="s">
-        <v>97</v>
+        <v>73</v>
       </c>
       <c r="M383" s="21" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
     </row>
     <row r="384" spans="1:13" x14ac:dyDescent="0.2">
@@ -16583,10 +16514,10 @@
         <v>59</v>
       </c>
       <c r="L384" s="21" t="s">
-        <v>97</v>
+        <v>73</v>
       </c>
       <c r="M384" s="21" t="s">
-        <v>99</v>
+        <v>75</v>
       </c>
     </row>
     <row r="385" spans="1:13" x14ac:dyDescent="0.2">
@@ -16624,10 +16555,10 @@
         <v>59</v>
       </c>
       <c r="L385" s="21" t="s">
-        <v>97</v>
+        <v>73</v>
       </c>
       <c r="M385" s="21" t="s">
-        <v>99</v>
+        <v>75</v>
       </c>
     </row>
     <row r="386" spans="1:13" x14ac:dyDescent="0.2">
@@ -16665,10 +16596,10 @@
         <v>59</v>
       </c>
       <c r="L386" s="21" t="s">
-        <v>97</v>
+        <v>73</v>
       </c>
       <c r="M386" s="21" t="s">
-        <v>99</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/data-raw/cmam/otpEpisode_calculations.xlsx
+++ b/data-raw/cmam/otpEpisode_calculations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ernest/GitHub/squeacr/data-raw/cmam/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33D6DE30-1A20-3041-9F08-6E3150067F8B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CC5D2FE-E3D5-0546-916D-417A461F8BDE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1555" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1554" uniqueCount="75">
   <si>
     <t>index</t>
   </si>
@@ -220,9 +220,6 @@
   </si>
   <si>
     <t>Abu Sunun</t>
-  </si>
-  <si>
-    <t>19/012020</t>
   </si>
   <si>
     <t xml:space="preserve">Baneet </t>
@@ -693,8 +690,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M386"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A184" workbookViewId="0">
-      <selection activeCell="G370" sqref="G370"/>
+    <sheetView tabSelected="1" topLeftCell="A350" workbookViewId="0">
+      <selection activeCell="F389" sqref="F389"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14653,8 +14650,8 @@
       <c r="E338" s="7">
         <v>79</v>
       </c>
-      <c r="F338" s="7" t="s">
-        <v>62</v>
+      <c r="F338" s="15">
+        <v>43849</v>
       </c>
       <c r="G338" s="14"/>
       <c r="H338" s="9">
@@ -14670,7 +14667,7 @@
         <v>60</v>
       </c>
       <c r="M338" s="13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="339" spans="1:13" x14ac:dyDescent="0.2">
@@ -14706,7 +14703,7 @@
         <v>60</v>
       </c>
       <c r="M339" s="13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="340" spans="1:13" x14ac:dyDescent="0.2">
@@ -14744,10 +14741,10 @@
         <v>59</v>
       </c>
       <c r="L340" t="s">
+        <v>63</v>
+      </c>
+      <c r="M340" t="s">
         <v>64</v>
-      </c>
-      <c r="M340" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="341" spans="1:13" x14ac:dyDescent="0.2">
@@ -14785,10 +14782,10 @@
         <v>59</v>
       </c>
       <c r="L341" t="s">
+        <v>63</v>
+      </c>
+      <c r="M341" t="s">
         <v>64</v>
-      </c>
-      <c r="M341" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="342" spans="1:13" x14ac:dyDescent="0.2">
@@ -14826,10 +14823,10 @@
         <v>59</v>
       </c>
       <c r="L342" t="s">
+        <v>63</v>
+      </c>
+      <c r="M342" t="s">
         <v>64</v>
-      </c>
-      <c r="M342" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="343" spans="1:13" x14ac:dyDescent="0.2">
@@ -14867,10 +14864,10 @@
         <v>59</v>
       </c>
       <c r="L343" t="s">
+        <v>63</v>
+      </c>
+      <c r="M343" t="s">
         <v>64</v>
-      </c>
-      <c r="M343" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="344" spans="1:13" x14ac:dyDescent="0.2">
@@ -14908,10 +14905,10 @@
         <v>59</v>
       </c>
       <c r="L344" t="s">
+        <v>63</v>
+      </c>
+      <c r="M344" t="s">
         <v>64</v>
-      </c>
-      <c r="M344" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="345" spans="1:13" x14ac:dyDescent="0.2">
@@ -14947,10 +14944,10 @@
         <v>59</v>
       </c>
       <c r="L345" t="s">
+        <v>63</v>
+      </c>
+      <c r="M345" t="s">
         <v>64</v>
-      </c>
-      <c r="M345" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="346" spans="1:13" x14ac:dyDescent="0.2">
@@ -14988,10 +14985,10 @@
         <v>59</v>
       </c>
       <c r="L346" t="s">
+        <v>63</v>
+      </c>
+      <c r="M346" t="s">
         <v>64</v>
-      </c>
-      <c r="M346" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="347" spans="1:13" x14ac:dyDescent="0.2">
@@ -15029,10 +15026,10 @@
         <v>59</v>
       </c>
       <c r="L347" t="s">
+        <v>63</v>
+      </c>
+      <c r="M347" t="s">
         <v>64</v>
-      </c>
-      <c r="M347" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="348" spans="1:13" x14ac:dyDescent="0.2">
@@ -15070,10 +15067,10 @@
         <v>59</v>
       </c>
       <c r="L348" t="s">
+        <v>63</v>
+      </c>
+      <c r="M348" t="s">
         <v>64</v>
-      </c>
-      <c r="M348" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="349" spans="1:13" x14ac:dyDescent="0.2">
@@ -15111,10 +15108,10 @@
         <v>59</v>
       </c>
       <c r="L349" t="s">
+        <v>63</v>
+      </c>
+      <c r="M349" t="s">
         <v>64</v>
-      </c>
-      <c r="M349" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="350" spans="1:13" x14ac:dyDescent="0.2">
@@ -15152,10 +15149,10 @@
         <v>59</v>
       </c>
       <c r="L350" t="s">
+        <v>63</v>
+      </c>
+      <c r="M350" t="s">
         <v>64</v>
-      </c>
-      <c r="M350" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="351" spans="1:13" x14ac:dyDescent="0.2">
@@ -15193,10 +15190,10 @@
         <v>59</v>
       </c>
       <c r="L351" t="s">
+        <v>63</v>
+      </c>
+      <c r="M351" t="s">
         <v>64</v>
-      </c>
-      <c r="M351" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="352" spans="1:13" x14ac:dyDescent="0.2">
@@ -15234,10 +15231,10 @@
         <v>59</v>
       </c>
       <c r="L352" s="18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M352" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="353" spans="1:13" x14ac:dyDescent="0.2">
@@ -15275,10 +15272,10 @@
         <v>59</v>
       </c>
       <c r="L353" s="18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M353" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="354" spans="1:13" x14ac:dyDescent="0.2">
@@ -15316,10 +15313,10 @@
         <v>59</v>
       </c>
       <c r="L354" s="18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M354" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="355" spans="1:13" x14ac:dyDescent="0.2">
@@ -15357,10 +15354,10 @@
         <v>59</v>
       </c>
       <c r="L355" s="18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M355" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="356" spans="1:13" x14ac:dyDescent="0.2">
@@ -15398,10 +15395,10 @@
         <v>59</v>
       </c>
       <c r="L356" s="18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M356" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="357" spans="1:13" x14ac:dyDescent="0.2">
@@ -15439,10 +15436,10 @@
         <v>59</v>
       </c>
       <c r="L357" s="18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M357" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="358" spans="1:13" x14ac:dyDescent="0.2">
@@ -15480,10 +15477,10 @@
         <v>59</v>
       </c>
       <c r="L358" s="18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M358" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="359" spans="1:13" x14ac:dyDescent="0.2">
@@ -15521,10 +15518,10 @@
         <v>59</v>
       </c>
       <c r="L359" s="18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M359" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="360" spans="1:13" x14ac:dyDescent="0.2">
@@ -15562,10 +15559,10 @@
         <v>59</v>
       </c>
       <c r="L360" s="18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M360" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="361" spans="1:13" x14ac:dyDescent="0.2">
@@ -15579,7 +15576,7 @@
         <v>11</v>
       </c>
       <c r="D361" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E361" s="7">
         <v>68</v>
@@ -15603,10 +15600,10 @@
         <v>59</v>
       </c>
       <c r="L361" s="18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M361" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="362" spans="1:13" x14ac:dyDescent="0.2">
@@ -15644,10 +15641,10 @@
         <v>59</v>
       </c>
       <c r="L362" s="18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M362" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="363" spans="1:13" x14ac:dyDescent="0.2">
@@ -15685,10 +15682,10 @@
         <v>59</v>
       </c>
       <c r="L363" s="18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M363" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="364" spans="1:13" x14ac:dyDescent="0.2">
@@ -15726,10 +15723,10 @@
         <v>59</v>
       </c>
       <c r="L364" s="18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M364" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="365" spans="1:13" x14ac:dyDescent="0.2">
@@ -15764,7 +15761,7 @@
         <v>60</v>
       </c>
       <c r="M365" s="20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="366" spans="1:13" x14ac:dyDescent="0.2">
@@ -15799,7 +15796,7 @@
         <v>60</v>
       </c>
       <c r="M366" s="20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="367" spans="1:13" x14ac:dyDescent="0.2">
@@ -15834,7 +15831,7 @@
         <v>60</v>
       </c>
       <c r="M367" s="20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="368" spans="1:13" x14ac:dyDescent="0.2">
@@ -15869,7 +15866,7 @@
         <v>60</v>
       </c>
       <c r="M368" s="20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="369" spans="1:13" x14ac:dyDescent="0.2">
@@ -15904,7 +15901,7 @@
         <v>60</v>
       </c>
       <c r="M369" s="20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="370" spans="1:13" x14ac:dyDescent="0.2">
@@ -15940,10 +15937,10 @@
         <v>59</v>
       </c>
       <c r="L370" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="M370" s="21" t="s">
         <v>69</v>
-      </c>
-      <c r="M370" s="21" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="371" spans="1:13" x14ac:dyDescent="0.2">
@@ -15981,10 +15978,10 @@
         <v>59</v>
       </c>
       <c r="L371" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="M371" s="21" t="s">
         <v>69</v>
-      </c>
-      <c r="M371" s="21" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="372" spans="1:13" x14ac:dyDescent="0.2">
@@ -16022,10 +16019,10 @@
         <v>59</v>
       </c>
       <c r="L372" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="M372" s="21" t="s">
         <v>71</v>
-      </c>
-      <c r="M372" s="21" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="373" spans="1:13" x14ac:dyDescent="0.2">
@@ -16063,10 +16060,10 @@
         <v>59</v>
       </c>
       <c r="L373" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="M373" s="21" t="s">
         <v>71</v>
-      </c>
-      <c r="M373" s="21" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="374" spans="1:13" x14ac:dyDescent="0.2">
@@ -16104,10 +16101,10 @@
         <v>59</v>
       </c>
       <c r="L374" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="M374" s="21" t="s">
         <v>71</v>
-      </c>
-      <c r="M374" s="21" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="375" spans="1:13" x14ac:dyDescent="0.2">
@@ -16145,10 +16142,10 @@
         <v>59</v>
       </c>
       <c r="L375" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="M375" s="21" t="s">
         <v>71</v>
-      </c>
-      <c r="M375" s="21" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="376" spans="1:13" x14ac:dyDescent="0.2">
@@ -16186,10 +16183,10 @@
         <v>59</v>
       </c>
       <c r="L376" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="M376" s="21" t="s">
         <v>73</v>
-      </c>
-      <c r="M376" s="21" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="377" spans="1:13" x14ac:dyDescent="0.2">
@@ -16227,10 +16224,10 @@
         <v>59</v>
       </c>
       <c r="L377" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="M377" s="21" t="s">
         <v>73</v>
-      </c>
-      <c r="M377" s="21" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="378" spans="1:13" x14ac:dyDescent="0.2">
@@ -16268,10 +16265,10 @@
         <v>59</v>
       </c>
       <c r="L378" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="M378" s="21" t="s">
         <v>73</v>
-      </c>
-      <c r="M378" s="21" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="379" spans="1:13" x14ac:dyDescent="0.2">
@@ -16309,10 +16306,10 @@
         <v>59</v>
       </c>
       <c r="L379" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="M379" s="21" t="s">
         <v>73</v>
-      </c>
-      <c r="M379" s="21" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="380" spans="1:13" x14ac:dyDescent="0.2">
@@ -16350,10 +16347,10 @@
         <v>59</v>
       </c>
       <c r="L380" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="M380" s="21" t="s">
         <v>73</v>
-      </c>
-      <c r="M380" s="21" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="381" spans="1:13" x14ac:dyDescent="0.2">
@@ -16391,10 +16388,10 @@
         <v>59</v>
       </c>
       <c r="L381" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="M381" s="21" t="s">
         <v>73</v>
-      </c>
-      <c r="M381" s="21" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="382" spans="1:13" x14ac:dyDescent="0.2">
@@ -16432,10 +16429,10 @@
         <v>59</v>
       </c>
       <c r="L382" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="M382" s="21" t="s">
         <v>73</v>
-      </c>
-      <c r="M382" s="21" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="383" spans="1:13" x14ac:dyDescent="0.2">
@@ -16473,10 +16470,10 @@
         <v>59</v>
       </c>
       <c r="L383" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="M383" s="21" t="s">
         <v>73</v>
-      </c>
-      <c r="M383" s="21" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="384" spans="1:13" x14ac:dyDescent="0.2">
@@ -16514,10 +16511,10 @@
         <v>59</v>
       </c>
       <c r="L384" s="21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M384" s="21" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="385" spans="1:13" x14ac:dyDescent="0.2">
@@ -16555,10 +16552,10 @@
         <v>59</v>
       </c>
       <c r="L385" s="21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M385" s="21" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="386" spans="1:13" x14ac:dyDescent="0.2">
@@ -16596,10 +16593,10 @@
         <v>59</v>
       </c>
       <c r="L386" s="21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M386" s="21" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/data-raw/cmam/otpEpisode_calculations.xlsx
+++ b/data-raw/cmam/otpEpisode_calculations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ernest/GitHub/squeacr/data-raw/cmam/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CC5D2FE-E3D5-0546-916D-417A461F8BDE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E475CC5D-C37B-E245-A1ED-D2726F0730B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1554" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1553" uniqueCount="74">
   <si>
     <t>index</t>
   </si>
@@ -232,9 +232,6 @@
   </si>
   <si>
     <t>Almadina Arab</t>
-  </si>
-  <si>
-    <t>6,2</t>
   </si>
   <si>
     <t>Alkareba</t>
@@ -690,8 +687,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M386"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A350" workbookViewId="0">
-      <selection activeCell="F389" sqref="F389"/>
+    <sheetView tabSelected="1" topLeftCell="A352" workbookViewId="0">
+      <selection activeCell="D391" sqref="D391"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -15575,8 +15572,8 @@
       <c r="C361" s="7">
         <v>11</v>
       </c>
-      <c r="D361" s="7" t="s">
-        <v>66</v>
+      <c r="D361" s="7">
+        <v>6.2</v>
       </c>
       <c r="E361" s="7">
         <v>68</v>
@@ -15761,7 +15758,7 @@
         <v>60</v>
       </c>
       <c r="M365" s="20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="366" spans="1:13" x14ac:dyDescent="0.2">
@@ -15796,7 +15793,7 @@
         <v>60</v>
       </c>
       <c r="M366" s="20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="367" spans="1:13" x14ac:dyDescent="0.2">
@@ -15831,7 +15828,7 @@
         <v>60</v>
       </c>
       <c r="M367" s="20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="368" spans="1:13" x14ac:dyDescent="0.2">
@@ -15866,7 +15863,7 @@
         <v>60</v>
       </c>
       <c r="M368" s="20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="369" spans="1:13" x14ac:dyDescent="0.2">
@@ -15901,7 +15898,7 @@
         <v>60</v>
       </c>
       <c r="M369" s="20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="370" spans="1:13" x14ac:dyDescent="0.2">
@@ -15937,10 +15934,10 @@
         <v>59</v>
       </c>
       <c r="L370" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="M370" s="21" t="s">
         <v>68</v>
-      </c>
-      <c r="M370" s="21" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="371" spans="1:13" x14ac:dyDescent="0.2">
@@ -15978,10 +15975,10 @@
         <v>59</v>
       </c>
       <c r="L371" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="M371" s="21" t="s">
         <v>68</v>
-      </c>
-      <c r="M371" s="21" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="372" spans="1:13" x14ac:dyDescent="0.2">
@@ -16019,10 +16016,10 @@
         <v>59</v>
       </c>
       <c r="L372" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="M372" s="21" t="s">
         <v>70</v>
-      </c>
-      <c r="M372" s="21" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="373" spans="1:13" x14ac:dyDescent="0.2">
@@ -16060,10 +16057,10 @@
         <v>59</v>
       </c>
       <c r="L373" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="M373" s="21" t="s">
         <v>70</v>
-      </c>
-      <c r="M373" s="21" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="374" spans="1:13" x14ac:dyDescent="0.2">
@@ -16101,10 +16098,10 @@
         <v>59</v>
       </c>
       <c r="L374" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="M374" s="21" t="s">
         <v>70</v>
-      </c>
-      <c r="M374" s="21" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="375" spans="1:13" x14ac:dyDescent="0.2">
@@ -16142,10 +16139,10 @@
         <v>59</v>
       </c>
       <c r="L375" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="M375" s="21" t="s">
         <v>70</v>
-      </c>
-      <c r="M375" s="21" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="376" spans="1:13" x14ac:dyDescent="0.2">
@@ -16183,10 +16180,10 @@
         <v>59</v>
       </c>
       <c r="L376" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="M376" s="21" t="s">
         <v>72</v>
-      </c>
-      <c r="M376" s="21" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="377" spans="1:13" x14ac:dyDescent="0.2">
@@ -16224,10 +16221,10 @@
         <v>59</v>
       </c>
       <c r="L377" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="M377" s="21" t="s">
         <v>72</v>
-      </c>
-      <c r="M377" s="21" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="378" spans="1:13" x14ac:dyDescent="0.2">
@@ -16265,10 +16262,10 @@
         <v>59</v>
       </c>
       <c r="L378" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="M378" s="21" t="s">
         <v>72</v>
-      </c>
-      <c r="M378" s="21" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="379" spans="1:13" x14ac:dyDescent="0.2">
@@ -16306,10 +16303,10 @@
         <v>59</v>
       </c>
       <c r="L379" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="M379" s="21" t="s">
         <v>72</v>
-      </c>
-      <c r="M379" s="21" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="380" spans="1:13" x14ac:dyDescent="0.2">
@@ -16347,10 +16344,10 @@
         <v>59</v>
       </c>
       <c r="L380" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="M380" s="21" t="s">
         <v>72</v>
-      </c>
-      <c r="M380" s="21" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="381" spans="1:13" x14ac:dyDescent="0.2">
@@ -16388,10 +16385,10 @@
         <v>59</v>
       </c>
       <c r="L381" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="M381" s="21" t="s">
         <v>72</v>
-      </c>
-      <c r="M381" s="21" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="382" spans="1:13" x14ac:dyDescent="0.2">
@@ -16429,10 +16426,10 @@
         <v>59</v>
       </c>
       <c r="L382" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="M382" s="21" t="s">
         <v>72</v>
-      </c>
-      <c r="M382" s="21" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="383" spans="1:13" x14ac:dyDescent="0.2">
@@ -16470,10 +16467,10 @@
         <v>59</v>
       </c>
       <c r="L383" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="M383" s="21" t="s">
         <v>72</v>
-      </c>
-      <c r="M383" s="21" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="384" spans="1:13" x14ac:dyDescent="0.2">
@@ -16511,10 +16508,10 @@
         <v>59</v>
       </c>
       <c r="L384" s="21" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M384" s="21" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="385" spans="1:13" x14ac:dyDescent="0.2">
@@ -16552,10 +16549,10 @@
         <v>59</v>
       </c>
       <c r="L385" s="21" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M385" s="21" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="386" spans="1:13" x14ac:dyDescent="0.2">
@@ -16593,10 +16590,10 @@
         <v>59</v>
       </c>
       <c r="L386" s="21" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M386" s="21" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/data-raw/cmam/otpEpisode_calculations.xlsx
+++ b/data-raw/cmam/otpEpisode_calculations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ernest/GitHub/squeacr/data-raw/cmam/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E475CC5D-C37B-E245-A1ED-D2726F0730B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D094B6A-F000-F048-B13E-64D6399523D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1553" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1634" uniqueCount="77">
   <si>
     <t>index</t>
   </si>
@@ -222,9 +222,6 @@
     <t>Abu Sunun</t>
   </si>
   <si>
-    <t xml:space="preserve">Baneet </t>
-  </si>
-  <si>
     <t>South Gazira</t>
   </si>
   <si>
@@ -256,6 +253,18 @@
   </si>
   <si>
     <t>Mealig</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Banaat </t>
+  </si>
+  <si>
+    <t>6,2</t>
+  </si>
+  <si>
+    <t>Elsaha Elmadrasia</t>
+  </si>
+  <si>
+    <t>Giad</t>
   </si>
 </sst>
 </file>
@@ -315,7 +324,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -352,24 +361,17 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -685,10 +687,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M386"/>
+  <dimension ref="A1:M406"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A352" workbookViewId="0">
-      <selection activeCell="D391" sqref="D391"/>
+    <sheetView tabSelected="1" topLeftCell="A375" workbookViewId="0">
+      <selection activeCell="A408" sqref="A408"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14664,7 +14666,7 @@
         <v>60</v>
       </c>
       <c r="M338" s="13" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
     </row>
     <row r="339" spans="1:13" x14ac:dyDescent="0.2">
@@ -14700,7 +14702,7 @@
         <v>60</v>
       </c>
       <c r="M339" s="13" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
     </row>
     <row r="340" spans="1:13" x14ac:dyDescent="0.2">
@@ -14738,10 +14740,10 @@
         <v>59</v>
       </c>
       <c r="L340" t="s">
+        <v>62</v>
+      </c>
+      <c r="M340" t="s">
         <v>63</v>
-      </c>
-      <c r="M340" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="341" spans="1:13" x14ac:dyDescent="0.2">
@@ -14779,10 +14781,10 @@
         <v>59</v>
       </c>
       <c r="L341" t="s">
+        <v>62</v>
+      </c>
+      <c r="M341" t="s">
         <v>63</v>
-      </c>
-      <c r="M341" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="342" spans="1:13" x14ac:dyDescent="0.2">
@@ -14820,10 +14822,10 @@
         <v>59</v>
       </c>
       <c r="L342" t="s">
+        <v>62</v>
+      </c>
+      <c r="M342" t="s">
         <v>63</v>
-      </c>
-      <c r="M342" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="343" spans="1:13" x14ac:dyDescent="0.2">
@@ -14861,10 +14863,10 @@
         <v>59</v>
       </c>
       <c r="L343" t="s">
+        <v>62</v>
+      </c>
+      <c r="M343" t="s">
         <v>63</v>
-      </c>
-      <c r="M343" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="344" spans="1:13" x14ac:dyDescent="0.2">
@@ -14902,10 +14904,10 @@
         <v>59</v>
       </c>
       <c r="L344" t="s">
+        <v>62</v>
+      </c>
+      <c r="M344" t="s">
         <v>63</v>
-      </c>
-      <c r="M344" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="345" spans="1:13" x14ac:dyDescent="0.2">
@@ -14927,7 +14929,9 @@
       <c r="F345" s="1">
         <v>44091</v>
       </c>
-      <c r="G345" s="16"/>
+      <c r="G345" s="1">
+        <v>44121</v>
+      </c>
       <c r="H345" s="9">
         <v>7.7</v>
       </c>
@@ -14941,10 +14945,10 @@
         <v>59</v>
       </c>
       <c r="L345" t="s">
+        <v>62</v>
+      </c>
+      <c r="M345" t="s">
         <v>63</v>
-      </c>
-      <c r="M345" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="346" spans="1:13" x14ac:dyDescent="0.2">
@@ -14982,10 +14986,10 @@
         <v>59</v>
       </c>
       <c r="L346" t="s">
+        <v>62</v>
+      </c>
+      <c r="M346" t="s">
         <v>63</v>
-      </c>
-      <c r="M346" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="347" spans="1:13" x14ac:dyDescent="0.2">
@@ -15023,10 +15027,10 @@
         <v>59</v>
       </c>
       <c r="L347" t="s">
+        <v>62</v>
+      </c>
+      <c r="M347" t="s">
         <v>63</v>
-      </c>
-      <c r="M347" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="348" spans="1:13" x14ac:dyDescent="0.2">
@@ -15064,10 +15068,10 @@
         <v>59</v>
       </c>
       <c r="L348" t="s">
+        <v>62</v>
+      </c>
+      <c r="M348" t="s">
         <v>63</v>
-      </c>
-      <c r="M348" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="349" spans="1:13" x14ac:dyDescent="0.2">
@@ -15105,10 +15109,10 @@
         <v>59</v>
       </c>
       <c r="L349" t="s">
+        <v>62</v>
+      </c>
+      <c r="M349" t="s">
         <v>63</v>
-      </c>
-      <c r="M349" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="350" spans="1:13" x14ac:dyDescent="0.2">
@@ -15146,10 +15150,10 @@
         <v>59</v>
       </c>
       <c r="L350" t="s">
+        <v>62</v>
+      </c>
+      <c r="M350" t="s">
         <v>63</v>
-      </c>
-      <c r="M350" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="351" spans="1:13" x14ac:dyDescent="0.2">
@@ -15187,10 +15191,10 @@
         <v>59</v>
       </c>
       <c r="L351" t="s">
+        <v>62</v>
+      </c>
+      <c r="M351" t="s">
         <v>63</v>
-      </c>
-      <c r="M351" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="352" spans="1:13" x14ac:dyDescent="0.2">
@@ -15224,14 +15228,14 @@
       <c r="J352" t="s">
         <v>10</v>
       </c>
-      <c r="K352" s="17" t="s">
+      <c r="K352" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="L352" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="M352" s="18" t="s">
-        <v>65</v>
+      <c r="L352" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="M352" s="17" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="353" spans="1:13" x14ac:dyDescent="0.2">
@@ -15265,14 +15269,14 @@
       <c r="J353" t="s">
         <v>10</v>
       </c>
-      <c r="K353" s="17" t="s">
+      <c r="K353" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="L353" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="M353" s="18" t="s">
-        <v>65</v>
+      <c r="L353" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="M353" s="17" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="354" spans="1:13" x14ac:dyDescent="0.2">
@@ -15306,14 +15310,14 @@
       <c r="J354" t="s">
         <v>10</v>
       </c>
-      <c r="K354" s="17" t="s">
+      <c r="K354" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="L354" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="M354" s="18" t="s">
-        <v>65</v>
+      <c r="L354" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="M354" s="17" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="355" spans="1:13" x14ac:dyDescent="0.2">
@@ -15347,14 +15351,14 @@
       <c r="J355" t="s">
         <v>10</v>
       </c>
-      <c r="K355" s="17" t="s">
+      <c r="K355" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="L355" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="M355" s="18" t="s">
-        <v>65</v>
+      <c r="L355" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="M355" s="17" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="356" spans="1:13" x14ac:dyDescent="0.2">
@@ -15388,14 +15392,14 @@
       <c r="J356" t="s">
         <v>10</v>
       </c>
-      <c r="K356" s="17" t="s">
+      <c r="K356" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="L356" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="M356" s="18" t="s">
-        <v>65</v>
+      <c r="L356" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="M356" s="17" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="357" spans="1:13" x14ac:dyDescent="0.2">
@@ -15414,7 +15418,7 @@
       <c r="E357" s="7">
         <v>66</v>
       </c>
-      <c r="F357" s="15">
+      <c r="F357" s="19">
         <v>44068</v>
       </c>
       <c r="G357" s="15">
@@ -15429,14 +15433,14 @@
       <c r="J357" t="s">
         <v>10</v>
       </c>
-      <c r="K357" s="17" t="s">
+      <c r="K357" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="L357" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="M357" s="18" t="s">
-        <v>65</v>
+      <c r="L357" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="M357" s="17" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="358" spans="1:13" x14ac:dyDescent="0.2">
@@ -15455,7 +15459,7 @@
       <c r="E358" s="7">
         <v>66</v>
       </c>
-      <c r="F358" s="15">
+      <c r="F358" s="19">
         <v>44068</v>
       </c>
       <c r="G358" s="15">
@@ -15470,14 +15474,14 @@
       <c r="J358" t="s">
         <v>10</v>
       </c>
-      <c r="K358" s="17" t="s">
+      <c r="K358" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="L358" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="M358" s="18" t="s">
-        <v>65</v>
+      <c r="L358" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="M358" s="17" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="359" spans="1:13" x14ac:dyDescent="0.2">
@@ -15496,7 +15500,7 @@
       <c r="E359" s="7">
         <v>66</v>
       </c>
-      <c r="F359" s="15">
+      <c r="F359" s="19">
         <v>44068</v>
       </c>
       <c r="G359" s="15">
@@ -15511,14 +15515,14 @@
       <c r="J359" t="s">
         <v>10</v>
       </c>
-      <c r="K359" s="17" t="s">
+      <c r="K359" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="L359" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="M359" s="18" t="s">
-        <v>65</v>
+      <c r="L359" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="M359" s="17" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="360" spans="1:13" x14ac:dyDescent="0.2">
@@ -15537,7 +15541,7 @@
       <c r="E360" s="7">
         <v>67</v>
       </c>
-      <c r="F360" s="15">
+      <c r="F360" s="19">
         <v>44073</v>
       </c>
       <c r="G360" s="15">
@@ -15552,14 +15556,14 @@
       <c r="J360" t="s">
         <v>10</v>
       </c>
-      <c r="K360" s="17" t="s">
+      <c r="K360" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="L360" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="M360" s="18" t="s">
-        <v>65</v>
+      <c r="L360" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="M360" s="17" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="361" spans="1:13" x14ac:dyDescent="0.2">
@@ -15572,13 +15576,13 @@
       <c r="C361" s="7">
         <v>11</v>
       </c>
-      <c r="D361" s="7">
-        <v>6.2</v>
+      <c r="D361" s="7" t="s">
+        <v>74</v>
       </c>
       <c r="E361" s="7">
         <v>68</v>
       </c>
-      <c r="F361" s="15">
+      <c r="F361" s="19">
         <v>44073</v>
       </c>
       <c r="G361" s="15">
@@ -15593,14 +15597,14 @@
       <c r="J361" t="s">
         <v>10</v>
       </c>
-      <c r="K361" s="17" t="s">
+      <c r="K361" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="L361" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="M361" s="18" t="s">
-        <v>65</v>
+      <c r="L361" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="M361" s="17" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="362" spans="1:13" x14ac:dyDescent="0.2">
@@ -15619,7 +15623,7 @@
       <c r="E362" s="7">
         <v>63</v>
       </c>
-      <c r="F362" s="15">
+      <c r="F362" s="19">
         <v>44073</v>
       </c>
       <c r="G362" s="15">
@@ -15634,14 +15638,14 @@
       <c r="J362" t="s">
         <v>10</v>
       </c>
-      <c r="K362" s="17" t="s">
+      <c r="K362" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="L362" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="M362" s="18" t="s">
-        <v>65</v>
+      <c r="L362" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="M362" s="17" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="363" spans="1:13" x14ac:dyDescent="0.2">
@@ -15675,14 +15679,14 @@
       <c r="J363" t="s">
         <v>10</v>
       </c>
-      <c r="K363" s="17" t="s">
+      <c r="K363" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="L363" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="M363" s="18" t="s">
-        <v>65</v>
+      <c r="L363" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="M363" s="17" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="364" spans="1:13" x14ac:dyDescent="0.2">
@@ -15716,189 +15720,174 @@
       <c r="J364" t="s">
         <v>10</v>
       </c>
-      <c r="K364" s="17" t="s">
+      <c r="K364" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="L364" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="M364" s="18" t="s">
-        <v>65</v>
+      <c r="L364" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="M364" s="17" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="365" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A365">
         <v>377</v>
       </c>
-      <c r="B365" s="10">
+      <c r="B365" s="7">
         <v>19</v>
       </c>
-      <c r="C365" s="10">
+      <c r="C365" s="7">
         <v>11</v>
       </c>
-      <c r="D365" s="10"/>
-      <c r="E365" s="10"/>
-      <c r="F365" s="22">
+      <c r="D365" s="7"/>
+      <c r="E365" s="7"/>
+      <c r="F365" s="15">
         <v>44098</v>
       </c>
-      <c r="G365" s="22">
+      <c r="G365" s="15">
         <v>44117</v>
       </c>
-      <c r="H365" s="12">
-        <v>13.5</v>
-      </c>
-      <c r="I365" s="13"/>
-      <c r="J365" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="K365" s="19" t="s">
+      <c r="H365" s="9"/>
+      <c r="J365" t="s">
+        <v>10</v>
+      </c>
+      <c r="K365" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="L365" s="20" t="s">
+      <c r="L365" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="M365" s="20" t="s">
-        <v>66</v>
+      <c r="M365" s="17" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="366" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A366">
         <v>378</v>
       </c>
-      <c r="B366" s="10">
+      <c r="B366" s="7">
         <v>9</v>
       </c>
-      <c r="C366" s="10">
+      <c r="C366" s="7">
         <v>11</v>
       </c>
-      <c r="D366" s="10"/>
-      <c r="E366" s="10"/>
-      <c r="F366" s="22">
+      <c r="D366" s="7"/>
+      <c r="E366" s="7"/>
+      <c r="F366" s="15">
         <v>44098</v>
       </c>
-      <c r="G366" s="22">
+      <c r="G366" s="15">
         <v>44129</v>
       </c>
-      <c r="H366" s="12">
-        <v>12.5</v>
-      </c>
-      <c r="I366" s="13"/>
-      <c r="J366" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="K366" s="19" t="s">
+      <c r="H366" s="9"/>
+      <c r="J366" t="s">
+        <v>10</v>
+      </c>
+      <c r="K366" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="L366" s="20" t="s">
+      <c r="L366" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="M366" s="20" t="s">
-        <v>66</v>
+      <c r="M366" s="17" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="367" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A367">
         <v>379</v>
       </c>
-      <c r="B367" s="10">
+      <c r="B367" s="7">
         <v>24</v>
       </c>
-      <c r="C367" s="10">
+      <c r="C367" s="7">
         <v>12</v>
       </c>
-      <c r="D367" s="10"/>
-      <c r="E367" s="10"/>
-      <c r="F367" s="22">
+      <c r="D367" s="7"/>
+      <c r="E367" s="7"/>
+      <c r="F367" s="15">
         <v>44098</v>
       </c>
-      <c r="G367" s="22">
+      <c r="G367" s="15">
         <v>44125</v>
       </c>
-      <c r="H367" s="12">
-        <v>12.5</v>
-      </c>
-      <c r="I367" s="13"/>
-      <c r="J367" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="K367" s="19" t="s">
+      <c r="H367" s="9"/>
+      <c r="J367" t="s">
+        <v>10</v>
+      </c>
+      <c r="K367" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="L367" s="20" t="s">
+      <c r="L367" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="M367" s="20" t="s">
-        <v>66</v>
+      <c r="M367" s="17" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="368" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A368">
         <v>380</v>
       </c>
-      <c r="B368" s="10">
+      <c r="B368" s="7">
         <v>18</v>
       </c>
-      <c r="C368" s="10">
+      <c r="C368" s="7">
         <v>11.4</v>
       </c>
-      <c r="D368" s="10"/>
-      <c r="E368" s="10"/>
-      <c r="F368" s="22">
+      <c r="D368" s="7"/>
+      <c r="E368" s="7"/>
+      <c r="F368" s="15">
         <v>44098</v>
       </c>
-      <c r="G368" s="22">
+      <c r="G368" s="15">
         <v>44118</v>
       </c>
-      <c r="H368" s="12">
-        <v>12.5</v>
-      </c>
-      <c r="I368" s="13"/>
-      <c r="J368" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="K368" s="19" t="s">
+      <c r="H368" s="9"/>
+      <c r="J368" t="s">
+        <v>10</v>
+      </c>
+      <c r="K368" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="L368" s="20" t="s">
+      <c r="L368" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="M368" s="20" t="s">
-        <v>66</v>
+      <c r="M368" s="17" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="369" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A369">
         <v>381</v>
       </c>
-      <c r="B369" s="10">
-        <v>36</v>
-      </c>
-      <c r="C369" s="10">
+      <c r="B369" s="7">
+        <v>36</v>
+      </c>
+      <c r="C369" s="7">
         <v>10.5</v>
       </c>
-      <c r="D369" s="10"/>
-      <c r="E369" s="10"/>
-      <c r="F369" s="22">
+      <c r="D369" s="7"/>
+      <c r="E369" s="7"/>
+      <c r="F369" s="15">
         <v>44098</v>
       </c>
-      <c r="G369" s="22">
+      <c r="G369" s="15">
         <v>44131</v>
       </c>
-      <c r="H369" s="12">
-        <v>12.5</v>
-      </c>
-      <c r="I369" s="13"/>
-      <c r="J369" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="K369" s="19" t="s">
+      <c r="H369" s="9"/>
+      <c r="J369" t="s">
+        <v>10</v>
+      </c>
+      <c r="K369" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="L369" s="20" t="s">
+      <c r="L369" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="M369" s="20" t="s">
-        <v>66</v>
+      <c r="M369" s="17" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="370" spans="1:13" x14ac:dyDescent="0.2">
@@ -15930,14 +15919,14 @@
       <c r="J370" t="s">
         <v>10</v>
       </c>
-      <c r="K370" s="17" t="s">
+      <c r="K370" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="L370" s="21" t="s">
+      <c r="L370" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="M370" s="18" t="s">
         <v>67</v>
-      </c>
-      <c r="M370" s="21" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="371" spans="1:13" x14ac:dyDescent="0.2">
@@ -15971,14 +15960,14 @@
       <c r="J371" t="s">
         <v>10</v>
       </c>
-      <c r="K371" s="17" t="s">
+      <c r="K371" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="L371" s="21" t="s">
+      <c r="L371" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="M371" s="18" t="s">
         <v>67</v>
-      </c>
-      <c r="M371" s="21" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="372" spans="1:13" x14ac:dyDescent="0.2">
@@ -16012,14 +16001,14 @@
       <c r="J372" t="s">
         <v>10</v>
       </c>
-      <c r="K372" s="17" t="s">
+      <c r="K372" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="L372" s="21" t="s">
+      <c r="L372" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="M372" s="18" t="s">
         <v>69</v>
-      </c>
-      <c r="M372" s="21" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="373" spans="1:13" x14ac:dyDescent="0.2">
@@ -16053,14 +16042,14 @@
       <c r="J373" t="s">
         <v>10</v>
       </c>
-      <c r="K373" s="17" t="s">
+      <c r="K373" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="L373" s="21" t="s">
+      <c r="L373" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="M373" s="18" t="s">
         <v>69</v>
-      </c>
-      <c r="M373" s="21" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="374" spans="1:13" x14ac:dyDescent="0.2">
@@ -16094,14 +16083,14 @@
       <c r="J374" t="s">
         <v>10</v>
       </c>
-      <c r="K374" s="17" t="s">
+      <c r="K374" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="L374" s="21" t="s">
+      <c r="L374" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="M374" s="18" t="s">
         <v>69</v>
-      </c>
-      <c r="M374" s="21" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="375" spans="1:13" x14ac:dyDescent="0.2">
@@ -16135,14 +16124,14 @@
       <c r="J375" t="s">
         <v>10</v>
       </c>
-      <c r="K375" s="17" t="s">
+      <c r="K375" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="L375" s="21" t="s">
+      <c r="L375" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="M375" s="18" t="s">
         <v>69</v>
-      </c>
-      <c r="M375" s="21" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="376" spans="1:13" x14ac:dyDescent="0.2">
@@ -16176,14 +16165,14 @@
       <c r="J376" t="s">
         <v>10</v>
       </c>
-      <c r="K376" s="17" t="s">
+      <c r="K376" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="L376" s="21" t="s">
+      <c r="L376" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="M376" s="18" t="s">
         <v>71</v>
-      </c>
-      <c r="M376" s="21" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="377" spans="1:13" x14ac:dyDescent="0.2">
@@ -16217,14 +16206,14 @@
       <c r="J377" t="s">
         <v>10</v>
       </c>
-      <c r="K377" s="17" t="s">
+      <c r="K377" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="L377" s="21" t="s">
+      <c r="L377" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="M377" s="18" t="s">
         <v>71</v>
-      </c>
-      <c r="M377" s="21" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="378" spans="1:13" x14ac:dyDescent="0.2">
@@ -16258,14 +16247,14 @@
       <c r="J378" t="s">
         <v>10</v>
       </c>
-      <c r="K378" s="17" t="s">
+      <c r="K378" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="L378" s="21" t="s">
+      <c r="L378" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="M378" s="18" t="s">
         <v>71</v>
-      </c>
-      <c r="M378" s="21" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="379" spans="1:13" x14ac:dyDescent="0.2">
@@ -16299,14 +16288,14 @@
       <c r="J379" t="s">
         <v>10</v>
       </c>
-      <c r="K379" s="17" t="s">
+      <c r="K379" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="L379" s="21" t="s">
+      <c r="L379" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="M379" s="18" t="s">
         <v>71</v>
-      </c>
-      <c r="M379" s="21" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="380" spans="1:13" x14ac:dyDescent="0.2">
@@ -16340,14 +16329,14 @@
       <c r="J380" t="s">
         <v>10</v>
       </c>
-      <c r="K380" s="17" t="s">
+      <c r="K380" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="L380" s="21" t="s">
+      <c r="L380" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="M380" s="18" t="s">
         <v>71</v>
-      </c>
-      <c r="M380" s="21" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="381" spans="1:13" x14ac:dyDescent="0.2">
@@ -16381,14 +16370,14 @@
       <c r="J381" t="s">
         <v>10</v>
       </c>
-      <c r="K381" s="17" t="s">
+      <c r="K381" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="L381" s="21" t="s">
+      <c r="L381" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="M381" s="18" t="s">
         <v>71</v>
-      </c>
-      <c r="M381" s="21" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="382" spans="1:13" x14ac:dyDescent="0.2">
@@ -16422,14 +16411,14 @@
       <c r="J382" t="s">
         <v>10</v>
       </c>
-      <c r="K382" s="17" t="s">
+      <c r="K382" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="L382" s="21" t="s">
+      <c r="L382" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="M382" s="18" t="s">
         <v>71</v>
-      </c>
-      <c r="M382" s="21" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="383" spans="1:13" x14ac:dyDescent="0.2">
@@ -16463,14 +16452,14 @@
       <c r="J383" t="s">
         <v>10</v>
       </c>
-      <c r="K383" s="17" t="s">
+      <c r="K383" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="L383" s="21" t="s">
+      <c r="L383" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="M383" s="18" t="s">
         <v>71</v>
-      </c>
-      <c r="M383" s="21" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="384" spans="1:13" x14ac:dyDescent="0.2">
@@ -16504,14 +16493,14 @@
       <c r="J384" t="s">
         <v>10</v>
       </c>
-      <c r="K384" s="17" t="s">
+      <c r="K384" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="L384" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="M384" s="21" t="s">
-        <v>73</v>
+      <c r="L384" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="M384" s="18" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="385" spans="1:13" x14ac:dyDescent="0.2">
@@ -16545,14 +16534,14 @@
       <c r="J385" t="s">
         <v>10</v>
       </c>
-      <c r="K385" s="17" t="s">
+      <c r="K385" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="L385" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="M385" s="21" t="s">
-        <v>73</v>
+      <c r="L385" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="M385" s="18" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="386" spans="1:13" x14ac:dyDescent="0.2">
@@ -16586,14 +16575,834 @@
       <c r="J386" t="s">
         <v>10</v>
       </c>
-      <c r="K386" s="17" t="s">
+      <c r="K386" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="L386" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="M386" s="21" t="s">
-        <v>73</v>
+      <c r="L386" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="M386" s="18" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="387" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A387">
+        <v>399</v>
+      </c>
+      <c r="B387">
+        <v>18</v>
+      </c>
+      <c r="C387">
+        <v>10.4</v>
+      </c>
+      <c r="D387">
+        <v>11.6</v>
+      </c>
+      <c r="E387">
+        <v>70</v>
+      </c>
+      <c r="F387" s="1">
+        <v>44024</v>
+      </c>
+      <c r="G387" s="1">
+        <v>44076</v>
+      </c>
+      <c r="H387">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="I387">
+        <v>6</v>
+      </c>
+      <c r="J387" t="s">
+        <v>10</v>
+      </c>
+      <c r="K387" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="L387" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="M387" s="18" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="388" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A388">
+        <v>400</v>
+      </c>
+      <c r="B388">
+        <v>9</v>
+      </c>
+      <c r="C388">
+        <v>10.5</v>
+      </c>
+      <c r="D388">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="E388">
+        <v>68.3</v>
+      </c>
+      <c r="F388" s="1">
+        <v>43997</v>
+      </c>
+      <c r="G388" s="1">
+        <v>44090</v>
+      </c>
+      <c r="H388">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="I388">
+        <v>10</v>
+      </c>
+      <c r="J388" t="s">
+        <v>10</v>
+      </c>
+      <c r="K388" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="L388" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="M388" s="18" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="389" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A389">
+        <v>401</v>
+      </c>
+      <c r="B389">
+        <v>34</v>
+      </c>
+      <c r="C389">
+        <v>11.4</v>
+      </c>
+      <c r="D389">
+        <v>11.1</v>
+      </c>
+      <c r="E389">
+        <v>74</v>
+      </c>
+      <c r="F389" s="1">
+        <v>44032</v>
+      </c>
+      <c r="G389" s="1">
+        <v>44066</v>
+      </c>
+      <c r="H389">
+        <v>11.6</v>
+      </c>
+      <c r="I389">
+        <v>4</v>
+      </c>
+      <c r="J389" t="s">
+        <v>10</v>
+      </c>
+      <c r="K389" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="L389" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="M389" s="18" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="390" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A390">
+        <v>402</v>
+      </c>
+      <c r="B390">
+        <v>10</v>
+      </c>
+      <c r="C390">
+        <v>11.5</v>
+      </c>
+      <c r="D390">
+        <v>7.5</v>
+      </c>
+      <c r="E390">
+        <v>64</v>
+      </c>
+      <c r="F390" s="1">
+        <v>44034</v>
+      </c>
+      <c r="G390" s="1">
+        <v>44064</v>
+      </c>
+      <c r="H390">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="I390">
+        <v>5</v>
+      </c>
+      <c r="J390" t="s">
+        <v>10</v>
+      </c>
+      <c r="K390" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="L390" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="M390" s="18" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="391" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A391">
+        <v>403</v>
+      </c>
+      <c r="B391">
+        <v>11</v>
+      </c>
+      <c r="C391">
+        <v>10.5</v>
+      </c>
+      <c r="D391">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="E391">
+        <v>68.099999999999994</v>
+      </c>
+      <c r="F391" s="1">
+        <v>43960</v>
+      </c>
+      <c r="G391" s="1">
+        <v>44017</v>
+      </c>
+      <c r="H391">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="I391">
+        <v>8</v>
+      </c>
+      <c r="J391" t="s">
+        <v>10</v>
+      </c>
+      <c r="K391" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="L391" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="M391" s="18" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="392" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A392">
+        <v>404</v>
+      </c>
+      <c r="B392">
+        <v>8</v>
+      </c>
+      <c r="C392">
+        <v>11.4</v>
+      </c>
+      <c r="D392">
+        <v>8.4</v>
+      </c>
+      <c r="E392">
+        <v>70</v>
+      </c>
+      <c r="F392" s="1">
+        <v>44015</v>
+      </c>
+      <c r="G392" s="1">
+        <v>43984</v>
+      </c>
+      <c r="H392">
+        <v>8.9</v>
+      </c>
+      <c r="I392">
+        <v>5</v>
+      </c>
+      <c r="J392" t="s">
+        <v>10</v>
+      </c>
+      <c r="K392" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="L392" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="M392" s="18" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="393" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A393">
+        <v>405</v>
+      </c>
+      <c r="B393">
+        <v>14</v>
+      </c>
+      <c r="C393">
+        <v>11.4</v>
+      </c>
+      <c r="D393">
+        <v>8.4</v>
+      </c>
+      <c r="E393">
+        <v>69</v>
+      </c>
+      <c r="F393" s="1">
+        <v>43898</v>
+      </c>
+      <c r="G393" s="1">
+        <v>43954</v>
+      </c>
+      <c r="H393">
+        <v>9.1</v>
+      </c>
+      <c r="I393">
+        <v>7</v>
+      </c>
+      <c r="J393" t="s">
+        <v>10</v>
+      </c>
+      <c r="K393" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="L393" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="M393" s="18" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="394" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A394">
+        <v>406</v>
+      </c>
+      <c r="B394">
+        <v>48</v>
+      </c>
+      <c r="C394">
+        <v>11.1</v>
+      </c>
+      <c r="D394">
+        <v>11.6</v>
+      </c>
+      <c r="E394">
+        <v>73.2</v>
+      </c>
+      <c r="F394" s="1">
+        <v>43873</v>
+      </c>
+      <c r="G394" s="1">
+        <v>43954</v>
+      </c>
+      <c r="H394">
+        <v>12.4</v>
+      </c>
+      <c r="I394">
+        <v>10</v>
+      </c>
+      <c r="J394" t="s">
+        <v>10</v>
+      </c>
+      <c r="K394" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="L394" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="M394" s="18" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="395" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A395">
+        <v>407</v>
+      </c>
+      <c r="B395">
+        <v>10</v>
+      </c>
+      <c r="C395">
+        <v>11.3</v>
+      </c>
+      <c r="D395">
+        <v>7.3</v>
+      </c>
+      <c r="E395">
+        <v>68</v>
+      </c>
+      <c r="F395" s="1">
+        <v>44048</v>
+      </c>
+      <c r="G395" s="1">
+        <v>44100</v>
+      </c>
+      <c r="H395">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="I395">
+        <v>7</v>
+      </c>
+      <c r="J395" t="s">
+        <v>10</v>
+      </c>
+      <c r="K395" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="L395" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="M395" s="18" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="396" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A396">
+        <v>408</v>
+      </c>
+      <c r="B396">
+        <v>8</v>
+      </c>
+      <c r="C396">
+        <v>10.6</v>
+      </c>
+      <c r="D396">
+        <v>8.6</v>
+      </c>
+      <c r="E396">
+        <v>69</v>
+      </c>
+      <c r="F396" s="1">
+        <v>44004</v>
+      </c>
+      <c r="G396" s="1">
+        <v>44099</v>
+      </c>
+      <c r="H396">
+        <v>9.6</v>
+      </c>
+      <c r="I396">
+        <v>10</v>
+      </c>
+      <c r="J396" t="s">
+        <v>10</v>
+      </c>
+      <c r="K396" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="L396" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="M396" s="18" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="397" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A397">
+        <v>409</v>
+      </c>
+      <c r="B397">
+        <v>14</v>
+      </c>
+      <c r="C397">
+        <v>11.3</v>
+      </c>
+      <c r="D397">
+        <v>9.6</v>
+      </c>
+      <c r="E397">
+        <v>71.3</v>
+      </c>
+      <c r="F397" s="1">
+        <v>44020</v>
+      </c>
+      <c r="G397" s="1">
+        <v>44083</v>
+      </c>
+      <c r="H397">
+        <v>11.3</v>
+      </c>
+      <c r="I397">
+        <v>8</v>
+      </c>
+      <c r="J397" t="s">
+        <v>10</v>
+      </c>
+      <c r="K397" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="L397" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="M397" s="18" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="398" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A398">
+        <v>410</v>
+      </c>
+      <c r="B398">
+        <v>12</v>
+      </c>
+      <c r="C398">
+        <v>11.5</v>
+      </c>
+      <c r="D398">
+        <v>7.9</v>
+      </c>
+      <c r="E398">
+        <v>68.5</v>
+      </c>
+      <c r="F398" s="1">
+        <v>44081</v>
+      </c>
+      <c r="G398" s="1">
+        <v>44130</v>
+      </c>
+      <c r="H398">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="I398">
+        <v>6</v>
+      </c>
+      <c r="J398" t="s">
+        <v>10</v>
+      </c>
+      <c r="K398" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="L398" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="M398" s="18" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="399" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A399">
+        <v>411</v>
+      </c>
+      <c r="B399">
+        <v>18</v>
+      </c>
+      <c r="C399">
+        <v>11.1</v>
+      </c>
+      <c r="D399">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="E399">
+        <v>69.5</v>
+      </c>
+      <c r="F399" s="1">
+        <v>44076</v>
+      </c>
+      <c r="G399" s="1">
+        <v>44130</v>
+      </c>
+      <c r="H399">
+        <v>10.1</v>
+      </c>
+      <c r="I399">
+        <v>7</v>
+      </c>
+      <c r="J399" t="s">
+        <v>10</v>
+      </c>
+      <c r="K399" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="L399" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="M399" s="18" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="400" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A400">
+        <v>412</v>
+      </c>
+      <c r="B400">
+        <v>18</v>
+      </c>
+      <c r="C400">
+        <v>11.3</v>
+      </c>
+      <c r="D400">
+        <v>8.1</v>
+      </c>
+      <c r="E400">
+        <v>69</v>
+      </c>
+      <c r="F400" s="1">
+        <v>44076</v>
+      </c>
+      <c r="G400" s="1">
+        <v>44113</v>
+      </c>
+      <c r="H400">
+        <v>12.3</v>
+      </c>
+      <c r="I400">
+        <v>6</v>
+      </c>
+      <c r="J400" t="s">
+        <v>10</v>
+      </c>
+      <c r="K400" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="L400" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="M400" s="18" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="401" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A401">
+        <v>413</v>
+      </c>
+      <c r="B401">
+        <v>9</v>
+      </c>
+      <c r="C401">
+        <v>11.4</v>
+      </c>
+      <c r="D401">
+        <v>8.1</v>
+      </c>
+      <c r="E401">
+        <v>68.5</v>
+      </c>
+      <c r="F401" s="1">
+        <v>44013</v>
+      </c>
+      <c r="G401" s="1">
+        <v>44083</v>
+      </c>
+      <c r="H401">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="I401">
+        <v>6</v>
+      </c>
+      <c r="J401" t="s">
+        <v>10</v>
+      </c>
+      <c r="K401" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="L401" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="M401" s="18" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="402" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A402">
+        <v>414</v>
+      </c>
+      <c r="B402">
+        <v>10</v>
+      </c>
+      <c r="C402">
+        <v>11</v>
+      </c>
+      <c r="D402">
+        <v>5.5</v>
+      </c>
+      <c r="E402">
+        <v>69</v>
+      </c>
+      <c r="F402" s="1">
+        <v>44027</v>
+      </c>
+      <c r="G402" s="1">
+        <v>44111</v>
+      </c>
+      <c r="H402">
+        <v>6.5</v>
+      </c>
+      <c r="I402">
+        <v>6</v>
+      </c>
+      <c r="J402" t="s">
+        <v>10</v>
+      </c>
+      <c r="K402" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="L402" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="M402" s="18" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="403" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A403">
+        <v>415</v>
+      </c>
+      <c r="B403">
+        <v>28</v>
+      </c>
+      <c r="C403">
+        <v>12</v>
+      </c>
+      <c r="D403">
+        <v>8</v>
+      </c>
+      <c r="E403">
+        <v>84</v>
+      </c>
+      <c r="F403" s="1">
+        <v>44087</v>
+      </c>
+      <c r="G403" s="1">
+        <v>44115</v>
+      </c>
+      <c r="H403">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="I403">
+        <v>3</v>
+      </c>
+      <c r="J403" t="s">
+        <v>10</v>
+      </c>
+      <c r="K403" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="L403" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="M403" s="18" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="404" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A404">
+        <v>416</v>
+      </c>
+      <c r="B404">
+        <v>13</v>
+      </c>
+      <c r="C404">
+        <v>12</v>
+      </c>
+      <c r="D404">
+        <v>6</v>
+      </c>
+      <c r="E404">
+        <v>76</v>
+      </c>
+      <c r="F404" s="1">
+        <v>44080</v>
+      </c>
+      <c r="G404" s="1">
+        <v>44108</v>
+      </c>
+      <c r="H404">
+        <v>8</v>
+      </c>
+      <c r="I404">
+        <v>3</v>
+      </c>
+      <c r="J404" t="s">
+        <v>10</v>
+      </c>
+      <c r="K404" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="L404" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="M404" s="18" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="405" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A405">
+        <v>417</v>
+      </c>
+      <c r="B405">
+        <v>10</v>
+      </c>
+      <c r="C405">
+        <v>11</v>
+      </c>
+      <c r="D405">
+        <v>5.5</v>
+      </c>
+      <c r="E405">
+        <v>72</v>
+      </c>
+      <c r="F405" s="1">
+        <v>44066</v>
+      </c>
+      <c r="G405" s="1">
+        <v>44132</v>
+      </c>
+      <c r="H405">
+        <v>8.5</v>
+      </c>
+      <c r="I405">
+        <v>6</v>
+      </c>
+      <c r="J405" t="s">
+        <v>10</v>
+      </c>
+      <c r="K405" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="L405" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="M405" s="18" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="406" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A406">
+        <v>418</v>
+      </c>
+      <c r="B406">
+        <v>12</v>
+      </c>
+      <c r="C406">
+        <v>11</v>
+      </c>
+      <c r="D406">
+        <v>5</v>
+      </c>
+      <c r="E406">
+        <v>86</v>
+      </c>
+      <c r="F406" s="1">
+        <v>43899</v>
+      </c>
+      <c r="G406" s="1">
+        <v>43955</v>
+      </c>
+      <c r="H406">
+        <v>7.5</v>
+      </c>
+      <c r="I406">
+        <v>6</v>
+      </c>
+      <c r="J406" t="s">
+        <v>10</v>
+      </c>
+      <c r="K406" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="L406" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="M406" s="18" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/data-raw/cmam/otpEpisode_calculations.xlsx
+++ b/data-raw/cmam/otpEpisode_calculations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ernest/GitHub/squeacr/data-raw/cmam/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D094B6A-F000-F048-B13E-64D6399523D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59185AF9-ED6F-644A-AFE6-61962806CBE3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1634" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1633" uniqueCount="76">
   <si>
     <t>index</t>
   </si>
@@ -256,9 +256,6 @@
   </si>
   <si>
     <t xml:space="preserve">Banaat </t>
-  </si>
-  <si>
-    <t>6,2</t>
   </si>
   <si>
     <t>Elsaha Elmadrasia</t>
@@ -689,8 +686,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M406"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A375" workbookViewId="0">
-      <selection activeCell="A408" sqref="A408"/>
+    <sheetView tabSelected="1" topLeftCell="A327" workbookViewId="0">
+      <selection activeCell="D362" sqref="D362"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -15576,8 +15573,8 @@
       <c r="C361" s="7">
         <v>11</v>
       </c>
-      <c r="D361" s="7" t="s">
-        <v>74</v>
+      <c r="D361" s="7">
+        <v>6.2</v>
       </c>
       <c r="E361" s="7">
         <v>68</v>
@@ -16623,7 +16620,7 @@
         <v>70</v>
       </c>
       <c r="M387" s="18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="388" spans="1:13" x14ac:dyDescent="0.2">
@@ -16664,7 +16661,7 @@
         <v>70</v>
       </c>
       <c r="M388" s="18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="389" spans="1:13" x14ac:dyDescent="0.2">
@@ -16705,7 +16702,7 @@
         <v>70</v>
       </c>
       <c r="M389" s="18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="390" spans="1:13" x14ac:dyDescent="0.2">
@@ -16746,7 +16743,7 @@
         <v>70</v>
       </c>
       <c r="M390" s="18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="391" spans="1:13" x14ac:dyDescent="0.2">
@@ -16787,7 +16784,7 @@
         <v>70</v>
       </c>
       <c r="M391" s="18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="392" spans="1:13" x14ac:dyDescent="0.2">
@@ -16828,7 +16825,7 @@
         <v>70</v>
       </c>
       <c r="M392" s="18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="393" spans="1:13" x14ac:dyDescent="0.2">
@@ -16869,7 +16866,7 @@
         <v>70</v>
       </c>
       <c r="M393" s="18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="394" spans="1:13" x14ac:dyDescent="0.2">
@@ -16910,7 +16907,7 @@
         <v>70</v>
       </c>
       <c r="M394" s="18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="395" spans="1:13" x14ac:dyDescent="0.2">
@@ -16951,7 +16948,7 @@
         <v>70</v>
       </c>
       <c r="M395" s="18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="396" spans="1:13" x14ac:dyDescent="0.2">
@@ -16992,7 +16989,7 @@
         <v>70</v>
       </c>
       <c r="M396" s="18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="397" spans="1:13" x14ac:dyDescent="0.2">
@@ -17033,7 +17030,7 @@
         <v>70</v>
       </c>
       <c r="M397" s="18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="398" spans="1:13" x14ac:dyDescent="0.2">
@@ -17074,7 +17071,7 @@
         <v>70</v>
       </c>
       <c r="M398" s="18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="399" spans="1:13" x14ac:dyDescent="0.2">
@@ -17115,7 +17112,7 @@
         <v>70</v>
       </c>
       <c r="M399" s="18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="400" spans="1:13" x14ac:dyDescent="0.2">
@@ -17156,7 +17153,7 @@
         <v>70</v>
       </c>
       <c r="M400" s="18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="401" spans="1:13" x14ac:dyDescent="0.2">
@@ -17197,7 +17194,7 @@
         <v>70</v>
       </c>
       <c r="M401" s="18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="402" spans="1:13" x14ac:dyDescent="0.2">
@@ -17238,7 +17235,7 @@
         <v>70</v>
       </c>
       <c r="M402" s="18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="403" spans="1:13" x14ac:dyDescent="0.2">
@@ -17279,7 +17276,7 @@
         <v>70</v>
       </c>
       <c r="M403" s="18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="404" spans="1:13" x14ac:dyDescent="0.2">
@@ -17320,7 +17317,7 @@
         <v>70</v>
       </c>
       <c r="M404" s="18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="405" spans="1:13" x14ac:dyDescent="0.2">
@@ -17361,7 +17358,7 @@
         <v>70</v>
       </c>
       <c r="M405" s="18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="406" spans="1:13" x14ac:dyDescent="0.2">
@@ -17402,7 +17399,7 @@
         <v>70</v>
       </c>
       <c r="M406" s="18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/data-raw/cmam/otpEpisode_calculations.xlsx
+++ b/data-raw/cmam/otpEpisode_calculations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ernest/GitHub/squeacr/data-raw/cmam/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59185AF9-ED6F-644A-AFE6-61962806CBE3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B858DA95-280B-F441-A57F-5E0A012CA035}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1633" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1633" uniqueCount="74">
   <si>
     <t>index</t>
   </si>
@@ -234,13 +234,7 @@
     <t>Alkareba</t>
   </si>
   <si>
-    <t>Sharg Algazira</t>
-  </si>
-  <si>
     <t>Alganed</t>
-  </si>
-  <si>
-    <t>South Algazira</t>
   </si>
   <si>
     <t>Barakat</t>
@@ -686,8 +680,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M406"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A327" workbookViewId="0">
-      <selection activeCell="D362" sqref="D362"/>
+    <sheetView tabSelected="1" topLeftCell="A359" workbookViewId="0">
+      <selection activeCell="L370" sqref="L370:L375"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14663,7 +14657,7 @@
         <v>60</v>
       </c>
       <c r="M338" s="13" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="339" spans="1:13" x14ac:dyDescent="0.2">
@@ -14699,7 +14693,7 @@
         <v>60</v>
       </c>
       <c r="M339" s="13" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="340" spans="1:13" x14ac:dyDescent="0.2">
@@ -15919,11 +15913,11 @@
       <c r="K370" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="L370" s="18" t="s">
+      <c r="L370" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="M370" s="18" t="s">
         <v>66</v>
-      </c>
-      <c r="M370" s="18" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="371" spans="1:13" x14ac:dyDescent="0.2">
@@ -15960,11 +15954,11 @@
       <c r="K371" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="L371" s="18" t="s">
+      <c r="L371" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="M371" s="18" t="s">
         <v>66</v>
-      </c>
-      <c r="M371" s="18" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="372" spans="1:13" x14ac:dyDescent="0.2">
@@ -16001,11 +15995,11 @@
       <c r="K372" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="L372" s="18" t="s">
-        <v>68</v>
+      <c r="L372" s="17" t="s">
+        <v>62</v>
       </c>
       <c r="M372" s="18" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="373" spans="1:13" x14ac:dyDescent="0.2">
@@ -16042,11 +16036,11 @@
       <c r="K373" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="L373" s="18" t="s">
-        <v>68</v>
+      <c r="L373" s="17" t="s">
+        <v>62</v>
       </c>
       <c r="M373" s="18" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="374" spans="1:13" x14ac:dyDescent="0.2">
@@ -16083,11 +16077,11 @@
       <c r="K374" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="L374" s="18" t="s">
-        <v>68</v>
+      <c r="L374" s="17" t="s">
+        <v>62</v>
       </c>
       <c r="M374" s="18" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="375" spans="1:13" x14ac:dyDescent="0.2">
@@ -16124,11 +16118,11 @@
       <c r="K375" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="L375" s="18" t="s">
-        <v>68</v>
+      <c r="L375" s="17" t="s">
+        <v>62</v>
       </c>
       <c r="M375" s="18" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="376" spans="1:13" x14ac:dyDescent="0.2">
@@ -16166,10 +16160,10 @@
         <v>59</v>
       </c>
       <c r="L376" s="18" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="M376" s="18" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="377" spans="1:13" x14ac:dyDescent="0.2">
@@ -16207,10 +16201,10 @@
         <v>59</v>
       </c>
       <c r="L377" s="18" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="M377" s="18" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="378" spans="1:13" x14ac:dyDescent="0.2">
@@ -16248,10 +16242,10 @@
         <v>59</v>
       </c>
       <c r="L378" s="18" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="M378" s="18" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="379" spans="1:13" x14ac:dyDescent="0.2">
@@ -16289,10 +16283,10 @@
         <v>59</v>
       </c>
       <c r="L379" s="18" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="M379" s="18" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="380" spans="1:13" x14ac:dyDescent="0.2">
@@ -16330,10 +16324,10 @@
         <v>59</v>
       </c>
       <c r="L380" s="18" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="M380" s="18" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="381" spans="1:13" x14ac:dyDescent="0.2">
@@ -16371,10 +16365,10 @@
         <v>59</v>
       </c>
       <c r="L381" s="18" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="M381" s="18" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="382" spans="1:13" x14ac:dyDescent="0.2">
@@ -16412,10 +16406,10 @@
         <v>59</v>
       </c>
       <c r="L382" s="18" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="M382" s="18" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="383" spans="1:13" x14ac:dyDescent="0.2">
@@ -16453,10 +16447,10 @@
         <v>59</v>
       </c>
       <c r="L383" s="18" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="M383" s="18" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="384" spans="1:13" x14ac:dyDescent="0.2">
@@ -16494,10 +16488,10 @@
         <v>59</v>
       </c>
       <c r="L384" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="M384" s="18" t="s">
         <v>70</v>
-      </c>
-      <c r="M384" s="18" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="385" spans="1:13" x14ac:dyDescent="0.2">
@@ -16535,10 +16529,10 @@
         <v>59</v>
       </c>
       <c r="L385" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="M385" s="18" t="s">
         <v>70</v>
-      </c>
-      <c r="M385" s="18" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="386" spans="1:13" x14ac:dyDescent="0.2">
@@ -16576,10 +16570,10 @@
         <v>59</v>
       </c>
       <c r="L386" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="M386" s="18" t="s">
         <v>70</v>
-      </c>
-      <c r="M386" s="18" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="387" spans="1:13" x14ac:dyDescent="0.2">
@@ -16617,10 +16611,10 @@
         <v>59</v>
       </c>
       <c r="L387" s="18" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="M387" s="18" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="388" spans="1:13" x14ac:dyDescent="0.2">
@@ -16658,10 +16652,10 @@
         <v>59</v>
       </c>
       <c r="L388" s="18" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="M388" s="18" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="389" spans="1:13" x14ac:dyDescent="0.2">
@@ -16699,10 +16693,10 @@
         <v>59</v>
       </c>
       <c r="L389" s="18" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="M389" s="18" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="390" spans="1:13" x14ac:dyDescent="0.2">
@@ -16740,10 +16734,10 @@
         <v>59</v>
       </c>
       <c r="L390" s="18" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="M390" s="18" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="391" spans="1:13" x14ac:dyDescent="0.2">
@@ -16781,10 +16775,10 @@
         <v>59</v>
       </c>
       <c r="L391" s="18" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="M391" s="18" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="392" spans="1:13" x14ac:dyDescent="0.2">
@@ -16822,10 +16816,10 @@
         <v>59</v>
       </c>
       <c r="L392" s="18" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="M392" s="18" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="393" spans="1:13" x14ac:dyDescent="0.2">
@@ -16863,10 +16857,10 @@
         <v>59</v>
       </c>
       <c r="L393" s="18" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="M393" s="18" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="394" spans="1:13" x14ac:dyDescent="0.2">
@@ -16904,10 +16898,10 @@
         <v>59</v>
       </c>
       <c r="L394" s="18" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="M394" s="18" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="395" spans="1:13" x14ac:dyDescent="0.2">
@@ -16945,10 +16939,10 @@
         <v>59</v>
       </c>
       <c r="L395" s="18" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="M395" s="18" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="396" spans="1:13" x14ac:dyDescent="0.2">
@@ -16986,10 +16980,10 @@
         <v>59</v>
       </c>
       <c r="L396" s="18" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="M396" s="18" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="397" spans="1:13" x14ac:dyDescent="0.2">
@@ -17027,10 +17021,10 @@
         <v>59</v>
       </c>
       <c r="L397" s="18" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="M397" s="18" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="398" spans="1:13" x14ac:dyDescent="0.2">
@@ -17068,10 +17062,10 @@
         <v>59</v>
       </c>
       <c r="L398" s="18" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="M398" s="18" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="399" spans="1:13" x14ac:dyDescent="0.2">
@@ -17109,10 +17103,10 @@
         <v>59</v>
       </c>
       <c r="L399" s="18" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="M399" s="18" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="400" spans="1:13" x14ac:dyDescent="0.2">
@@ -17150,10 +17144,10 @@
         <v>59</v>
       </c>
       <c r="L400" s="18" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="M400" s="18" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="401" spans="1:13" x14ac:dyDescent="0.2">
@@ -17191,10 +17185,10 @@
         <v>59</v>
       </c>
       <c r="L401" s="18" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="M401" s="18" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="402" spans="1:13" x14ac:dyDescent="0.2">
@@ -17232,10 +17226,10 @@
         <v>59</v>
       </c>
       <c r="L402" s="18" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="M402" s="18" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="403" spans="1:13" x14ac:dyDescent="0.2">
@@ -17273,10 +17267,10 @@
         <v>59</v>
       </c>
       <c r="L403" s="18" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="M403" s="18" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="404" spans="1:13" x14ac:dyDescent="0.2">
@@ -17314,10 +17308,10 @@
         <v>59</v>
       </c>
       <c r="L404" s="18" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="M404" s="18" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="405" spans="1:13" x14ac:dyDescent="0.2">
@@ -17355,10 +17349,10 @@
         <v>59</v>
       </c>
       <c r="L405" s="18" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="M405" s="18" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="406" spans="1:13" x14ac:dyDescent="0.2">
@@ -17396,10 +17390,10 @@
         <v>59</v>
       </c>
       <c r="L406" s="18" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="M406" s="18" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/data-raw/cmam/otpEpisode_calculations.xlsx
+++ b/data-raw/cmam/otpEpisode_calculations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ernest/GitHub/squeacr/data-raw/cmam/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B858DA95-280B-F441-A57F-5E0A012CA035}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D046D009-610B-324B-9958-E477E853C7B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1633" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1633" uniqueCount="75">
   <si>
     <t>index</t>
   </si>
@@ -256,6 +256,9 @@
   </si>
   <si>
     <t>Giad</t>
+  </si>
+  <si>
+    <t>Sharg Algazira</t>
   </si>
 </sst>
 </file>
@@ -680,8 +683,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M406"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A359" workbookViewId="0">
-      <selection activeCell="L370" sqref="L370:L375"/>
+    <sheetView tabSelected="1" topLeftCell="A347" workbookViewId="0">
+      <selection activeCell="N373" sqref="N373"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -15914,7 +15917,7 @@
         <v>59</v>
       </c>
       <c r="L370" s="17" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="M370" s="18" t="s">
         <v>66</v>
@@ -15955,7 +15958,7 @@
         <v>59</v>
       </c>
       <c r="L371" s="17" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="M371" s="18" t="s">
         <v>66</v>
@@ -15996,7 +15999,7 @@
         <v>59</v>
       </c>
       <c r="L372" s="17" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="M372" s="18" t="s">
         <v>67</v>
@@ -16037,7 +16040,7 @@
         <v>59</v>
       </c>
       <c r="L373" s="17" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="M373" s="18" t="s">
         <v>67</v>
@@ -16078,7 +16081,7 @@
         <v>59</v>
       </c>
       <c r="L374" s="17" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="M374" s="18" t="s">
         <v>67</v>
@@ -16119,7 +16122,7 @@
         <v>59</v>
       </c>
       <c r="L375" s="17" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="M375" s="18" t="s">
         <v>67</v>

--- a/data-raw/cmam/otpEpisode_calculations.xlsx
+++ b/data-raw/cmam/otpEpisode_calculations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ernest/GitHub/squeacr/data-raw/cmam/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D046D009-610B-324B-9958-E477E853C7B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55109840-A008-9C4C-B8AC-99737A519827}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -684,7 +684,7 @@
   <dimension ref="A1:M406"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A347" workbookViewId="0">
-      <selection activeCell="N373" sqref="N373"/>
+      <selection activeCell="L377" sqref="L377"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -15999,7 +15999,7 @@
         <v>59</v>
       </c>
       <c r="L372" s="17" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="M372" s="18" t="s">
         <v>67</v>
@@ -16040,7 +16040,7 @@
         <v>59</v>
       </c>
       <c r="L373" s="17" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="M373" s="18" t="s">
         <v>67</v>
@@ -16081,7 +16081,7 @@
         <v>59</v>
       </c>
       <c r="L374" s="17" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="M374" s="18" t="s">
         <v>67</v>
@@ -16163,7 +16163,7 @@
         <v>59</v>
       </c>
       <c r="L376" s="18" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="M376" s="18" t="s">
         <v>69</v>
